--- a/Producciones.xlsx
+++ b/Producciones.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Usuario\Documents\NetBeansProjects\Compilador\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{728FB5EB-AE70-474A-BA02-A9A560C2C4D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B21C31F-224C-46EC-81C3-E17B7C81B10B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29865" yWindow="630" windowWidth="24930" windowHeight="13875" xr2:uid="{A2E2150B-4EBC-493D-997F-5AEA11C60ED9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A2E2150B-4EBC-493D-997F-5AEA11C60ED9}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="357">
   <si>
     <t>PRODUCIONES</t>
   </si>
@@ -4719,11 +4719,668 @@
     <t>Constcaracter</t>
   </si>
   <si>
+    <t>findall replace len Sample choice random radrange mean median variance sum</t>
+  </si>
+  <si>
+    <t>print println if for while Break Continue Return Constflotante Constcadena Octal Binario Hexadecimal Decimal -  Constcompleja true false ( [ range { None findall replace len Sample choice random radrange mean median variance sum -- ++ id  Ɛ</t>
+  </si>
+  <si>
+    <t>Está de más</t>
+  </si>
+  <si>
+    <t>Se esperaba un def id {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se esperaba un def id </t>
+  </si>
+  <si>
+    <t>Se esperaba un id</t>
+  </si>
+  <si>
+    <t>Se esperaba una ,</t>
+  </si>
+  <si>
+    <t>Se esperaba un + -</t>
+  </si>
+  <si>
+    <t>Se esperaba un ConstFlotante ConstCadena ConstCaracter Decimal Binario Hexadecimal Octar ConstCompleja true false ( [ range { None</t>
+  </si>
+  <si>
+    <t>Se esperaba un ConstFlotante ConstCadena ConstCaracter Decimal Binario Hexadecimal Octar ConstCompleja true false ( [ range { None findall replace sample len choice randrange mean median variance sum ++ -- id</t>
+  </si>
+  <si>
+    <t>Se esperaba un **</t>
+  </si>
+  <si>
+    <t>Se esperaba un * / // %</t>
+  </si>
+  <si>
+    <t>Se esperaba un ||</t>
+  </si>
+  <si>
+    <t>Se esperaba un &amp;&amp; ##</t>
+  </si>
+  <si>
+    <t>Se esperaba un &lt;&lt; &gt;&gt;</t>
+  </si>
+  <si>
+    <t>Se esperaba un &amp;</t>
+  </si>
+  <si>
+    <t>Se esperaba un |</t>
+  </si>
+  <si>
+    <t>Se esperaba un ^</t>
+  </si>
+  <si>
+    <t>Se esperaba un !</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se esperaba un &lt;  &lt;=  ==  !=  &gt;= &gt;  IS  ISNOT  IN  INNOT </t>
+  </si>
+  <si>
+    <t>Se esperaba un =  +=  /=  *=  -=  //=  **=  %=</t>
+  </si>
+  <si>
+    <t>Se esperaba un Sort Reverse insert Count index Append Extend pop remove</t>
+  </si>
+  <si>
+    <t>Se esperaba un findall replace sample len choice randrange mean median variance sum random</t>
+  </si>
+  <si>
+    <t>Se esperaba un [</t>
+  </si>
+  <si>
+    <t>Se esperaba un :</t>
+  </si>
+  <si>
+    <t>Se esperaba un print println if for while break continue return ConstFlotante ConstCadena ConstCaracter Decimal Binario Hexadecimal Octar ConstCompleja true false ( [ range { None findall replace sample len choice randrange mean median variance sum ++ -- id</t>
+  </si>
+  <si>
+    <t>Se esperaba un ;</t>
+  </si>
+  <si>
+    <t>Se esperaba un ++ --</t>
+  </si>
+  <si>
+    <t>Se esperaba un ++  --  . [  =  +=  /=  *=  -=  //=  **=  %=</t>
+  </si>
+  <si>
+    <t>Se esperaba un ConstFlotante ConstCadena ConstCaracter Decimal Binario Hexadecimal Octar ConstCompleja true false ( [ range { None findall replace sample len choice randrange mean median variance sum ++ -- id input</t>
+  </si>
+  <si>
+    <t>Se esperaba un ConstCadena</t>
+  </si>
+  <si>
+    <t>Se esperaba un elif else End</t>
+  </si>
+  <si>
+    <t>Se esperaba un ( [ range {</t>
+  </si>
+  <si>
+    <t>Se esperaba un Decimal Binario Hexadecimal Octal</t>
+  </si>
+  <si>
+    <t>Se esperaba un ; ,</t>
+  </si>
+  <si>
+    <t>** * / // % - + &lt;&lt; &gt;&gt; &amp; ^ | &lt; &lt;= == != &gt;= &gt; IS ISNOT IN INNOT ! &amp;&amp; ## || , ) ; : ] to } else elif End wend</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">while </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">OR </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EST</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">A3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>wend</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> OR </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> EST</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A3 K0</t>
+    </r>
+  </si>
+  <si>
+    <t>- Decimal</t>
+  </si>
+  <si>
+    <t>Octal Binario Hexadecimal Decimal -</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Constflotante Constcadena Constcaracter Octal Binario Hexadecimal Decimal - Constcompleja true false ( [ range { None findall replace len Sample choice random radrange mean median variance sum -- ++ id </t>
+  </si>
+  <si>
+    <t>Constflotante Constcadena Constcaracter Octal Binario Hexadecimal Decimal - Constcompleja true false ( [ range { None findall replace len Sample choice random radrange mean median variance sum -- ++ id input</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Constflotante Constcadena Constcaracter Octal Binario Hexadecimal Decimal - Constcompleja true false ( [ range { None findall replace len Sample choice random radrange mean median variance sum -- ++ id Ɛ </t>
+  </si>
+  <si>
+    <t>Constflotante Constcadena Constcaracter Octal Binario Hexadecimal Decimal  - Constcompleja true false ( [ range { None</t>
+  </si>
+  <si>
+    <t>= += /= *= -= //= **= %= Ɛ</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A0 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">{ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EST</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> } </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="7"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> OR </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>to</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> OR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> :</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> EST A3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">End </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+  </si>
+  <si>
+    <t>EJEC</t>
+  </si>
+  <si>
+    <t>ERRORES DE AMBITO</t>
+  </si>
+  <si>
+    <t>ERRORES DE SINTAXIS</t>
+  </si>
+  <si>
+    <t>Variable duplicada</t>
+  </si>
+  <si>
+    <t>Variable no declarada</t>
+  </si>
+  <si>
+    <t>newAMBITO</t>
+  </si>
+  <si>
+    <t>(800, 801)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (802, 803)</t>
+  </si>
+  <si>
+    <t>Funcion</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">def id </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ( </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">A1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">PROGRAM </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A0</t>
+    </r>
+  </si>
+  <si>
+    <t>Const</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">id = </t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
         <b/>
         <sz val="11"/>
         <color theme="1"/>
@@ -4754,606 +5411,13 @@
       </rPr>
       <t>A0</t>
     </r>
-  </si>
-  <si>
-    <t>findall replace len Sample choice random radrange mean median variance sum</t>
-  </si>
-  <si>
-    <t>print println if for while Break Continue Return Constflotante Constcadena Octal Binario Hexadecimal Decimal -  Constcompleja true false ( [ range { None findall replace len Sample choice random radrange mean median variance sum -- ++ id  Ɛ</t>
-  </si>
-  <si>
-    <t>Está de más</t>
-  </si>
-  <si>
-    <t>Se esperaba un def id {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se esperaba un def id </t>
-  </si>
-  <si>
-    <t>Se esperaba un id</t>
-  </si>
-  <si>
-    <t>Se esperaba una ,</t>
-  </si>
-  <si>
-    <t>Se esperaba un + -</t>
-  </si>
-  <si>
-    <t>Se esperaba un ConstFlotante ConstCadena ConstCaracter Decimal Binario Hexadecimal Octar ConstCompleja true false ( [ range { None</t>
-  </si>
-  <si>
-    <t>Se esperaba un ConstFlotante ConstCadena ConstCaracter Decimal Binario Hexadecimal Octar ConstCompleja true false ( [ range { None findall replace sample len choice randrange mean median variance sum ++ -- id</t>
-  </si>
-  <si>
-    <t>Se esperaba un **</t>
-  </si>
-  <si>
-    <t>Se esperaba un * / // %</t>
-  </si>
-  <si>
-    <t>Se esperaba un ||</t>
-  </si>
-  <si>
-    <t>Se esperaba un &amp;&amp; ##</t>
-  </si>
-  <si>
-    <t>Se esperaba un &lt;&lt; &gt;&gt;</t>
-  </si>
-  <si>
-    <t>Se esperaba un &amp;</t>
-  </si>
-  <si>
-    <t>Se esperaba un |</t>
-  </si>
-  <si>
-    <t>Se esperaba un ^</t>
-  </si>
-  <si>
-    <t>Se esperaba un !</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se esperaba un &lt;  &lt;=  ==  !=  &gt;= &gt;  IS  ISNOT  IN  INNOT </t>
-  </si>
-  <si>
-    <t>Se esperaba un =  +=  /=  *=  -=  //=  **=  %=</t>
-  </si>
-  <si>
-    <t>Se esperaba un Sort Reverse insert Count index Append Extend pop remove</t>
-  </si>
-  <si>
-    <t>Se esperaba un findall replace sample len choice randrange mean median variance sum random</t>
-  </si>
-  <si>
-    <t>Se esperaba un [</t>
-  </si>
-  <si>
-    <t>Se esperaba un :</t>
-  </si>
-  <si>
-    <t>Se esperaba un print println if for while break continue return ConstFlotante ConstCadena ConstCaracter Decimal Binario Hexadecimal Octar ConstCompleja true false ( [ range { None findall replace sample len choice randrange mean median variance sum ++ -- id</t>
-  </si>
-  <si>
-    <t>Se esperaba un ;</t>
-  </si>
-  <si>
-    <t>Se esperaba un ++ --</t>
-  </si>
-  <si>
-    <t>Se esperaba un ++  --  . [  =  +=  /=  *=  -=  //=  **=  %=</t>
-  </si>
-  <si>
-    <t>Se esperaba un ConstFlotante ConstCadena ConstCaracter Decimal Binario Hexadecimal Octar ConstCompleja true false ( [ range { None findall replace sample len choice randrange mean median variance sum ++ -- id input</t>
-  </si>
-  <si>
-    <t>Se esperaba un ConstCadena</t>
-  </si>
-  <si>
-    <t>Se esperaba un elif else End</t>
-  </si>
-  <si>
-    <t>Se esperaba un ( [ range {</t>
-  </si>
-  <si>
-    <t>Se esperaba un Decimal Binario Hexadecimal Octal</t>
-  </si>
-  <si>
-    <t>Se esperaba un ; ,</t>
-  </si>
-  <si>
-    <t>** * / // % - + &lt;&lt; &gt;&gt; &amp; ^ | &lt; &lt;= == != &gt;= &gt; IS ISNOT IN INNOT ! &amp;&amp; ## || , ) ; : ] to } else elif End wend</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">while </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">OR </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>EST</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">A3 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>wend</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>if</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> OR </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> EST</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A3 K0</t>
-    </r>
-  </si>
-  <si>
-    <t>- Decimal</t>
-  </si>
-  <si>
-    <t>Octal Binario Hexadecimal Decimal -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Constflotante Constcadena Constcaracter Octal Binario Hexadecimal Decimal - Constcompleja true false ( [ range { None findall replace len Sample choice random radrange mean median variance sum -- ++ id </t>
-  </si>
-  <si>
-    <t>Constflotante Constcadena Constcaracter Octal Binario Hexadecimal Decimal - Constcompleja true false ( [ range { None findall replace len Sample choice random radrange mean median variance sum -- ++ id input</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Constflotante Constcadena Constcaracter Octal Binario Hexadecimal Decimal - Constcompleja true false ( [ range { None findall replace len Sample choice random radrange mean median variance sum -- ++ id Ɛ </t>
-  </si>
-  <si>
-    <t>Constflotante Constcadena Constcaracter Octal Binario Hexadecimal Decimal  - Constcompleja true false ( [ range { None</t>
-  </si>
-  <si>
-    <t>= += /= *= -= //= **= %= Ɛ</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">A0 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">{ </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>EST</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> } </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">def id ( </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="7"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">A1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">PROGRAM </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="7"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>for</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="7"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> OR </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>to</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> OR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> :</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> EST A3 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">End </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="7"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-  </si>
-  <si>
-    <t>EJEC</t>
-  </si>
-  <si>
-    <t>DECL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5447,8 +5511,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5481,6 +5566,17 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -5612,12 +5708,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5697,6 +5794,8 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5718,10 +5817,17 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Bueno" xfId="3" builtinId="26"/>
     <cellStyle name="Incorrecto" xfId="1" builtinId="27"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6159,8 +6265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE3FA8B9-A47E-429A-BD32-FD36D0235D3B}">
   <dimension ref="B1:DI168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6170,8 +6276,8 @@
     <col min="4" max="4" width="4.28515625" customWidth="1"/>
     <col min="5" max="5" width="79.28515625" customWidth="1"/>
     <col min="6" max="6" width="4.140625" customWidth="1"/>
-    <col min="7" max="7" width="4.42578125" customWidth="1"/>
-    <col min="8" max="8" width="3.5703125" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" customWidth="1"/>
     <col min="9" max="9" width="4" customWidth="1"/>
     <col min="10" max="10" width="23" customWidth="1"/>
     <col min="11" max="11" width="3.85546875" customWidth="1"/>
@@ -6185,37 +6291,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="46"/>
-      <c r="J1" s="43" t="s">
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="48"/>
+      <c r="J1" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43" t="s">
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
       <c r="U1" s="5"/>
       <c r="V1" s="5"/>
     </row>
     <row r="2" spans="2:113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="47"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="49"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="R2" s="18"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="51"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="Q2" s="53" t="s">
+        <v>347</v>
+      </c>
+      <c r="R2" s="53"/>
       <c r="S2" s="18"/>
       <c r="T2" s="18"/>
       <c r="U2" s="18"/>
@@ -6323,10 +6432,13 @@
         <v>1</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="G3" s="51" t="s">
-        <v>347</v>
+        <v>343</v>
+      </c>
+      <c r="G3" s="44" t="s">
+        <v>345</v>
+      </c>
+      <c r="H3" s="52" t="s">
+        <v>351</v>
       </c>
       <c r="I3" t="s">
         <v>10</v>
@@ -6353,7 +6465,7 @@
         <v>600</v>
       </c>
       <c r="R3" s="37" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="S3" s="37"/>
     </row>
@@ -6368,10 +6480,13 @@
         <v>1</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>345</v>
-      </c>
-      <c r="G4" s="50" t="s">
-        <v>348</v>
+        <v>354</v>
+      </c>
+      <c r="G4" s="43" t="s">
+        <v>350</v>
+      </c>
+      <c r="H4" t="s">
+        <v>352</v>
       </c>
       <c r="J4" s="9" t="s">
         <v>157</v>
@@ -6395,7 +6510,7 @@
         <v>601</v>
       </c>
       <c r="R4" s="37" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="S4" s="37"/>
     </row>
@@ -6410,7 +6525,13 @@
         <v>1</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>298</v>
+        <v>356</v>
+      </c>
+      <c r="G5" s="54" t="s">
+        <v>353</v>
+      </c>
+      <c r="H5" s="52">
+        <v>804</v>
       </c>
       <c r="J5" s="9" t="s">
         <v>158</v>
@@ -6434,7 +6555,7 @@
         <v>602</v>
       </c>
       <c r="R5" s="37" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="S5" s="37"/>
     </row>
@@ -6451,6 +6572,12 @@
       <c r="E6" s="24" t="s">
         <v>2</v>
       </c>
+      <c r="G6" s="55" t="s">
+        <v>355</v>
+      </c>
+      <c r="H6" s="52">
+        <v>805</v>
+      </c>
       <c r="J6" s="9" t="s">
         <v>159</v>
       </c>
@@ -6473,7 +6600,7 @@
         <v>603</v>
       </c>
       <c r="R6" s="37" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="S6" s="37"/>
     </row>
@@ -6490,6 +6617,7 @@
       <c r="E7" s="11" t="s">
         <v>150</v>
       </c>
+      <c r="H7" s="52"/>
       <c r="J7" s="9" t="s">
         <v>160</v>
       </c>
@@ -6512,7 +6640,7 @@
         <v>604</v>
       </c>
       <c r="R7" s="37" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="S7" s="37"/>
     </row>
@@ -6529,6 +6657,7 @@
       <c r="E8" s="25" t="s">
         <v>281</v>
       </c>
+      <c r="H8" s="52"/>
       <c r="J8" s="9" t="s">
         <v>161</v>
       </c>
@@ -6536,7 +6665,7 @@
         <v>11</v>
       </c>
       <c r="L8" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="M8" s="9" t="s">
         <v>234</v>
@@ -6545,13 +6674,13 @@
         <v>11</v>
       </c>
       <c r="O8" s="35" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="Q8" s="18">
         <v>605</v>
       </c>
       <c r="R8" s="37" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="S8" s="37"/>
     </row>
@@ -6568,6 +6697,7 @@
       <c r="E9" s="11" t="s">
         <v>81</v>
       </c>
+      <c r="H9" s="52"/>
       <c r="J9" s="9" t="s">
         <v>162</v>
       </c>
@@ -6575,7 +6705,7 @@
         <v>11</v>
       </c>
       <c r="L9" s="16" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="M9" s="9" t="s">
         <v>235</v>
@@ -6584,13 +6714,13 @@
         <v>11</v>
       </c>
       <c r="O9" s="35" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="Q9" s="18">
         <v>606</v>
       </c>
       <c r="R9" s="37" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="S9" s="37"/>
     </row>
@@ -6623,13 +6753,13 @@
         <v>11</v>
       </c>
       <c r="O10" s="35" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="Q10" s="18">
         <v>607</v>
       </c>
       <c r="R10" s="37" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="11" spans="2:113" x14ac:dyDescent="0.25">
@@ -6667,7 +6797,7 @@
         <v>608</v>
       </c>
       <c r="R11" s="37" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="S11" s="37"/>
     </row>
@@ -6706,7 +6836,7 @@
         <v>609</v>
       </c>
       <c r="R12" s="37" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="13" spans="2:113" x14ac:dyDescent="0.25">
@@ -6744,7 +6874,7 @@
         <v>610</v>
       </c>
       <c r="R13" s="37" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="14" spans="2:113" x14ac:dyDescent="0.25">
@@ -6767,7 +6897,7 @@
         <v>11</v>
       </c>
       <c r="L14" s="16" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="M14" s="9" t="s">
         <v>240</v>
@@ -6776,13 +6906,13 @@
         <v>11</v>
       </c>
       <c r="O14" s="35" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="Q14" s="18">
         <v>611</v>
       </c>
       <c r="R14" s="37" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="15" spans="2:113" x14ac:dyDescent="0.25">
@@ -6814,13 +6944,13 @@
         <v>11</v>
       </c>
       <c r="O15" s="16" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="Q15" s="18">
         <v>612</v>
       </c>
       <c r="R15" s="37" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="16" spans="2:113" x14ac:dyDescent="0.25">
@@ -6843,7 +6973,7 @@
         <v>11</v>
       </c>
       <c r="L16" s="16" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="M16" s="9" t="s">
         <v>242</v>
@@ -6852,13 +6982,13 @@
         <v>11</v>
       </c>
       <c r="O16" s="35" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="Q16" s="18">
         <v>613</v>
       </c>
       <c r="R16" s="37" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="S16" s="37"/>
     </row>
@@ -6891,13 +7021,13 @@
         <v>11</v>
       </c>
       <c r="O17" s="16" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="Q17" s="18">
         <v>614</v>
       </c>
       <c r="R17" s="37" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.25">
@@ -6920,7 +7050,7 @@
         <v>11</v>
       </c>
       <c r="L18" s="16" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="M18" s="9" t="s">
         <v>244</v>
@@ -6929,13 +7059,13 @@
         <v>11</v>
       </c>
       <c r="O18" s="35" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="Q18" s="18">
         <v>615</v>
       </c>
       <c r="R18" s="37" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="S18" s="37"/>
     </row>
@@ -6968,13 +7098,13 @@
         <v>11</v>
       </c>
       <c r="O19" s="16" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="Q19" s="18">
         <v>616</v>
       </c>
       <c r="R19" s="37" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="S19" s="37"/>
     </row>
@@ -6998,7 +7128,7 @@
         <v>11</v>
       </c>
       <c r="L20" s="16" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="M20" s="9" t="s">
         <v>246</v>
@@ -7007,13 +7137,13 @@
         <v>11</v>
       </c>
       <c r="O20" s="35" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="Q20" s="18">
         <v>617</v>
       </c>
       <c r="R20" s="37" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="S20" s="37"/>
     </row>
@@ -7046,13 +7176,13 @@
         <v>11</v>
       </c>
       <c r="O21" s="16" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="Q21" s="18">
         <v>618</v>
       </c>
       <c r="R21" s="37" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="S21" s="37"/>
     </row>
@@ -7076,7 +7206,7 @@
         <v>11</v>
       </c>
       <c r="L22" s="16" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="M22" s="9" t="s">
         <v>248</v>
@@ -7085,13 +7215,13 @@
         <v>11</v>
       </c>
       <c r="O22" s="35" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="Q22" s="18">
         <v>619</v>
       </c>
       <c r="R22" s="37" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="S22" s="37"/>
     </row>
@@ -7124,13 +7254,13 @@
         <v>11</v>
       </c>
       <c r="O23" s="16" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="Q23" s="18">
         <v>620</v>
       </c>
       <c r="R23" s="37" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="S23" s="37"/>
     </row>
@@ -7154,7 +7284,7 @@
         <v>11</v>
       </c>
       <c r="L24" s="16" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="M24" s="9" t="s">
         <v>250</v>
@@ -7163,13 +7293,13 @@
         <v>11</v>
       </c>
       <c r="O24" s="35" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="Q24" s="18">
         <v>621</v>
       </c>
       <c r="R24" s="37" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="S24" s="37"/>
     </row>
@@ -7202,13 +7332,13 @@
         <v>11</v>
       </c>
       <c r="O25" s="16" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="Q25" s="18">
         <v>622</v>
       </c>
       <c r="R25" s="37" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="S25" s="37"/>
     </row>
@@ -7247,7 +7377,7 @@
         <v>623</v>
       </c>
       <c r="R26" s="37" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="S26" s="37"/>
     </row>
@@ -7274,7 +7404,7 @@
         <v>11</v>
       </c>
       <c r="L27" s="16" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="M27" s="9" t="s">
         <v>253</v>
@@ -7289,7 +7419,7 @@
         <v>624</v>
       </c>
       <c r="R27" s="37" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="S27" s="37"/>
     </row>
@@ -7331,7 +7461,7 @@
         <v>625</v>
       </c>
       <c r="R28" s="37" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="S28" s="37"/>
     </row>
@@ -7373,7 +7503,7 @@
         <v>626</v>
       </c>
       <c r="R29" s="37" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="S29" s="37"/>
     </row>
@@ -7408,13 +7538,13 @@
         <v>11</v>
       </c>
       <c r="O30" s="35" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="Q30" s="18">
         <v>627</v>
       </c>
       <c r="R30" s="37" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="S30" s="37"/>
     </row>
@@ -7440,7 +7570,7 @@
         <v>11</v>
       </c>
       <c r="L31" s="16" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="M31" s="9" t="s">
         <v>257</v>
@@ -7449,13 +7579,13 @@
         <v>11</v>
       </c>
       <c r="O31" s="35" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="Q31" s="18">
         <v>628</v>
       </c>
       <c r="R31" s="37" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="S31" s="37"/>
     </row>
@@ -7494,7 +7624,7 @@
         <v>629</v>
       </c>
       <c r="R32" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="S32" s="37"/>
     </row>
@@ -7527,13 +7657,13 @@
         <v>11</v>
       </c>
       <c r="O33" s="16" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="Q33" s="18">
         <v>630</v>
       </c>
       <c r="R33" s="37" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="S33" s="37"/>
     </row>
@@ -7557,7 +7687,7 @@
         <v>11</v>
       </c>
       <c r="L34" s="36" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="M34" s="9" t="s">
         <v>260</v>
@@ -7566,13 +7696,13 @@
         <v>11</v>
       </c>
       <c r="O34" s="42" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="Q34" s="18">
         <v>631</v>
       </c>
       <c r="R34" s="37" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="S34" s="37"/>
     </row>
@@ -7596,7 +7726,7 @@
         <v>11</v>
       </c>
       <c r="L35" s="16" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="M35" s="9" t="s">
         <v>261</v>
@@ -7605,13 +7735,13 @@
         <v>11</v>
       </c>
       <c r="O35" s="35" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="Q35" s="18">
         <v>632</v>
       </c>
       <c r="R35" s="37" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="S35" s="37"/>
     </row>
@@ -7669,7 +7799,7 @@
         <v>11</v>
       </c>
       <c r="L37" s="35" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="M37" s="9" t="s">
         <v>263</v>
@@ -7704,7 +7834,7 @@
         <v>11</v>
       </c>
       <c r="L38" s="35" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="M38" s="9" t="s">
         <v>264</v>
@@ -7715,8 +7845,10 @@
       <c r="O38" s="16" t="s">
         <v>291</v>
       </c>
-      <c r="Q38" s="18"/>
-      <c r="R38" s="37"/>
+      <c r="Q38" s="53" t="s">
+        <v>346</v>
+      </c>
+      <c r="R38" s="53"/>
       <c r="S38" s="37"/>
     </row>
     <row r="39" spans="2:19" x14ac:dyDescent="0.25">
@@ -7750,8 +7882,12 @@
       <c r="O39" s="35" t="s">
         <v>291</v>
       </c>
-      <c r="Q39" s="18"/>
-      <c r="R39" s="37"/>
+      <c r="Q39" s="18">
+        <v>700</v>
+      </c>
+      <c r="R39" s="37" t="s">
+        <v>348</v>
+      </c>
       <c r="S39" s="37"/>
     </row>
     <row r="40" spans="2:19" x14ac:dyDescent="0.25">
@@ -7774,7 +7910,7 @@
         <v>11</v>
       </c>
       <c r="L40" s="16" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="M40" s="9" t="s">
         <v>266</v>
@@ -7783,9 +7919,14 @@
         <v>11</v>
       </c>
       <c r="O40" s="35" t="s">
-        <v>334</v>
-      </c>
-      <c r="R40" s="37"/>
+        <v>333</v>
+      </c>
+      <c r="Q40" s="52">
+        <v>701</v>
+      </c>
+      <c r="R40" s="37" t="s">
+        <v>349</v>
+      </c>
     </row>
     <row r="41" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B41" s="34">
@@ -7816,7 +7957,7 @@
         <v>11</v>
       </c>
       <c r="O41" s="16" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="42" spans="2:19" x14ac:dyDescent="0.25">
@@ -7839,7 +7980,7 @@
         <v>11</v>
       </c>
       <c r="L42" s="16" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="M42" s="9" t="s">
         <v>268</v>
@@ -7848,7 +7989,7 @@
         <v>11</v>
       </c>
       <c r="O42" s="35" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="43" spans="2:19" x14ac:dyDescent="0.25">
@@ -7880,7 +8021,7 @@
         <v>11</v>
       </c>
       <c r="O43" s="16" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="44" spans="2:19" x14ac:dyDescent="0.25">
@@ -7903,7 +8044,7 @@
         <v>11</v>
       </c>
       <c r="L44" s="16" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="M44" s="9" t="s">
         <v>270</v>
@@ -7912,7 +8053,7 @@
         <v>11</v>
       </c>
       <c r="O44" s="35" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="45" spans="2:19" x14ac:dyDescent="0.25">
@@ -7944,7 +8085,7 @@
         <v>11</v>
       </c>
       <c r="O45" s="16" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="46" spans="2:19" x14ac:dyDescent="0.25">
@@ -7967,7 +8108,7 @@
         <v>11</v>
       </c>
       <c r="L46" s="16" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="M46" s="9" t="s">
         <v>272</v>
@@ -7976,7 +8117,7 @@
         <v>11</v>
       </c>
       <c r="O46" s="35" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="47" spans="2:19" x14ac:dyDescent="0.25">
@@ -8008,7 +8149,7 @@
         <v>11</v>
       </c>
       <c r="O47" s="16" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="48" spans="2:19" x14ac:dyDescent="0.25">
@@ -8031,7 +8172,7 @@
         <v>11</v>
       </c>
       <c r="L48" s="16" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="M48" s="9" t="s">
         <v>274</v>
@@ -8040,7 +8181,7 @@
         <v>11</v>
       </c>
       <c r="O48" s="35" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="49" spans="2:18" x14ac:dyDescent="0.25">
@@ -8072,7 +8213,7 @@
         <v>11</v>
       </c>
       <c r="O49" s="16" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="50" spans="2:18" x14ac:dyDescent="0.25">
@@ -8104,7 +8245,7 @@
         <v>11</v>
       </c>
       <c r="O50" s="35" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="51" spans="2:18" x14ac:dyDescent="0.25">
@@ -8127,7 +8268,7 @@
         <v>11</v>
       </c>
       <c r="L51" s="16" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="M51" s="13" t="s">
         <v>277</v>
@@ -8136,7 +8277,7 @@
         <v>11</v>
       </c>
       <c r="O51" s="35" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="52" spans="2:18" x14ac:dyDescent="0.25">
@@ -8507,7 +8648,7 @@
         <v>1</v>
       </c>
       <c r="E77" s="25" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="78" spans="2:12" x14ac:dyDescent="0.25">
@@ -8521,7 +8662,7 @@
         <v>1</v>
       </c>
       <c r="E78" s="25" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.25">
@@ -8535,7 +8676,7 @@
         <v>1</v>
       </c>
       <c r="E79" s="27" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="80" spans="2:12" x14ac:dyDescent="0.25">
@@ -9207,7 +9348,7 @@
         <v>1</v>
       </c>
       <c r="E127" s="28" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="128" spans="2:5" x14ac:dyDescent="0.25">
@@ -9539,10 +9680,12 @@
       <c r="D168" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="M1:O2"/>
     <mergeCell ref="J1:L2"/>
     <mergeCell ref="B1:E2"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="Q2:R2"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="S56:BP56 DC53:DH56 S53:DB55 DI53:DI55">

--- a/Producciones.xlsx
+++ b/Producciones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Usuario\Documents\NetBeansProjects\Compilador\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B263ACD-F9F4-4463-865B-6B67F12C3F35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A9115C5-3BD0-4FE2-9FA8-F0808F0E0297}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A2E2150B-4EBC-493D-997F-5AEA11C60ED9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="360">
   <si>
     <t>PRODUCIONES</t>
   </si>
@@ -5204,6 +5204,84 @@
     <t>Variable</t>
   </si>
   <si>
+    <t>Parametro</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> id </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> id </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A2</t>
+    </r>
+  </si>
+  <si>
+    <t>Constante</t>
+  </si>
+  <si>
+    <t>(806 - 807)</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">def </t>
     </r>
@@ -5261,6 +5339,27 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color theme="7"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -5323,13 +5422,10 @@
     </r>
   </si>
   <si>
-    <t>Parametro</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFC000"/>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -5344,86 +5440,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> id </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> id </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> id = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
+      <t xml:space="preserve"> id =</t>
     </r>
     <r>
       <rPr>
@@ -5467,9 +5484,6 @@
       </rPr>
       <t>A0</t>
     </r>
-  </si>
-  <si>
-    <t>Constante</t>
   </si>
 </sst>
 </file>
@@ -5571,13 +5585,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF7030A0"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -5607,6 +5614,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="7"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -5892,6 +5906,11 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5916,11 +5935,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bueno" xfId="3" builtinId="26"/>
@@ -6368,8 +6382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE3FA8B9-A47E-429A-BD32-FD36D0235D3B}">
   <dimension ref="B1:DI168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6394,40 +6408,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="51"/>
-      <c r="J1" s="48" t="s">
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="54"/>
+      <c r="J1" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48" t="s">
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
       <c r="U1" s="5"/>
       <c r="V1" s="5"/>
     </row>
     <row r="2" spans="2:113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="52"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="54"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="Q2" s="55" t="s">
+      <c r="B2" s="55"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="57"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="Q2" s="58" t="s">
         <v>344</v>
       </c>
-      <c r="R2" s="55"/>
+      <c r="R2" s="58"/>
       <c r="S2" s="18"/>
       <c r="T2" s="18"/>
       <c r="U2" s="18"/>
@@ -6583,9 +6597,9 @@
         <v>1</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>353</v>
-      </c>
-      <c r="G4" s="56" t="s">
+        <v>358</v>
+      </c>
+      <c r="G4" s="48" t="s">
         <v>347</v>
       </c>
       <c r="H4" t="s">
@@ -6628,7 +6642,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="G5" s="46" t="s">
         <v>350</v>
@@ -6672,8 +6686,8 @@
       <c r="D6" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="57" t="s">
-        <v>355</v>
+      <c r="E6" s="49" t="s">
+        <v>354</v>
       </c>
       <c r="G6" s="47" t="s">
         <v>352</v>
@@ -6718,13 +6732,13 @@
         <v>1</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G7" s="43" t="s">
-        <v>354</v>
-      </c>
-      <c r="H7" s="45">
-        <v>806</v>
+        <v>353</v>
+      </c>
+      <c r="H7" s="45" t="s">
+        <v>357</v>
       </c>
       <c r="J7" s="9" t="s">
         <v>158</v>
@@ -6765,11 +6779,11 @@
       <c r="E8" s="25" t="s">
         <v>279</v>
       </c>
-      <c r="G8" s="58" t="s">
-        <v>358</v>
+      <c r="G8" s="50" t="s">
+        <v>356</v>
       </c>
       <c r="H8" s="45">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="J8" s="9" t="s">
         <v>159</v>
@@ -7958,10 +7972,10 @@
       <c r="O38" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="Q38" s="55" t="s">
+      <c r="Q38" s="58" t="s">
         <v>343</v>
       </c>
-      <c r="R38" s="55"/>
+      <c r="R38" s="58"/>
       <c r="S38" s="37"/>
     </row>
     <row r="39" spans="2:19" x14ac:dyDescent="0.25">

--- a/Producciones.xlsx
+++ b/Producciones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Usuario\Documents\NetBeansProjects\Compilador\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE927E86-01B2-426A-9189-6C7CFC6C22AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF4F670D-4712-41C5-9B74-3F0F38122759}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A2E2150B-4EBC-493D-997F-5AEA11C60ED9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="369">
   <si>
     <t>PRODUCIONES</t>
   </si>
@@ -4937,19 +4937,106 @@
     <t>Funcion</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>for</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Parametro</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> id </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> id </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A2</t>
+    </r>
+  </si>
+  <si>
+    <t>(806 - 807)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> id =</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -4960,12 +5047,538 @@
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">CONSTANTE </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">def </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> id ( </t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color rgb="FF7030A0"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">A1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">PROGRAM </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A0</t>
+    </r>
+  </si>
+  <si>
+    <t>Lista</t>
+  </si>
+  <si>
+    <t>Tupla</t>
+  </si>
+  <si>
+    <t>Rango</t>
+  </si>
+  <si>
+    <t>Diccionario</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ( </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OR B0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ARR </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCC0099"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> range ( </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCC0099"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CONSTENTERO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ,  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCC0099"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CONSTENTERO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ,  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCC0099"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">CONSTENTERO </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCC0099"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCF20C"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> { </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CONSTANTE B1 B2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> } </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCF20C"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+  </si>
+  <si>
+    <t>(808 - 809)</t>
+  </si>
+  <si>
+    <t>(810 - 811)</t>
+  </si>
+  <si>
+    <t>(812 - 813)</t>
+  </si>
+  <si>
+    <t>(814 - 815)</t>
+  </si>
+  <si>
+    <t>For id</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">@ </t>
     </r>
     <r>
@@ -5066,594 +5679,6 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-  </si>
-  <si>
-    <t>Variable</t>
-  </si>
-  <si>
-    <t>Parametro</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> id </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> id </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A2</t>
-    </r>
-  </si>
-  <si>
-    <t>(806 - 807)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> id =</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">CONSTANTE </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">def </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> id ( </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">A1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="7"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">PROGRAM </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A0</t>
-    </r>
-  </si>
-  <si>
-    <t>Lista</t>
-  </si>
-  <si>
-    <t>Tupla</t>
-  </si>
-  <si>
-    <t>Rango</t>
-  </si>
-  <si>
-    <t>Diccionario</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ( </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>OR B0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ARR </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCC0099"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> range ( </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCC0099"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CONSTENTERO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ,  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCC0099"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CONSTENTERO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ,  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCC0099"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">CONSTENTERO </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCC0099"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCCF20C"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> { </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CONSTANTE B1 B2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> } </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCCF20C"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -5666,7 +5691,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5815,8 +5840,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5892,8 +5931,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -6020,14 +6064,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6119,6 +6179,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6143,12 +6206,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="12" xfId="4"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Bueno" xfId="3" builtinId="26"/>
+    <cellStyle name="Entrada" xfId="4" builtinId="20"/>
     <cellStyle name="Incorrecto" xfId="1" builtinId="27"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6600,8 +6662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE3FA8B9-A47E-429A-BD32-FD36D0235D3B}">
   <dimension ref="B1:DI168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E80" sqref="E80"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6626,40 +6688,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="54"/>
-      <c r="J1" s="51" t="s">
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="57"/>
+      <c r="J1" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51" t="s">
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
       <c r="U1" s="5"/>
       <c r="V1" s="5"/>
     </row>
     <row r="2" spans="2:113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="55"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="57"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="Q2" s="58" t="s">
+      <c r="B2" s="58"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="60"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="Q2" s="61" t="s">
         <v>341</v>
       </c>
-      <c r="R2" s="58"/>
+      <c r="R2" s="61"/>
       <c r="S2" s="18"/>
       <c r="T2" s="18"/>
       <c r="U2" s="18"/>
@@ -6815,7 +6877,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G4" s="48" t="s">
         <v>344</v>
@@ -6860,7 +6922,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G5" s="46" t="s">
         <v>347</v>
@@ -6905,10 +6967,10 @@
         <v>1</v>
       </c>
       <c r="E6" s="49" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G6" s="47" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H6" s="45">
         <v>805</v>
@@ -6950,13 +7012,13 @@
         <v>1</v>
       </c>
       <c r="E7" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="G7" s="43" t="s">
+        <v>349</v>
+      </c>
+      <c r="H7" s="45" t="s">
         <v>352</v>
-      </c>
-      <c r="G7" s="43" t="s">
-        <v>350</v>
-      </c>
-      <c r="H7" s="45" t="s">
-        <v>353</v>
       </c>
       <c r="J7" s="9" t="s">
         <v>156</v>
@@ -7537,13 +7599,13 @@
         <v>1</v>
       </c>
       <c r="E22" s="31" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G22" s="50" t="s">
-        <v>357</v>
-      </c>
-      <c r="H22" s="45">
-        <v>808</v>
+        <v>356</v>
+      </c>
+      <c r="H22" s="45" t="s">
+        <v>363</v>
       </c>
       <c r="J22" s="9" t="s">
         <v>170</v>
@@ -7582,13 +7644,13 @@
         <v>1</v>
       </c>
       <c r="E23" s="31" t="s">
-        <v>361</v>
-      </c>
-      <c r="G23" s="59" t="s">
-        <v>356</v>
-      </c>
-      <c r="H23" s="45">
-        <v>809</v>
+        <v>360</v>
+      </c>
+      <c r="G23" s="51" t="s">
+        <v>355</v>
+      </c>
+      <c r="H23" s="45" t="s">
+        <v>364</v>
       </c>
       <c r="J23" s="9" t="s">
         <v>171</v>
@@ -7627,13 +7689,13 @@
         <v>1</v>
       </c>
       <c r="E24" s="28" t="s">
-        <v>362</v>
-      </c>
-      <c r="G24" s="60" t="s">
-        <v>358</v>
-      </c>
-      <c r="H24" s="45">
-        <v>810</v>
+        <v>361</v>
+      </c>
+      <c r="G24" s="52" t="s">
+        <v>357</v>
+      </c>
+      <c r="H24" s="45" t="s">
+        <v>365</v>
       </c>
       <c r="J24" s="9" t="s">
         <v>172</v>
@@ -7672,13 +7734,13 @@
         <v>1</v>
       </c>
       <c r="E25" s="28" t="s">
-        <v>363</v>
-      </c>
-      <c r="G25" s="61" t="s">
-        <v>359</v>
-      </c>
-      <c r="H25" s="45">
-        <v>811</v>
+        <v>362</v>
+      </c>
+      <c r="G25" s="53" t="s">
+        <v>358</v>
+      </c>
+      <c r="H25" s="45" t="s">
+        <v>366</v>
       </c>
       <c r="J25" s="9" t="s">
         <v>173</v>
@@ -8209,10 +8271,10 @@
       <c r="O38" s="16" t="s">
         <v>286</v>
       </c>
-      <c r="Q38" s="58" t="s">
+      <c r="Q38" s="61" t="s">
         <v>340</v>
       </c>
-      <c r="R38" s="58"/>
+      <c r="R38" s="61"/>
       <c r="S38" s="37"/>
     </row>
     <row r="39" spans="2:19" x14ac:dyDescent="0.25">
@@ -9026,7 +9088,13 @@
         <v>1</v>
       </c>
       <c r="E78" s="25" t="s">
-        <v>348</v>
+        <v>368</v>
+      </c>
+      <c r="G78" s="62" t="s">
+        <v>367</v>
+      </c>
+      <c r="H78" s="45">
+        <v>876</v>
       </c>
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.25">

--- a/Producciones.xlsx
+++ b/Producciones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Usuario\Documents\NetBeansProjects\Compilador\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF4F670D-4712-41C5-9B74-3F0F38122759}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E58CCF-278D-4137-8849-86F9CFE391E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A2E2150B-4EBC-493D-997F-5AEA11C60ED9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="370">
   <si>
     <t>PRODUCIONES</t>
   </si>
@@ -5553,7 +5553,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="5"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -5584,6 +5584,48 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color rgb="FFFFA401"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> OR </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFA401"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -5600,91 +5642,73 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> OR </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>to</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> OR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> :</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> EST A3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">End </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>@</t>
     </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>to</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> OR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> :</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> EST A3 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">End </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
+  </si>
+  <si>
+    <t>(876-877)</t>
   </si>
 </sst>
 </file>
@@ -5849,7 +5873,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="5"/>
+      <color rgb="FFFFA401"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -6182,6 +6206,7 @@
     <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="12" xfId="4"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6206,7 +6231,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="12" xfId="4"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bueno" xfId="3" builtinId="26"/>
@@ -6340,6 +6364,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFA401"/>
       <color rgb="FFCCF20C"/>
       <color rgb="FFCCFFCC"/>
       <color rgb="FFFFFFCC"/>
@@ -6349,7 +6374,6 @@
       <color rgb="FFFFCCFF"/>
       <color rgb="FFFFCC99"/>
       <color rgb="FFC5F0FF"/>
-      <color rgb="FF9AA6CE"/>
     </mruColors>
   </colors>
   <extLst>
@@ -6662,8 +6686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE3FA8B9-A47E-429A-BD32-FD36D0235D3B}">
   <dimension ref="B1:DI168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6688,40 +6712,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="57"/>
-      <c r="J1" s="54" t="s">
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="58"/>
+      <c r="J1" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54" t="s">
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
       <c r="U1" s="5"/>
       <c r="V1" s="5"/>
     </row>
     <row r="2" spans="2:113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="58"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="60"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="Q2" s="61" t="s">
+      <c r="B2" s="59"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="61"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="Q2" s="62" t="s">
         <v>341</v>
       </c>
-      <c r="R2" s="61"/>
+      <c r="R2" s="62"/>
       <c r="S2" s="18"/>
       <c r="T2" s="18"/>
       <c r="U2" s="18"/>
@@ -8271,10 +8295,10 @@
       <c r="O38" s="16" t="s">
         <v>286</v>
       </c>
-      <c r="Q38" s="61" t="s">
+      <c r="Q38" s="62" t="s">
         <v>340</v>
       </c>
-      <c r="R38" s="61"/>
+      <c r="R38" s="62"/>
       <c r="S38" s="37"/>
     </row>
     <row r="39" spans="2:19" x14ac:dyDescent="0.25">
@@ -9090,11 +9114,11 @@
       <c r="E78" s="25" t="s">
         <v>368</v>
       </c>
-      <c r="G78" s="62" t="s">
+      <c r="G78" s="54" t="s">
         <v>367</v>
       </c>
-      <c r="H78" s="45">
-        <v>876</v>
+      <c r="H78" s="45" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.25">

--- a/Producciones.xlsx
+++ b/Producciones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Usuario\Documents\NetBeansProjects\Compilador\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E58CCF-278D-4137-8849-86F9CFE391E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66BA81D4-1D93-4221-B62B-4ACF19E3E8C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A2E2150B-4EBC-493D-997F-5AEA11C60ED9}"/>
   </bookViews>
@@ -5531,12 +5531,6 @@
     <t>(810 - 811)</t>
   </si>
   <si>
-    <t>(812 - 813)</t>
-  </si>
-  <si>
-    <t>(814 - 815)</t>
-  </si>
-  <si>
     <t>For id</t>
   </si>
   <si>
@@ -5709,6 +5703,12 @@
   </si>
   <si>
     <t>(876-877)</t>
+  </si>
+  <si>
+    <t>(812 - 816)</t>
+  </si>
+  <si>
+    <t>(817 - 818)</t>
   </si>
 </sst>
 </file>
@@ -6686,8 +6686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE3FA8B9-A47E-429A-BD32-FD36D0235D3B}">
   <dimension ref="B1:DI168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E77" sqref="E77"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7719,7 +7719,7 @@
         <v>357</v>
       </c>
       <c r="H24" s="45" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="J24" s="9" t="s">
         <v>172</v>
@@ -7764,7 +7764,7 @@
         <v>358</v>
       </c>
       <c r="H25" s="45" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="J25" s="9" t="s">
         <v>173</v>
@@ -9112,13 +9112,13 @@
         <v>1</v>
       </c>
       <c r="E78" s="25" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G78" s="54" t="s">
+        <v>365</v>
+      </c>
+      <c r="H78" s="45" t="s">
         <v>367</v>
-      </c>
-      <c r="H78" s="45" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.25">

--- a/Producciones.xlsx
+++ b/Producciones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Usuario\Documents\NetBeansProjects\Compilador\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66BA81D4-1D93-4221-B62B-4ACF19E3E8C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F60CDC-B773-470A-AE20-390B9B7E4A12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A2E2150B-4EBC-493D-997F-5AEA11C60ED9}"/>
   </bookViews>
@@ -4350,6 +4350,89 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CONSTANTE B1 B2</t>
+    </r>
+  </si>
+  <si>
+    <t>]</t>
+  </si>
+  <si>
+    <t>: ]</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">else </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EST A3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> End</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>elif</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> OR </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">: </t>
     </r>
     <r>
@@ -4361,1354 +4444,1291 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>EST</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A3 K0</t>
+    </r>
+  </si>
+  <si>
+    <t>; } else elif End wend</t>
+  </si>
+  <si>
+    <t>, }</t>
+  </si>
+  <si>
+    <t>= += /= *= -= //= **= %= ** * / // % - + &lt;&lt; &gt;&gt; &amp; ^ | &lt; &lt;= == != &gt;= &gt; IS ISNOT IN INNOT ! &amp;&amp; ## || , ) ; : ] in } else elif End wend</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>||</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> AND G0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> TERMINOPASCAL E0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> TERMINOPASCAL E0</t>
+    </r>
+  </si>
+  <si>
+    <t>Constcaracter</t>
+  </si>
+  <si>
+    <t>findall replace len Sample choice random radrange mean median variance sum</t>
+  </si>
+  <si>
+    <t>print println if for while Break Continue Return Constflotante Constcadena Octal Binario Hexadecimal Decimal -  Constcompleja true false ( [ range { None findall replace len Sample choice random radrange mean median variance sum -- ++ id  Ɛ</t>
+  </si>
+  <si>
+    <t>Está de más</t>
+  </si>
+  <si>
+    <t>Se esperaba un def id {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se esperaba un def id </t>
+  </si>
+  <si>
+    <t>Se esperaba un id</t>
+  </si>
+  <si>
+    <t>Se esperaba una ,</t>
+  </si>
+  <si>
+    <t>Se esperaba un + -</t>
+  </si>
+  <si>
+    <t>Se esperaba un ConstFlotante ConstCadena ConstCaracter Decimal Binario Hexadecimal Octar ConstCompleja true false ( [ range { None</t>
+  </si>
+  <si>
+    <t>Se esperaba un ConstFlotante ConstCadena ConstCaracter Decimal Binario Hexadecimal Octar ConstCompleja true false ( [ range { None findall replace sample len choice randrange mean median variance sum ++ -- id</t>
+  </si>
+  <si>
+    <t>Se esperaba un **</t>
+  </si>
+  <si>
+    <t>Se esperaba un * / // %</t>
+  </si>
+  <si>
+    <t>Se esperaba un ||</t>
+  </si>
+  <si>
+    <t>Se esperaba un &amp;&amp; ##</t>
+  </si>
+  <si>
+    <t>Se esperaba un &lt;&lt; &gt;&gt;</t>
+  </si>
+  <si>
+    <t>Se esperaba un &amp;</t>
+  </si>
+  <si>
+    <t>Se esperaba un |</t>
+  </si>
+  <si>
+    <t>Se esperaba un ^</t>
+  </si>
+  <si>
+    <t>Se esperaba un !</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se esperaba un &lt;  &lt;=  ==  !=  &gt;= &gt;  IS  ISNOT  IN  INNOT </t>
+  </si>
+  <si>
+    <t>Se esperaba un =  +=  /=  *=  -=  //=  **=  %=</t>
+  </si>
+  <si>
+    <t>Se esperaba un Sort Reverse insert Count index Append Extend pop remove</t>
+  </si>
+  <si>
+    <t>Se esperaba un findall replace sample len choice randrange mean median variance sum random</t>
+  </si>
+  <si>
+    <t>Se esperaba un [</t>
+  </si>
+  <si>
+    <t>Se esperaba un :</t>
+  </si>
+  <si>
+    <t>Se esperaba un print println if for while break continue return ConstFlotante ConstCadena ConstCaracter Decimal Binario Hexadecimal Octar ConstCompleja true false ( [ range { None findall replace sample len choice randrange mean median variance sum ++ -- id</t>
+  </si>
+  <si>
+    <t>Se esperaba un ;</t>
+  </si>
+  <si>
+    <t>Se esperaba un ++ --</t>
+  </si>
+  <si>
+    <t>Se esperaba un ++  --  . [  =  +=  /=  *=  -=  //=  **=  %=</t>
+  </si>
+  <si>
+    <t>Se esperaba un ConstFlotante ConstCadena ConstCaracter Decimal Binario Hexadecimal Octar ConstCompleja true false ( [ range { None findall replace sample len choice randrange mean median variance sum ++ -- id input</t>
+  </si>
+  <si>
+    <t>Se esperaba un ConstCadena</t>
+  </si>
+  <si>
+    <t>Se esperaba un elif else End</t>
+  </si>
+  <si>
+    <t>Se esperaba un ( [ range {</t>
+  </si>
+  <si>
+    <t>Se esperaba un Decimal Binario Hexadecimal Octal</t>
+  </si>
+  <si>
+    <t>Se esperaba un ; ,</t>
+  </si>
+  <si>
+    <t>** * / // % - + &lt;&lt; &gt;&gt; &amp; ^ | &lt; &lt;= == != &gt;= &gt; IS ISNOT IN INNOT ! &amp;&amp; ## || , ) ; : ] to } else elif End wend</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">while </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">OR </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EST</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">A3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>wend</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> OR </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> EST</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A3 K0</t>
+    </r>
+  </si>
+  <si>
+    <t>- Decimal</t>
+  </si>
+  <si>
+    <t>Octal Binario Hexadecimal Decimal -</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Constflotante Constcadena Constcaracter Octal Binario Hexadecimal Decimal - Constcompleja true false ( [ range { None findall replace len Sample choice random radrange mean median variance sum -- ++ id </t>
+  </si>
+  <si>
+    <t>Constflotante Constcadena Constcaracter Octal Binario Hexadecimal Decimal - Constcompleja true false ( [ range { None findall replace len Sample choice random radrange mean median variance sum -- ++ id input</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Constflotante Constcadena Constcaracter Octal Binario Hexadecimal Decimal - Constcompleja true false ( [ range { None findall replace len Sample choice random radrange mean median variance sum -- ++ id Ɛ </t>
+  </si>
+  <si>
+    <t>Constflotante Constcadena Constcaracter Octal Binario Hexadecimal Decimal  - Constcompleja true false ( [ range { None</t>
+  </si>
+  <si>
+    <t>= += /= *= -= //= **= %= Ɛ</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A0 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">{ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EST</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> } </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+  </si>
+  <si>
+    <t>EJEC</t>
+  </si>
+  <si>
+    <t>ERRORES DE AMBITO</t>
+  </si>
+  <si>
+    <t>ERRORES DE SINTAXIS</t>
+  </si>
+  <si>
+    <t>Variable duplicada</t>
+  </si>
+  <si>
+    <t>Variable no declarada</t>
+  </si>
+  <si>
+    <t>newAMBITO</t>
+  </si>
+  <si>
+    <t>(800, 801)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (802, 803)</t>
+  </si>
+  <si>
+    <t>Funcion</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Parametro</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> id </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> id </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A2</t>
+    </r>
+  </si>
+  <si>
+    <t>(806 - 807)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> id =</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">CONSTANTE </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">def </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> id ( </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">A1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">PROGRAM </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A0</t>
+    </r>
+  </si>
+  <si>
+    <t>Lista</t>
+  </si>
+  <si>
+    <t>Tupla</t>
+  </si>
+  <si>
+    <t>Rango</t>
+  </si>
+  <si>
+    <t>Diccionario</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ( </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OR B0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ARR </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCC0099"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> range ( </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCC0099"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CONSTENTERO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ,  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCC0099"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CONSTENTERO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ,  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCC0099"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">CONSTENTERO </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCC0099"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCF20C"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> { </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CONSTANTE B1 B2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> } </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCF20C"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+  </si>
+  <si>
+    <t>(808 - 809)</t>
+  </si>
+  <si>
+    <t>(810 - 811)</t>
+  </si>
+  <si>
+    <t>For id</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">@ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFA401"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> OR </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFA401"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>to</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> OR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> :</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> EST A3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">End </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+  </si>
+  <si>
+    <t>(876-877)</t>
+  </si>
+  <si>
+    <t>(812 - 816)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCF20C"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>CONSTANTE B2</t>
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CONSTANTE B1 B2</t>
-    </r>
-  </si>
-  <si>
-    <t>]</t>
-  </si>
-  <si>
-    <t>: ]</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">else </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>EST A3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> End</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>elif</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> OR </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>EST</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A3 K0</t>
-    </r>
-  </si>
-  <si>
-    <t>; } else elif End wend</t>
-  </si>
-  <si>
-    <t>, }</t>
-  </si>
-  <si>
-    <t>= += /= *= -= //= **= %= ** * / // % - + &lt;&lt; &gt;&gt; &amp; ^ | &lt; &lt;= == != &gt;= &gt; IS ISNOT IN INNOT ! &amp;&amp; ## || , ) ; : ] in } else elif End wend</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>||</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> AND G0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>+</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> TERMINOPASCAL E0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> TERMINOPASCAL E0</t>
-    </r>
-  </si>
-  <si>
-    <t>Constcaracter</t>
-  </si>
-  <si>
-    <t>findall replace len Sample choice random radrange mean median variance sum</t>
-  </si>
-  <si>
-    <t>print println if for while Break Continue Return Constflotante Constcadena Octal Binario Hexadecimal Decimal -  Constcompleja true false ( [ range { None findall replace len Sample choice random radrange mean median variance sum -- ++ id  Ɛ</t>
-  </si>
-  <si>
-    <t>Está de más</t>
-  </si>
-  <si>
-    <t>Se esperaba un def id {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se esperaba un def id </t>
-  </si>
-  <si>
-    <t>Se esperaba un id</t>
-  </si>
-  <si>
-    <t>Se esperaba una ,</t>
-  </si>
-  <si>
-    <t>Se esperaba un + -</t>
-  </si>
-  <si>
-    <t>Se esperaba un ConstFlotante ConstCadena ConstCaracter Decimal Binario Hexadecimal Octar ConstCompleja true false ( [ range { None</t>
-  </si>
-  <si>
-    <t>Se esperaba un ConstFlotante ConstCadena ConstCaracter Decimal Binario Hexadecimal Octar ConstCompleja true false ( [ range { None findall replace sample len choice randrange mean median variance sum ++ -- id</t>
-  </si>
-  <si>
-    <t>Se esperaba un **</t>
-  </si>
-  <si>
-    <t>Se esperaba un * / // %</t>
-  </si>
-  <si>
-    <t>Se esperaba un ||</t>
-  </si>
-  <si>
-    <t>Se esperaba un &amp;&amp; ##</t>
-  </si>
-  <si>
-    <t>Se esperaba un &lt;&lt; &gt;&gt;</t>
-  </si>
-  <si>
-    <t>Se esperaba un &amp;</t>
-  </si>
-  <si>
-    <t>Se esperaba un |</t>
-  </si>
-  <si>
-    <t>Se esperaba un ^</t>
-  </si>
-  <si>
-    <t>Se esperaba un !</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se esperaba un &lt;  &lt;=  ==  !=  &gt;= &gt;  IS  ISNOT  IN  INNOT </t>
-  </si>
-  <si>
-    <t>Se esperaba un =  +=  /=  *=  -=  //=  **=  %=</t>
-  </si>
-  <si>
-    <t>Se esperaba un Sort Reverse insert Count index Append Extend pop remove</t>
-  </si>
-  <si>
-    <t>Se esperaba un findall replace sample len choice randrange mean median variance sum random</t>
-  </si>
-  <si>
-    <t>Se esperaba un [</t>
-  </si>
-  <si>
-    <t>Se esperaba un :</t>
-  </si>
-  <si>
-    <t>Se esperaba un print println if for while break continue return ConstFlotante ConstCadena ConstCaracter Decimal Binario Hexadecimal Octar ConstCompleja true false ( [ range { None findall replace sample len choice randrange mean median variance sum ++ -- id</t>
-  </si>
-  <si>
-    <t>Se esperaba un ;</t>
-  </si>
-  <si>
-    <t>Se esperaba un ++ --</t>
-  </si>
-  <si>
-    <t>Se esperaba un ++  --  . [  =  +=  /=  *=  -=  //=  **=  %=</t>
-  </si>
-  <si>
-    <t>Se esperaba un ConstFlotante ConstCadena ConstCaracter Decimal Binario Hexadecimal Octar ConstCompleja true false ( [ range { None findall replace sample len choice randrange mean median variance sum ++ -- id input</t>
-  </si>
-  <si>
-    <t>Se esperaba un ConstCadena</t>
-  </si>
-  <si>
-    <t>Se esperaba un elif else End</t>
-  </si>
-  <si>
-    <t>Se esperaba un ( [ range {</t>
-  </si>
-  <si>
-    <t>Se esperaba un Decimal Binario Hexadecimal Octal</t>
-  </si>
-  <si>
-    <t>Se esperaba un ; ,</t>
-  </si>
-  <si>
-    <t>** * / // % - + &lt;&lt; &gt;&gt; &amp; ^ | &lt; &lt;= == != &gt;= &gt; IS ISNOT IN INNOT ! &amp;&amp; ## || , ) ; : ] to } else elif End wend</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">while </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">OR </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>EST</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">A3 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>wend</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>if</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> OR </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> EST</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A3 K0</t>
-    </r>
-  </si>
-  <si>
-    <t>- Decimal</t>
-  </si>
-  <si>
-    <t>Octal Binario Hexadecimal Decimal -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Constflotante Constcadena Constcaracter Octal Binario Hexadecimal Decimal - Constcompleja true false ( [ range { None findall replace len Sample choice random radrange mean median variance sum -- ++ id </t>
-  </si>
-  <si>
-    <t>Constflotante Constcadena Constcaracter Octal Binario Hexadecimal Decimal - Constcompleja true false ( [ range { None findall replace len Sample choice random radrange mean median variance sum -- ++ id input</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Constflotante Constcadena Constcaracter Octal Binario Hexadecimal Decimal - Constcompleja true false ( [ range { None findall replace len Sample choice random radrange mean median variance sum -- ++ id Ɛ </t>
-  </si>
-  <si>
-    <t>Constflotante Constcadena Constcaracter Octal Binario Hexadecimal Decimal  - Constcompleja true false ( [ range { None</t>
-  </si>
-  <si>
-    <t>= += /= *= -= //= **= %= Ɛ</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">A0 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">{ </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>EST</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> } </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-  </si>
-  <si>
-    <t>EJEC</t>
-  </si>
-  <si>
-    <t>ERRORES DE AMBITO</t>
-  </si>
-  <si>
-    <t>ERRORES DE SINTAXIS</t>
-  </si>
-  <si>
-    <t>Variable duplicada</t>
-  </si>
-  <si>
-    <t>Variable no declarada</t>
-  </si>
-  <si>
-    <t>newAMBITO</t>
-  </si>
-  <si>
-    <t>(800, 801)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (802, 803)</t>
-  </si>
-  <si>
-    <t>Funcion</t>
-  </si>
-  <si>
-    <t>Variable</t>
-  </si>
-  <si>
-    <t>Parametro</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> id </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> id </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A2</t>
-    </r>
-  </si>
-  <si>
-    <t>(806 - 807)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> id =</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">CONSTANTE </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">def </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> id ( </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">A1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="7"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">PROGRAM </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A0</t>
-    </r>
-  </si>
-  <si>
-    <t>Lista</t>
-  </si>
-  <si>
-    <t>Tupla</t>
-  </si>
-  <si>
-    <t>Rango</t>
-  </si>
-  <si>
-    <t>Diccionario</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ( </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>OR B0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ARR </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCC0099"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> range ( </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCC0099"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CONSTENTERO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ,  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCC0099"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CONSTENTERO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ,  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCC0099"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">CONSTENTERO </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCC0099"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCCF20C"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> { </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CONSTANTE B1 B2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> } </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCCF20C"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-  </si>
-  <si>
-    <t>(808 - 809)</t>
-  </si>
-  <si>
-    <t>(810 - 811)</t>
-  </si>
-  <si>
-    <t>For id</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">for </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">@ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFA401"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> OR </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFA401"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>to</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> OR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> :</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> EST A3 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">End </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-  </si>
-  <si>
-    <t>(876-877)</t>
-  </si>
-  <si>
-    <t>(812 - 816)</t>
-  </si>
-  <si>
-    <t>(817 - 818)</t>
+    <t>(817 - 819)</t>
   </si>
 </sst>
 </file>
@@ -6364,8 +6384,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFCCF20C"/>
       <color rgb="FFFFA401"/>
-      <color rgb="FFCCF20C"/>
       <color rgb="FFCCFFCC"/>
       <color rgb="FFFFFFCC"/>
       <color rgb="FFCCFFFF"/>
@@ -6687,7 +6707,7 @@
   <dimension ref="B1:DI168"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6743,7 +6763,7 @@
       <c r="N2" s="55"/>
       <c r="O2" s="55"/>
       <c r="Q2" s="62" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="R2" s="62"/>
       <c r="S2" s="18"/>
@@ -6853,13 +6873,13 @@
         <v>1</v>
       </c>
       <c r="E3" s="21" t="s">
+        <v>337</v>
+      </c>
+      <c r="G3" s="44" t="s">
         <v>338</v>
       </c>
-      <c r="G3" s="44" t="s">
-        <v>339</v>
-      </c>
       <c r="H3" s="45" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I3" t="s">
         <v>9</v>
@@ -6886,7 +6906,7 @@
         <v>600</v>
       </c>
       <c r="R3" s="37" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="S3" s="37"/>
     </row>
@@ -6901,13 +6921,13 @@
         <v>1</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G4" s="48" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J4" s="9" t="s">
         <v>153</v>
@@ -6931,7 +6951,7 @@
         <v>601</v>
       </c>
       <c r="R4" s="37" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="S4" s="37"/>
     </row>
@@ -6946,10 +6966,10 @@
         <v>1</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G5" s="46" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H5" s="45">
         <v>804</v>
@@ -6976,7 +6996,7 @@
         <v>602</v>
       </c>
       <c r="R5" s="37" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="S5" s="37"/>
     </row>
@@ -6991,10 +7011,10 @@
         <v>1</v>
       </c>
       <c r="E6" s="49" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G6" s="47" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H6" s="45">
         <v>805</v>
@@ -7021,7 +7041,7 @@
         <v>603</v>
       </c>
       <c r="R6" s="37" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="S6" s="37"/>
     </row>
@@ -7036,13 +7056,13 @@
         <v>1</v>
       </c>
       <c r="E7" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="G7" s="43" t="s">
+        <v>348</v>
+      </c>
+      <c r="H7" s="45" t="s">
         <v>351</v>
-      </c>
-      <c r="G7" s="43" t="s">
-        <v>349</v>
-      </c>
-      <c r="H7" s="45" t="s">
-        <v>352</v>
       </c>
       <c r="J7" s="9" t="s">
         <v>156</v>
@@ -7066,7 +7086,7 @@
         <v>604</v>
       </c>
       <c r="R7" s="37" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="S7" s="37"/>
     </row>
@@ -7091,7 +7111,7 @@
         <v>10</v>
       </c>
       <c r="L8" s="16" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="M8" s="9" t="s">
         <v>230</v>
@@ -7100,13 +7120,13 @@
         <v>10</v>
       </c>
       <c r="O8" s="35" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="Q8" s="18">
         <v>605</v>
       </c>
       <c r="R8" s="37" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="S8" s="37"/>
     </row>
@@ -7131,7 +7151,7 @@
         <v>10</v>
       </c>
       <c r="L9" s="16" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="M9" s="9" t="s">
         <v>231</v>
@@ -7140,13 +7160,13 @@
         <v>10</v>
       </c>
       <c r="O9" s="35" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="Q9" s="18">
         <v>606</v>
       </c>
       <c r="R9" s="37" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="S9" s="37"/>
     </row>
@@ -7179,13 +7199,13 @@
         <v>10</v>
       </c>
       <c r="O10" s="35" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="Q10" s="18">
         <v>607</v>
       </c>
       <c r="R10" s="37" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="11" spans="2:113" x14ac:dyDescent="0.25">
@@ -7199,7 +7219,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J11" s="9" t="s">
         <v>160</v>
@@ -7223,7 +7243,7 @@
         <v>608</v>
       </c>
       <c r="R11" s="37" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="S11" s="37"/>
     </row>
@@ -7256,13 +7276,13 @@
         <v>10</v>
       </c>
       <c r="O12" s="16" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Q12" s="18">
         <v>609</v>
       </c>
       <c r="R12" s="37" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="13" spans="2:113" x14ac:dyDescent="0.25">
@@ -7294,13 +7314,13 @@
         <v>10</v>
       </c>
       <c r="O13" s="16" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Q13" s="18">
         <v>610</v>
       </c>
       <c r="R13" s="37" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="14" spans="2:113" x14ac:dyDescent="0.25">
@@ -7323,7 +7343,7 @@
         <v>10</v>
       </c>
       <c r="L14" s="16" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="M14" s="9" t="s">
         <v>236</v>
@@ -7332,13 +7352,13 @@
         <v>10</v>
       </c>
       <c r="O14" s="35" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="Q14" s="18">
         <v>611</v>
       </c>
       <c r="R14" s="37" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="15" spans="2:113" x14ac:dyDescent="0.25">
@@ -7370,13 +7390,13 @@
         <v>10</v>
       </c>
       <c r="O15" s="16" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="Q15" s="18">
         <v>612</v>
       </c>
       <c r="R15" s="37" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="16" spans="2:113" x14ac:dyDescent="0.25">
@@ -7399,7 +7419,7 @@
         <v>10</v>
       </c>
       <c r="L16" s="16" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="M16" s="9" t="s">
         <v>238</v>
@@ -7408,13 +7428,13 @@
         <v>10</v>
       </c>
       <c r="O16" s="35" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="Q16" s="18">
         <v>613</v>
       </c>
       <c r="R16" s="37" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="S16" s="37"/>
     </row>
@@ -7447,13 +7467,13 @@
         <v>10</v>
       </c>
       <c r="O17" s="16" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="Q17" s="18">
         <v>614</v>
       </c>
       <c r="R17" s="37" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.25">
@@ -7476,7 +7496,7 @@
         <v>10</v>
       </c>
       <c r="L18" s="16" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="M18" s="9" t="s">
         <v>240</v>
@@ -7485,13 +7505,13 @@
         <v>10</v>
       </c>
       <c r="O18" s="35" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="Q18" s="18">
         <v>615</v>
       </c>
       <c r="R18" s="37" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="S18" s="37"/>
     </row>
@@ -7524,13 +7544,13 @@
         <v>10</v>
       </c>
       <c r="O19" s="16" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="Q19" s="18">
         <v>616</v>
       </c>
       <c r="R19" s="37" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="S19" s="37"/>
     </row>
@@ -7554,7 +7574,7 @@
         <v>10</v>
       </c>
       <c r="L20" s="16" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="M20" s="9" t="s">
         <v>242</v>
@@ -7563,13 +7583,13 @@
         <v>10</v>
       </c>
       <c r="O20" s="35" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="Q20" s="18">
         <v>617</v>
       </c>
       <c r="R20" s="37" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="S20" s="37"/>
     </row>
@@ -7602,13 +7622,13 @@
         <v>10</v>
       </c>
       <c r="O21" s="16" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="Q21" s="18">
         <v>618</v>
       </c>
       <c r="R21" s="37" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="S21" s="37"/>
     </row>
@@ -7623,13 +7643,13 @@
         <v>1</v>
       </c>
       <c r="E22" s="31" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G22" s="50" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H22" s="45" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J22" s="9" t="s">
         <v>170</v>
@@ -7638,7 +7658,7 @@
         <v>10</v>
       </c>
       <c r="L22" s="16" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="M22" s="9" t="s">
         <v>244</v>
@@ -7647,13 +7667,13 @@
         <v>10</v>
       </c>
       <c r="O22" s="35" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="Q22" s="18">
         <v>619</v>
       </c>
       <c r="R22" s="37" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="S22" s="37"/>
     </row>
@@ -7668,13 +7688,13 @@
         <v>1</v>
       </c>
       <c r="E23" s="31" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G23" s="51" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H23" s="45" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="J23" s="9" t="s">
         <v>171</v>
@@ -7692,13 +7712,13 @@
         <v>10</v>
       </c>
       <c r="O23" s="16" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="Q23" s="18">
         <v>620</v>
       </c>
       <c r="R23" s="37" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="S23" s="37"/>
     </row>
@@ -7713,13 +7733,13 @@
         <v>1</v>
       </c>
       <c r="E24" s="28" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G24" s="52" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H24" s="45" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J24" s="9" t="s">
         <v>172</v>
@@ -7728,7 +7748,7 @@
         <v>10</v>
       </c>
       <c r="L24" s="16" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="M24" s="9" t="s">
         <v>246</v>
@@ -7737,13 +7757,13 @@
         <v>10</v>
       </c>
       <c r="O24" s="35" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="Q24" s="18">
         <v>621</v>
       </c>
       <c r="R24" s="37" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="S24" s="37"/>
     </row>
@@ -7758,10 +7778,10 @@
         <v>1</v>
       </c>
       <c r="E25" s="28" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G25" s="53" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H25" s="45" t="s">
         <v>369</v>
@@ -7782,13 +7802,13 @@
         <v>10</v>
       </c>
       <c r="O25" s="16" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="Q25" s="18">
         <v>622</v>
       </c>
       <c r="R25" s="37" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="S25" s="37"/>
     </row>
@@ -7821,13 +7841,13 @@
         <v>10</v>
       </c>
       <c r="O26" s="36" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="Q26" s="18">
         <v>623</v>
       </c>
       <c r="R26" s="37" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="S26" s="37"/>
     </row>
@@ -7842,7 +7862,7 @@
         <v>1</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>280</v>
+        <v>368</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="1"/>
@@ -7854,7 +7874,7 @@
         <v>10</v>
       </c>
       <c r="L27" s="16" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="M27" s="9" t="s">
         <v>249</v>
@@ -7863,13 +7883,13 @@
         <v>10</v>
       </c>
       <c r="O27" s="35" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Q27" s="18">
         <v>624</v>
       </c>
       <c r="R27" s="37" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="S27" s="37"/>
     </row>
@@ -7884,7 +7904,7 @@
         <v>1</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="1"/>
@@ -7905,13 +7925,13 @@
         <v>10</v>
       </c>
       <c r="O28" s="16" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Q28" s="18">
         <v>625</v>
       </c>
       <c r="R28" s="37" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="S28" s="37"/>
     </row>
@@ -7947,13 +7967,13 @@
         <v>10</v>
       </c>
       <c r="O29" s="16" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Q29" s="18">
         <v>626</v>
       </c>
       <c r="R29" s="37" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="S29" s="37"/>
     </row>
@@ -7988,13 +8008,13 @@
         <v>10</v>
       </c>
       <c r="O30" s="35" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="Q30" s="18">
         <v>627</v>
       </c>
       <c r="R30" s="37" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="S30" s="37"/>
     </row>
@@ -8020,7 +8040,7 @@
         <v>10</v>
       </c>
       <c r="L31" s="16" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="M31" s="9" t="s">
         <v>253</v>
@@ -8029,13 +8049,13 @@
         <v>10</v>
       </c>
       <c r="O31" s="35" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="Q31" s="18">
         <v>628</v>
       </c>
       <c r="R31" s="37" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="S31" s="37"/>
     </row>
@@ -8074,7 +8094,7 @@
         <v>629</v>
       </c>
       <c r="R32" s="37" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="S32" s="37"/>
     </row>
@@ -8107,13 +8127,13 @@
         <v>10</v>
       </c>
       <c r="O33" s="16" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="Q33" s="18">
         <v>630</v>
       </c>
       <c r="R33" s="37" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="S33" s="37"/>
     </row>
@@ -8137,7 +8157,7 @@
         <v>10</v>
       </c>
       <c r="L34" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="M34" s="9" t="s">
         <v>256</v>
@@ -8146,13 +8166,13 @@
         <v>10</v>
       </c>
       <c r="O34" s="42" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="Q34" s="18">
         <v>631</v>
       </c>
       <c r="R34" s="37" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="S34" s="37"/>
     </row>
@@ -8176,7 +8196,7 @@
         <v>10</v>
       </c>
       <c r="L35" s="16" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="M35" s="9" t="s">
         <v>257</v>
@@ -8185,13 +8205,13 @@
         <v>10</v>
       </c>
       <c r="O35" s="35" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="Q35" s="18">
         <v>632</v>
       </c>
       <c r="R35" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="S35" s="37"/>
     </row>
@@ -8240,7 +8260,7 @@
         <v>1</v>
       </c>
       <c r="E37" s="29" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J37" s="9" t="s">
         <v>216</v>
@@ -8249,7 +8269,7 @@
         <v>10</v>
       </c>
       <c r="L37" s="35" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="M37" s="9" t="s">
         <v>259</v>
@@ -8275,7 +8295,7 @@
         <v>1</v>
       </c>
       <c r="E38" s="29" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J38" s="9" t="s">
         <v>185</v>
@@ -8284,7 +8304,7 @@
         <v>10</v>
       </c>
       <c r="L38" s="35" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="M38" s="9" t="s">
         <v>260</v>
@@ -8293,10 +8313,10 @@
         <v>10</v>
       </c>
       <c r="O38" s="16" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Q38" s="62" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="R38" s="62"/>
       <c r="S38" s="37"/>
@@ -8330,13 +8350,13 @@
         <v>10</v>
       </c>
       <c r="O39" s="35" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Q39" s="18">
         <v>700</v>
       </c>
       <c r="R39" s="37" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="S39" s="37"/>
     </row>
@@ -8360,7 +8380,7 @@
         <v>10</v>
       </c>
       <c r="L40" s="16" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="M40" s="9" t="s">
         <v>262</v>
@@ -8369,13 +8389,13 @@
         <v>10</v>
       </c>
       <c r="O40" s="35" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="Q40" s="45">
         <v>701</v>
       </c>
       <c r="R40" s="37" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="41" spans="2:19" x14ac:dyDescent="0.25">
@@ -8407,7 +8427,7 @@
         <v>10</v>
       </c>
       <c r="O41" s="16" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="42" spans="2:19" x14ac:dyDescent="0.25">
@@ -8421,7 +8441,7 @@
         <v>1</v>
       </c>
       <c r="E42" s="30" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J42" s="9" t="s">
         <v>189</v>
@@ -8430,7 +8450,7 @@
         <v>10</v>
       </c>
       <c r="L42" s="16" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="M42" s="9" t="s">
         <v>264</v>
@@ -8439,7 +8459,7 @@
         <v>10</v>
       </c>
       <c r="O42" s="35" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="43" spans="2:19" x14ac:dyDescent="0.25">
@@ -8471,7 +8491,7 @@
         <v>10</v>
       </c>
       <c r="O43" s="16" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="44" spans="2:19" x14ac:dyDescent="0.25">
@@ -8494,7 +8514,7 @@
         <v>10</v>
       </c>
       <c r="L44" s="16" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="M44" s="9" t="s">
         <v>266</v>
@@ -8503,7 +8523,7 @@
         <v>10</v>
       </c>
       <c r="O44" s="35" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="45" spans="2:19" x14ac:dyDescent="0.25">
@@ -8535,7 +8555,7 @@
         <v>10</v>
       </c>
       <c r="O45" s="16" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="46" spans="2:19" x14ac:dyDescent="0.25">
@@ -8558,7 +8578,7 @@
         <v>10</v>
       </c>
       <c r="L46" s="16" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="M46" s="9" t="s">
         <v>268</v>
@@ -8567,7 +8587,7 @@
         <v>10</v>
       </c>
       <c r="O46" s="35" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="47" spans="2:19" x14ac:dyDescent="0.25">
@@ -8599,7 +8619,7 @@
         <v>10</v>
       </c>
       <c r="O47" s="16" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="48" spans="2:19" x14ac:dyDescent="0.25">
@@ -8622,7 +8642,7 @@
         <v>10</v>
       </c>
       <c r="L48" s="16" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="M48" s="9" t="s">
         <v>270</v>
@@ -8631,7 +8651,7 @@
         <v>10</v>
       </c>
       <c r="O48" s="35" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="49" spans="2:18" x14ac:dyDescent="0.25">
@@ -8663,7 +8683,7 @@
         <v>10</v>
       </c>
       <c r="O49" s="16" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="50" spans="2:18" x14ac:dyDescent="0.25">
@@ -8695,7 +8715,7 @@
         <v>10</v>
       </c>
       <c r="O50" s="35" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="51" spans="2:18" x14ac:dyDescent="0.25">
@@ -8718,7 +8738,7 @@
         <v>10</v>
       </c>
       <c r="L51" s="16" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="M51" s="13" t="s">
         <v>273</v>
@@ -8727,7 +8747,7 @@
         <v>10</v>
       </c>
       <c r="O51" s="35" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="52" spans="2:18" x14ac:dyDescent="0.25">
@@ -9098,7 +9118,7 @@
         <v>1</v>
       </c>
       <c r="E77" s="25" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="78" spans="2:12" x14ac:dyDescent="0.25">
@@ -9112,13 +9132,13 @@
         <v>1</v>
       </c>
       <c r="E78" s="25" t="s">
+        <v>365</v>
+      </c>
+      <c r="G78" s="54" t="s">
+        <v>364</v>
+      </c>
+      <c r="H78" s="45" t="s">
         <v>366</v>
-      </c>
-      <c r="G78" s="54" t="s">
-        <v>365</v>
-      </c>
-      <c r="H78" s="45" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.25">
@@ -9132,7 +9152,7 @@
         <v>1</v>
       </c>
       <c r="E79" s="27" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="80" spans="2:12" x14ac:dyDescent="0.25">
@@ -9202,7 +9222,7 @@
         <v>1</v>
       </c>
       <c r="E84" s="25" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.25">
@@ -9216,7 +9236,7 @@
         <v>1</v>
       </c>
       <c r="E85" s="25" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.25">
@@ -9804,7 +9824,7 @@
         <v>1</v>
       </c>
       <c r="E127" s="28" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="128" spans="2:5" x14ac:dyDescent="0.25">

--- a/Producciones.xlsx
+++ b/Producciones.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Usuario\Documents\NetBeansProjects\Compilador\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D9B646-5263-45A7-AACD-02B58C8DB5D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C632E1-B5C9-4AD2-8078-B383802C17BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A2E2150B-4EBC-493D-997F-5AEA11C60ED9}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A2E2150B-4EBC-493D-997F-5AEA11C60ED9}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -6322,7 +6322,7 @@
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6417,6 +6417,14 @@
     <xf numFmtId="0" fontId="17" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="12" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6441,14 +6449,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="12" xfId="4" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bueno" xfId="3" builtinId="26"/>
@@ -6904,8 +6907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE3FA8B9-A47E-429A-BD32-FD36D0235D3B}">
   <dimension ref="B1:DI168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6930,40 +6933,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="57"/>
-      <c r="J1" s="54" t="s">
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="61"/>
+      <c r="J1" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54" t="s">
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
       <c r="U1" s="5"/>
       <c r="V1" s="5"/>
     </row>
     <row r="2" spans="2:113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="58"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="60"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="Q2" s="61" t="s">
+      <c r="B2" s="62"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="64"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="Q2" s="65" t="s">
         <v>333</v>
       </c>
-      <c r="R2" s="61"/>
+      <c r="R2" s="65"/>
       <c r="S2" s="18"/>
       <c r="T2" s="18"/>
       <c r="U2" s="18"/>
@@ -7073,7 +7076,7 @@
       <c r="E3" s="21" t="s">
         <v>330</v>
       </c>
-      <c r="F3" s="63" t="s">
+      <c r="F3" s="55" t="s">
         <v>370</v>
       </c>
       <c r="G3" s="44" t="s">
@@ -7124,7 +7127,7 @@
       <c r="E4" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="F4" s="63" t="s">
+      <c r="F4" s="55" t="s">
         <v>370</v>
       </c>
       <c r="G4" s="48" t="s">
@@ -7172,7 +7175,7 @@
       <c r="E5" s="28" t="s">
         <v>362</v>
       </c>
-      <c r="F5" s="63" t="s">
+      <c r="F5" s="55" t="s">
         <v>370</v>
       </c>
       <c r="G5" s="46" t="s">
@@ -7220,7 +7223,7 @@
       <c r="E6" s="49" t="s">
         <v>342</v>
       </c>
-      <c r="F6" s="63" t="s">
+      <c r="F6" s="55" t="s">
         <v>370</v>
       </c>
       <c r="G6" s="47" t="s">
@@ -7268,7 +7271,7 @@
       <c r="E7" s="11" t="s">
         <v>343</v>
       </c>
-      <c r="F7" s="63" t="s">
+      <c r="F7" s="55" t="s">
         <v>370</v>
       </c>
       <c r="G7" s="43" t="s">
@@ -7858,7 +7861,7 @@
       <c r="E22" s="31" t="s">
         <v>350</v>
       </c>
-      <c r="F22" s="63" t="s">
+      <c r="F22" s="55" t="s">
         <v>370</v>
       </c>
       <c r="G22" s="50" t="s">
@@ -7906,7 +7909,7 @@
       <c r="E23" s="31" t="s">
         <v>351</v>
       </c>
-      <c r="F23" s="63" t="s">
+      <c r="F23" s="55" t="s">
         <v>370</v>
       </c>
       <c r="G23" s="51" t="s">
@@ -7954,7 +7957,7 @@
       <c r="E24" s="28" t="s">
         <v>352</v>
       </c>
-      <c r="F24" s="63" t="s">
+      <c r="F24" s="55" t="s">
         <v>370</v>
       </c>
       <c r="G24" s="52" t="s">
@@ -8002,7 +8005,7 @@
       <c r="E25" s="28" t="s">
         <v>353</v>
       </c>
-      <c r="F25" s="63" t="s">
+      <c r="F25" s="55" t="s">
         <v>370</v>
       </c>
       <c r="G25" s="53" t="s">
@@ -8173,13 +8176,15 @@
       <c r="E29" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="F29" s="63" t="s">
+      <c r="F29" s="55" t="s">
         <v>371</v>
       </c>
-      <c r="G29" s="62" t="s">
+      <c r="G29" s="54" t="s">
         <v>369</v>
       </c>
-      <c r="H29" s="1"/>
+      <c r="H29" s="66">
+        <v>820</v>
+      </c>
       <c r="I29" s="2"/>
       <c r="J29" s="9" t="s">
         <v>172</v>
@@ -8545,10 +8550,10 @@
       <c r="O38" s="16" t="s">
         <v>280</v>
       </c>
-      <c r="Q38" s="61" t="s">
+      <c r="Q38" s="65" t="s">
         <v>332</v>
       </c>
-      <c r="R38" s="61"/>
+      <c r="R38" s="65"/>
       <c r="S38" s="37"/>
     </row>
     <row r="39" spans="2:19" x14ac:dyDescent="0.25">
@@ -9266,11 +9271,14 @@
       <c r="E71" s="25" t="s">
         <v>374</v>
       </c>
-      <c r="F71" s="63" t="s">
+      <c r="F71" s="55" t="s">
         <v>371</v>
       </c>
-      <c r="G71" s="65" t="s">
+      <c r="G71" s="57" t="s">
         <v>364</v>
+      </c>
+      <c r="H71" s="45">
+        <v>821</v>
       </c>
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.25">
@@ -9370,10 +9378,10 @@
       <c r="E78" s="25" t="s">
         <v>357</v>
       </c>
-      <c r="F78" s="63" t="s">
+      <c r="F78" s="55" t="s">
         <v>370</v>
       </c>
-      <c r="G78" s="64" t="s">
+      <c r="G78" s="56" t="s">
         <v>356</v>
       </c>
       <c r="H78" s="45" t="s">

--- a/Producciones.xlsx
+++ b/Producciones.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Usuario\Documents\NetBeansProjects\Compilador\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C632E1-B5C9-4AD2-8078-B383802C17BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B43D55AD-95A1-406F-89CA-F64DCE0D6FF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A2E2150B-4EBC-493D-997F-5AEA11C60ED9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A2E2150B-4EBC-493D-997F-5AEA11C60ED9}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -5458,9 +5458,6 @@
     </r>
   </si>
   <si>
-    <t>(876-877)</t>
-  </si>
-  <si>
     <t>(812 - 816)</t>
   </si>
   <si>
@@ -5868,6 +5865,9 @@
       </rPr>
       <t>@</t>
     </r>
+  </si>
+  <si>
+    <t>(820-821)</t>
   </si>
 </sst>
 </file>
@@ -6425,6 +6425,9 @@
     </xf>
     <xf numFmtId="0" fontId="26" fillId="16" borderId="12" xfId="4" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="17" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6447,9 +6450,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -6907,8 +6907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE3FA8B9-A47E-429A-BD32-FD36D0235D3B}">
   <dimension ref="B1:DI168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H68" sqref="H68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6933,40 +6933,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="61"/>
-      <c r="J1" s="58" t="s">
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="62"/>
+      <c r="J1" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58" t="s">
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
       <c r="U1" s="5"/>
       <c r="V1" s="5"/>
     </row>
     <row r="2" spans="2:113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="62"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="64"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="Q2" s="65" t="s">
+      <c r="B2" s="63"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="65"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="Q2" s="66" t="s">
         <v>333</v>
       </c>
-      <c r="R2" s="65"/>
+      <c r="R2" s="66"/>
       <c r="S2" s="18"/>
       <c r="T2" s="18"/>
       <c r="U2" s="18"/>
@@ -7077,7 +7077,7 @@
         <v>330</v>
       </c>
       <c r="F3" s="55" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G3" s="44" t="s">
         <v>331</v>
@@ -7128,7 +7128,7 @@
         <v>345</v>
       </c>
       <c r="F4" s="55" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G4" s="48" t="s">
         <v>336</v>
@@ -7173,10 +7173,10 @@
         <v>1</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F5" s="55" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G5" s="46" t="s">
         <v>339</v>
@@ -7224,7 +7224,7 @@
         <v>342</v>
       </c>
       <c r="F6" s="55" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G6" s="47" t="s">
         <v>340</v>
@@ -7272,7 +7272,7 @@
         <v>343</v>
       </c>
       <c r="F7" s="55" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G7" s="43" t="s">
         <v>341</v>
@@ -7862,7 +7862,7 @@
         <v>350</v>
       </c>
       <c r="F22" s="55" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G22" s="50" t="s">
         <v>347</v>
@@ -7910,7 +7910,7 @@
         <v>351</v>
       </c>
       <c r="F23" s="55" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G23" s="51" t="s">
         <v>346</v>
@@ -7958,13 +7958,13 @@
         <v>352</v>
       </c>
       <c r="F24" s="55" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G24" s="52" t="s">
         <v>348</v>
       </c>
       <c r="H24" s="45" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="J24" s="9" t="s">
         <v>167</v>
@@ -8006,13 +8006,13 @@
         <v>353</v>
       </c>
       <c r="F25" s="55" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G25" s="53" t="s">
         <v>349</v>
       </c>
       <c r="H25" s="45" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="J25" s="9" t="s">
         <v>168</v>
@@ -8090,7 +8090,7 @@
         <v>1</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="1"/>
@@ -8177,13 +8177,13 @@
         <v>27</v>
       </c>
       <c r="F29" s="55" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G29" s="54" t="s">
-        <v>369</v>
-      </c>
-      <c r="H29" s="66">
-        <v>820</v>
+        <v>368</v>
+      </c>
+      <c r="H29" s="58">
+        <v>850</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="9" t="s">
@@ -8223,7 +8223,7 @@
         <v>1</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="1"/>
@@ -8264,7 +8264,7 @@
         <v>1</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="1"/>
@@ -8305,7 +8305,7 @@
         <v>1</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="J32" s="9" t="s">
         <v>175</v>
@@ -8344,7 +8344,7 @@
         <v>1</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="J33" s="9" t="s">
         <v>176</v>
@@ -8495,7 +8495,7 @@
         <v>1</v>
       </c>
       <c r="E37" s="29" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J37" s="9" t="s">
         <v>211</v>
@@ -8530,7 +8530,7 @@
         <v>1</v>
       </c>
       <c r="E38" s="29" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J38" s="9" t="s">
         <v>180</v>
@@ -8550,10 +8550,10 @@
       <c r="O38" s="16" t="s">
         <v>280</v>
       </c>
-      <c r="Q38" s="65" t="s">
+      <c r="Q38" s="66" t="s">
         <v>332</v>
       </c>
-      <c r="R38" s="65"/>
+      <c r="R38" s="66"/>
       <c r="S38" s="37"/>
     </row>
     <row r="39" spans="2:19" x14ac:dyDescent="0.25">
@@ -9123,7 +9123,7 @@
         <v>1</v>
       </c>
       <c r="E61" s="25" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="62" spans="2:18" x14ac:dyDescent="0.25">
@@ -9269,16 +9269,16 @@
         <v>1</v>
       </c>
       <c r="E71" s="25" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F71" s="55" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G71" s="57" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H71" s="45">
-        <v>821</v>
+        <v>851</v>
       </c>
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.25">
@@ -9379,13 +9379,13 @@
         <v>357</v>
       </c>
       <c r="F78" s="55" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G78" s="56" t="s">
         <v>356</v>
       </c>
       <c r="H78" s="45" t="s">
-        <v>358</v>
+        <v>374</v>
       </c>
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.25">

--- a/Producciones.xlsx
+++ b/Producciones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Usuario\Documents\NetBeansProjects\Compilador\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B43D55AD-95A1-406F-89CA-F64DCE0D6FF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B69713A-FF5F-4293-B701-60F110205FCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A2E2150B-4EBC-493D-997F-5AEA11C60ED9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="378">
   <si>
     <t>PRODUCIONES</t>
   </si>
@@ -5868,6 +5868,15 @@
   </si>
   <si>
     <t>(820-821)</t>
+  </si>
+  <si>
+    <t>ERRORES DE SEMANTICA</t>
+  </si>
+  <si>
+    <t>El tipo de variable no soporta tipo ...</t>
+  </si>
+  <si>
+    <t>Incompatibilidad de tipos …</t>
   </si>
 </sst>
 </file>
@@ -6907,8 +6916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE3FA8B9-A47E-429A-BD32-FD36D0235D3B}">
   <dimension ref="B1:DI168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H68" sqref="H68"/>
+    <sheetView tabSelected="1" topLeftCell="P31" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="S43" sqref="S43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8728,6 +8737,10 @@
       <c r="O43" s="16" t="s">
         <v>320</v>
       </c>
+      <c r="Q43" s="66" t="s">
+        <v>375</v>
+      </c>
+      <c r="R43" s="66"/>
     </row>
     <row r="44" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B44" s="34">
@@ -8760,6 +8773,12 @@
       <c r="O44" s="35" t="s">
         <v>320</v>
       </c>
+      <c r="Q44" s="45">
+        <v>750</v>
+      </c>
+      <c r="R44" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="45" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B45" s="34">
@@ -8791,6 +8810,12 @@
       </c>
       <c r="O45" s="16" t="s">
         <v>320</v>
+      </c>
+      <c r="Q45" s="45">
+        <v>751</v>
+      </c>
+      <c r="R45" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="46" spans="2:19" x14ac:dyDescent="0.25">
@@ -10403,7 +10428,8 @@
       <c r="D168" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="Q43:R43"/>
     <mergeCell ref="M1:O2"/>
     <mergeCell ref="J1:L2"/>
     <mergeCell ref="B1:E2"/>

--- a/Producciones.xlsx
+++ b/Producciones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Usuario\Documents\NetBeansProjects\Compilador\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B69713A-FF5F-4293-B701-60F110205FCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB8FB9C-3563-41CC-B01F-5436216826FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A2E2150B-4EBC-493D-997F-5AEA11C60ED9}"/>
   </bookViews>
@@ -5873,10 +5873,10 @@
     <t>ERRORES DE SEMANTICA</t>
   </si>
   <si>
-    <t>El tipo de variable no soporta tipo ...</t>
-  </si>
-  <si>
     <t>Incompatibilidad de tipos …</t>
+  </si>
+  <si>
+    <t>Incompatibilidad de asignacion ...</t>
   </si>
 </sst>
 </file>
@@ -6437,6 +6437,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6457,9 +6460,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -6916,8 +6916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE3FA8B9-A47E-429A-BD32-FD36D0235D3B}">
   <dimension ref="B1:DI168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P31" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="S43" sqref="S43"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6942,40 +6942,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="62"/>
-      <c r="J1" s="59" t="s">
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="63"/>
+      <c r="J1" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59" t="s">
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
       <c r="U1" s="5"/>
       <c r="V1" s="5"/>
     </row>
     <row r="2" spans="2:113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="63"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="65"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="Q2" s="66" t="s">
+      <c r="B2" s="64"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="66"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="Q2" s="59" t="s">
         <v>333</v>
       </c>
-      <c r="R2" s="66"/>
+      <c r="R2" s="59"/>
       <c r="S2" s="18"/>
       <c r="T2" s="18"/>
       <c r="U2" s="18"/>
@@ -8559,10 +8559,10 @@
       <c r="O38" s="16" t="s">
         <v>280</v>
       </c>
-      <c r="Q38" s="66" t="s">
+      <c r="Q38" s="59" t="s">
         <v>332</v>
       </c>
-      <c r="R38" s="66"/>
+      <c r="R38" s="59"/>
       <c r="S38" s="37"/>
     </row>
     <row r="39" spans="2:19" x14ac:dyDescent="0.25">
@@ -8737,10 +8737,10 @@
       <c r="O43" s="16" t="s">
         <v>320</v>
       </c>
-      <c r="Q43" s="66" t="s">
+      <c r="Q43" s="59" t="s">
         <v>375</v>
       </c>
-      <c r="R43" s="66"/>
+      <c r="R43" s="59"/>
     </row>
     <row r="44" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B44" s="34">
@@ -8777,7 +8777,7 @@
         <v>750</v>
       </c>
       <c r="R44" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="45" spans="2:19" x14ac:dyDescent="0.25">
@@ -8815,7 +8815,7 @@
         <v>751</v>
       </c>
       <c r="R45" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="46" spans="2:19" x14ac:dyDescent="0.25">

--- a/Producciones.xlsx
+++ b/Producciones.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Usuario\Documents\NetBeansProjects\Compilador\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0794497E-D07B-4606-98F5-95501DD9DADA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0975792-EBE8-4E1D-B763-93DE4DB978D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A2E2150B-4EBC-493D-997F-5AEA11C60ED9}"/>
+    <workbookView xWindow="29190" yWindow="390" windowWidth="14400" windowHeight="15600" xr2:uid="{A2E2150B-4EBC-493D-997F-5AEA11C60ED9}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -5425,6 +5425,858 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> SIMPLEEXP-PAS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> H0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&gt;&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">SIMPLEEXP-PAS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> H0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">OR </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA50021"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA50021"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ASIGN J3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">** </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">FACTOR </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> D0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&amp; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">OPBIT </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> M0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>^</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ANDLOG </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> O0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">| </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">XORLOG </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> P0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&amp;&amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> NOT </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Q0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>##</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> NOT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> @</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Q0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>INNOT</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ORLOG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> @</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> L0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IN</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ORLOG </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> L0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ISNOT</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ORLOG </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> L0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IS</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ORLOG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> @</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> L0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ORLOG </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> L0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&gt;= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ORLOG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>L0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">!= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ORLOG </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> L0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">== </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ORLOG </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> L0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ORLOG </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">@ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>L0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ORLOG </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> L0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>!</t>
     </r>
@@ -5436,7 +6288,26 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> EXP-PAS @ F0</t>
+      <t xml:space="preserve"> EXP-PAS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> F0</t>
     </r>
   </si>
   <si>
@@ -5457,30 +6328,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> AND @ G0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> SIMPLEEXP-PAS </t>
+      <t xml:space="preserve"> AND </t>
     </r>
     <r>
       <rPr>
@@ -5488,7 +6336,6 @@
         <color rgb="FFF3E529"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t>@</t>
     </r>
@@ -5499,817 +6346,8 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> H0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">&gt;&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">SIMPLEEXP-PAS </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF3E529"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> H0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">OR </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFA50021"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFA50021"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ASIGN J3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">** </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">FACTOR </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF3E529"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> D0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">&amp; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">OPBIT </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF3E529"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> M0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>^</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ANDLOG </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF3E529"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> O0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">| </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">XORLOG </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF3E529"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> P0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&amp;&amp;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> NOT </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF3E529"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Q0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>##</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> NOT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF3E529"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> @</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Q0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>INNOT</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ORLOG</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF3E529"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> @</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> L0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>IN</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ORLOG </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF3E529"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> L0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ISNOT</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ORLOG </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF3E529"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> L0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>IS</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ORLOG</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF3E529"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> @</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> L0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ORLOG </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF3E529"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> L0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">&gt;= </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ORLOG</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF3E529"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>L0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">!= </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">ORLOG </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFF3E529"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> L0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">== </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">ORLOG </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF3E529"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> L0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;=</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ORLOG </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF3E529"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">@ </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>L0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ORLOG </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF3E529"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> L0</t>
+      </rPr>
+      <t xml:space="preserve"> G0</t>
     </r>
   </si>
 </sst>
@@ -6896,6 +6934,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="5"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6920,7 +6959,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="5"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Bueno" xfId="3" builtinId="26"/>
@@ -7377,8 +7415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE3FA8B9-A47E-429A-BD32-FD36D0235D3B}">
   <dimension ref="B1:DI168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E97" sqref="E97"/>
+    <sheetView tabSelected="1" topLeftCell="B35" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7403,40 +7441,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="63"/>
-      <c r="J1" s="60" t="s">
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="64"/>
+      <c r="J1" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60" t="s">
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
       <c r="U1" s="5"/>
       <c r="V1" s="5"/>
     </row>
     <row r="2" spans="2:113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="64"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="66"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="Q2" s="59" t="s">
+      <c r="B2" s="65"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="67"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="61"/>
+      <c r="Q2" s="60" t="s">
         <v>312</v>
       </c>
-      <c r="R2" s="59"/>
+      <c r="R2" s="60"/>
       <c r="S2" s="18"/>
       <c r="T2" s="18"/>
       <c r="U2" s="18"/>
@@ -8892,7 +8930,7 @@
         <v>1</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="J35" s="38" t="s">
         <v>160</v>
@@ -9020,10 +9058,10 @@
       <c r="O38" s="16" t="s">
         <v>261</v>
       </c>
-      <c r="Q38" s="59" t="s">
+      <c r="Q38" s="60" t="s">
         <v>311</v>
       </c>
-      <c r="R38" s="59"/>
+      <c r="R38" s="60"/>
       <c r="S38" s="37"/>
     </row>
     <row r="39" spans="2:19" x14ac:dyDescent="0.25">
@@ -9076,7 +9114,7 @@
         <v>1</v>
       </c>
       <c r="E40" s="30" t="s">
-        <v>359</v>
+        <v>379</v>
       </c>
       <c r="J40" s="9" t="s">
         <v>164</v>
@@ -9146,7 +9184,7 @@
         <v>1</v>
       </c>
       <c r="E42" s="30" t="s">
-        <v>360</v>
+        <v>380</v>
       </c>
       <c r="J42" s="9" t="s">
         <v>166</v>
@@ -9198,10 +9236,10 @@
       <c r="O43" s="16" t="s">
         <v>300</v>
       </c>
-      <c r="Q43" s="59" t="s">
+      <c r="Q43" s="60" t="s">
         <v>353</v>
       </c>
-      <c r="R43" s="59"/>
+      <c r="R43" s="60"/>
     </row>
     <row r="44" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B44" s="34">
@@ -9214,7 +9252,7 @@
         <v>1</v>
       </c>
       <c r="E44" s="25" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="J44" s="9" t="s">
         <v>168</v>
@@ -9252,7 +9290,7 @@
         <v>1</v>
       </c>
       <c r="E45" s="25" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="J45" s="9" t="s">
         <v>169</v>
@@ -9665,7 +9703,7 @@
         <v>1</v>
       </c>
       <c r="E65" s="31" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.25">
@@ -9755,7 +9793,7 @@
         <v>1</v>
       </c>
       <c r="E71" s="28" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F71" s="55" t="s">
         <v>349</v>
@@ -10011,7 +10049,7 @@
         <v>1</v>
       </c>
       <c r="E88" s="25" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.25">
@@ -10025,7 +10063,7 @@
         <v>1</v>
       </c>
       <c r="E89" s="25" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.25">
@@ -10039,7 +10077,7 @@
         <v>1</v>
       </c>
       <c r="E90" s="31" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.25">
@@ -10053,7 +10091,7 @@
         <v>1</v>
       </c>
       <c r="E91" s="25" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.25">
@@ -10067,7 +10105,7 @@
         <v>1</v>
       </c>
       <c r="E92" s="25" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.25">
@@ -10081,7 +10119,7 @@
         <v>1</v>
       </c>
       <c r="E93" s="25" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.25">
@@ -10095,7 +10133,7 @@
         <v>1</v>
       </c>
       <c r="E94" s="25" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.25">
@@ -10109,7 +10147,7 @@
         <v>1</v>
       </c>
       <c r="E95" s="25" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.25">
@@ -10123,7 +10161,7 @@
         <v>1</v>
       </c>
       <c r="E96" s="25" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.25">
@@ -10137,7 +10175,7 @@
         <v>1</v>
       </c>
       <c r="E97" s="25" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.25">
@@ -10165,7 +10203,7 @@
         <v>1</v>
       </c>
       <c r="E99" s="25" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.25">
@@ -10193,7 +10231,7 @@
         <v>1</v>
       </c>
       <c r="E101" s="25" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.25">
@@ -10221,7 +10259,7 @@
         <v>1</v>
       </c>
       <c r="E103" s="25" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.25">
@@ -10249,7 +10287,7 @@
         <v>1</v>
       </c>
       <c r="E105" s="25" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.25">
@@ -10263,7 +10301,7 @@
         <v>1</v>
       </c>
       <c r="E106" s="25" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.25">
@@ -10562,7 +10600,7 @@
       <c r="F127" s="55" t="s">
         <v>349</v>
       </c>
-      <c r="G127" s="67" t="s">
+      <c r="G127" s="59" t="s">
         <v>357</v>
       </c>
       <c r="H127" s="45">

--- a/Producciones.xlsx
+++ b/Producciones.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Usuario\Documents\NetBeansProjects\Compilador\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0975792-EBE8-4E1D-B763-93DE4DB978D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA05C6FD-CBF5-4142-AEA9-FBE9FBFCC6A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29190" yWindow="390" windowWidth="14400" windowHeight="15600" xr2:uid="{A2E2150B-4EBC-493D-997F-5AEA11C60ED9}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A2E2150B-4EBC-493D-997F-5AEA11C60ED9}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="383">
   <si>
     <t>PRODUCIONES</t>
   </si>
@@ -4086,6 +4086,2206 @@
     </r>
   </si>
   <si>
+    <t>Octal Binario Hexadecimal Decimal -</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Constflotante Constcadena Constcaracter Octal Binario Hexadecimal Decimal - Constcompleja true false ( [ range { None findall replace len Sample choice random radrange mean median variance sum -- ++ id </t>
+  </si>
+  <si>
+    <t>Constflotante Constcadena Constcaracter Octal Binario Hexadecimal Decimal - Constcompleja true false ( [ range { None findall replace len Sample choice random radrange mean median variance sum -- ++ id input</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Constflotante Constcadena Constcaracter Octal Binario Hexadecimal Decimal - Constcompleja true false ( [ range { None findall replace len Sample choice random radrange mean median variance sum -- ++ id Ɛ </t>
+  </si>
+  <si>
+    <t>Constflotante Constcadena Constcaracter Octal Binario Hexadecimal Decimal  - Constcompleja true false ( [ range { None</t>
+  </si>
+  <si>
+    <t>= += /= *= -= //= **= %= Ɛ</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A0 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">{ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EST</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> } </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+  </si>
+  <si>
+    <t>EJEC</t>
+  </si>
+  <si>
+    <t>ERRORES DE AMBITO</t>
+  </si>
+  <si>
+    <t>ERRORES DE SINTAXIS</t>
+  </si>
+  <si>
+    <t>Variable duplicada</t>
+  </si>
+  <si>
+    <t>Variable no declarada</t>
+  </si>
+  <si>
+    <t>newAMBITO</t>
+  </si>
+  <si>
+    <t>(800, 801)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (802, 803)</t>
+  </si>
+  <si>
+    <t>Funcion</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Parametro</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> id </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> id </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A2</t>
+    </r>
+  </si>
+  <si>
+    <t>(806 - 807)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">def </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> id ( </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">A1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">PROGRAM </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A0</t>
+    </r>
+  </si>
+  <si>
+    <t>Lista</t>
+  </si>
+  <si>
+    <t>Tupla</t>
+  </si>
+  <si>
+    <t>Rango</t>
+  </si>
+  <si>
+    <t>Diccionario</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ( </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OR B0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ARR </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCC0099"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> range ( </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCC0099"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CONSTENTERO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ,  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCC0099"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CONSTENTERO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ,  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCC0099"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">CONSTENTERO </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCC0099"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCF20C"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> { </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CONSTANTE B1 B2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> } </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCF20C"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+  </si>
+  <si>
+    <t>(808 - 809)</t>
+  </si>
+  <si>
+    <t>(810 - 811)</t>
+  </si>
+  <si>
+    <t>For id</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">@ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFA401"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> OR </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFA401"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>to</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> OR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> :</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> EST A3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">End </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+  </si>
+  <si>
+    <t>(812 - 816)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCF20C"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CONSTANTE B2</t>
+    </r>
+  </si>
+  <si>
+    <t>(817 - 819)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> id = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">CONSTANTE </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">J0 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">id </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">J1 </t>
+    </r>
+  </si>
+  <si>
+    <t>Verif. Asignación</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> TERMINOPASCAL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> E0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> TERMINOPASCAL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> E0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ELEVACION </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> C0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ELEVACION  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> C0</t>
+    </r>
+  </si>
+  <si>
+    <t>Verif. Opercación</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>//</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ELEVACION </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> C0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>%</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ELEVACION </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> C0</t>
+    </r>
+  </si>
+  <si>
+    <t>(820-821)</t>
+  </si>
+  <si>
+    <t>Incompatibilidad de tipos …</t>
+  </si>
+  <si>
+    <t>Incompatibilidad de asignacion ...</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Decimal</t>
+    </r>
+  </si>
+  <si>
+    <t>Negativo</t>
+  </si>
+  <si>
+    <t>851-852</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> SIMPLEEXP-PAS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> H0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&gt;&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">SIMPLEEXP-PAS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> H0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">OR </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA50021"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA50021"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ASIGN J3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">** </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">FACTOR </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> D0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&amp; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">OPBIT </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> M0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>^</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ANDLOG </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> O0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">| </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">XORLOG </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> P0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&amp;&amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> NOT </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Q0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>##</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> NOT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> @</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Q0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>INNOT</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ORLOG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> @</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> L0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IN</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ORLOG </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> L0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ISNOT</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ORLOG </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> L0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IS</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ORLOG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> @</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> L0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ORLOG </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> L0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&gt;= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ORLOG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>L0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">!= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ORLOG </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> L0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">== </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ORLOG </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> L0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ORLOG </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">@ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>L0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ORLOG </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> L0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>!</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> EXP-PAS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> F0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>||</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> AND </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> G0</t>
+    </r>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -4109,6 +6309,28 @@
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -4151,2211 +6373,17 @@
     </r>
   </si>
   <si>
-    <t>Octal Binario Hexadecimal Decimal -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Constflotante Constcadena Constcaracter Octal Binario Hexadecimal Decimal - Constcompleja true false ( [ range { None findall replace len Sample choice random radrange mean median variance sum -- ++ id </t>
-  </si>
-  <si>
-    <t>Constflotante Constcadena Constcaracter Octal Binario Hexadecimal Decimal - Constcompleja true false ( [ range { None findall replace len Sample choice random radrange mean median variance sum -- ++ id input</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Constflotante Constcadena Constcaracter Octal Binario Hexadecimal Decimal - Constcompleja true false ( [ range { None findall replace len Sample choice random radrange mean median variance sum -- ++ id Ɛ </t>
-  </si>
-  <si>
-    <t>Constflotante Constcadena Constcaracter Octal Binario Hexadecimal Decimal  - Constcompleja true false ( [ range { None</t>
-  </si>
-  <si>
-    <t>= += /= *= -= //= **= %= Ɛ</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">A0 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">{ </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>EST</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> } </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-  </si>
-  <si>
-    <t>EJEC</t>
-  </si>
-  <si>
-    <t>ERRORES DE AMBITO</t>
-  </si>
-  <si>
-    <t>ERRORES DE SINTAXIS</t>
-  </si>
-  <si>
-    <t>Variable duplicada</t>
-  </si>
-  <si>
-    <t>Variable no declarada</t>
-  </si>
-  <si>
-    <t>newAMBITO</t>
-  </si>
-  <si>
-    <t>(800, 801)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (802, 803)</t>
-  </si>
-  <si>
-    <t>Funcion</t>
-  </si>
-  <si>
-    <t>Variable</t>
-  </si>
-  <si>
-    <t>Parametro</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> id </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> id </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A2</t>
-    </r>
-  </si>
-  <si>
-    <t>(806 - 807)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">def </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> id ( </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">A1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="7"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">PROGRAM </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A0</t>
-    </r>
-  </si>
-  <si>
-    <t>Lista</t>
-  </si>
-  <si>
-    <t>Tupla</t>
-  </si>
-  <si>
-    <t>Rango</t>
-  </si>
-  <si>
-    <t>Diccionario</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ( </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>OR B0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ARR </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCC0099"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> range ( </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCC0099"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CONSTENTERO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ,  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCC0099"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CONSTENTERO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ,  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCC0099"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">CONSTENTERO </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCC0099"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCCF20C"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> { </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CONSTANTE B1 B2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> } </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCCF20C"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-  </si>
-  <si>
-    <t>(808 - 809)</t>
-  </si>
-  <si>
-    <t>(810 - 811)</t>
-  </si>
-  <si>
-    <t>For id</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">for </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">@ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFA401"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> OR </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFA401"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>to</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> OR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> :</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> EST A3 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">End </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-  </si>
-  <si>
-    <t>(812 - 816)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCCF20C"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CONSTANTE B2</t>
-    </r>
-  </si>
-  <si>
-    <t>(817 - 819)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> id = </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">CONSTANTE </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">J0 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">id </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">J1 </t>
-    </r>
-  </si>
-  <si>
-    <t>Verif. Asignación</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> TERMINOPASCAL </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF3E529"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> E0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>+</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> TERMINOPASCAL </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF3E529"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> E0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ELEVACION </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF3E529"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> C0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">ELEVACION  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF3E529"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> C0</t>
-    </r>
-  </si>
-  <si>
-    <t>Verif. Opercación</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>S1</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>//</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">ELEVACION </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF3E529"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> C0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>%</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ELEVACION </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF3E529"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> C0</t>
-    </r>
-  </si>
-  <si>
-    <t>(820-821)</t>
-  </si>
-  <si>
-    <t>ERRORES DE SEMANTICA</t>
-  </si>
-  <si>
-    <t>Incompatibilidad de tipos …</t>
-  </si>
-  <si>
-    <t>Incompatibilidad de asignacion ...</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Decimal</t>
-    </r>
-  </si>
-  <si>
-    <t>Negativo</t>
-  </si>
-  <si>
-    <t>851-852</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> SIMPLEEXP-PAS </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF3E529"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> H0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">&gt;&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">SIMPLEEXP-PAS </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF3E529"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> H0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">OR </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFA50021"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFA50021"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ASIGN J3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">** </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">FACTOR </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF3E529"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> D0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">&amp; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">OPBIT </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF3E529"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> M0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>^</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ANDLOG </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF3E529"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> O0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">| </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">XORLOG </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF3E529"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> P0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&amp;&amp;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> NOT </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF3E529"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Q0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>##</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> NOT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF3E529"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> @</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Q0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>INNOT</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ORLOG</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF3E529"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> @</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> L0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>IN</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ORLOG </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF3E529"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> L0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ISNOT</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ORLOG </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF3E529"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> L0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>IS</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ORLOG</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF3E529"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> @</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> L0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ORLOG </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF3E529"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> L0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">&gt;= </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ORLOG</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF3E529"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>L0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">!= </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">ORLOG </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFF3E529"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> L0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">== </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">ORLOG </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF3E529"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> L0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;=</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ORLOG </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF3E529"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">@ </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>L0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ORLOG </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF3E529"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> L0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>!</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> EXP-PAS </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF3E529"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> F0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>||</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> AND </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF3E529"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> G0</t>
-    </r>
+    <t>IF (booleano)</t>
+  </si>
+  <si>
+    <t>ERRORES DE SEMANTICA 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6563,6 +6591,22 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFF3E529"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -6828,7 +6872,7 @@
     <xf numFmtId="0" fontId="20" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6935,9 +6979,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="5"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6958,6 +6999,19 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -7415,8 +7469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE3FA8B9-A47E-429A-BD32-FD36D0235D3B}">
   <dimension ref="B1:DI168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B35" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" topLeftCell="B81" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G81" sqref="G81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7441,40 +7495,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="64"/>
-      <c r="J1" s="61" t="s">
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="63"/>
+      <c r="J1" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61" t="s">
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
       <c r="U1" s="5"/>
       <c r="V1" s="5"/>
     </row>
     <row r="2" spans="2:113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="65"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="67"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="61"/>
-      <c r="Q2" s="60" t="s">
-        <v>312</v>
-      </c>
-      <c r="R2" s="60"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="66"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="Q2" s="71" t="s">
+        <v>311</v>
+      </c>
+      <c r="R2" s="71"/>
       <c r="S2" s="18"/>
       <c r="T2" s="18"/>
       <c r="U2" s="18"/>
@@ -7582,16 +7636,16 @@
         <v>1</v>
       </c>
       <c r="E3" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F3" s="55" t="s">
+        <v>347</v>
+      </c>
+      <c r="G3" s="44" t="s">
         <v>309</v>
       </c>
-      <c r="F3" s="55" t="s">
-        <v>348</v>
-      </c>
-      <c r="G3" s="44" t="s">
-        <v>310</v>
-      </c>
       <c r="H3" s="45" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I3" t="s">
         <v>9</v>
@@ -7614,10 +7668,10 @@
       <c r="O3" s="35" t="s">
         <v>250</v>
       </c>
-      <c r="Q3" s="18">
+      <c r="Q3" s="68">
         <v>600</v>
       </c>
-      <c r="R3" s="37" t="s">
+      <c r="R3" s="69" t="s">
         <v>267</v>
       </c>
       <c r="S3" s="37"/>
@@ -7633,16 +7687,16 @@
         <v>1</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F4" s="55" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G4" s="48" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="J4" s="9" t="s">
         <v>130</v>
@@ -7662,10 +7716,10 @@
       <c r="O4" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="Q4" s="18">
+      <c r="Q4" s="68">
         <v>601</v>
       </c>
-      <c r="R4" s="37" t="s">
+      <c r="R4" s="69" t="s">
         <v>268</v>
       </c>
       <c r="S4" s="37"/>
@@ -7681,13 +7735,13 @@
         <v>1</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F5" s="55" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G5" s="46" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H5" s="45">
         <v>804</v>
@@ -7710,10 +7764,10 @@
       <c r="O5" s="16" t="s">
         <v>252</v>
       </c>
-      <c r="Q5" s="18">
+      <c r="Q5" s="68">
         <v>602</v>
       </c>
-      <c r="R5" s="37" t="s">
+      <c r="R5" s="69" t="s">
         <v>269</v>
       </c>
       <c r="S5" s="37"/>
@@ -7729,13 +7783,13 @@
         <v>1</v>
       </c>
       <c r="E6" s="49" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F6" s="55" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G6" s="47" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H6" s="45">
         <v>805</v>
@@ -7758,10 +7812,10 @@
       <c r="O6" s="16" t="s">
         <v>252</v>
       </c>
-      <c r="Q6" s="18">
+      <c r="Q6" s="68">
         <v>603</v>
       </c>
-      <c r="R6" s="37" t="s">
+      <c r="R6" s="69" t="s">
         <v>270</v>
       </c>
       <c r="S6" s="37"/>
@@ -7777,16 +7831,16 @@
         <v>1</v>
       </c>
       <c r="E7" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="F7" s="55" t="s">
+        <v>347</v>
+      </c>
+      <c r="G7" s="43" t="s">
+        <v>319</v>
+      </c>
+      <c r="H7" s="45" t="s">
         <v>322</v>
-      </c>
-      <c r="F7" s="55" t="s">
-        <v>348</v>
-      </c>
-      <c r="G7" s="43" t="s">
-        <v>320</v>
-      </c>
-      <c r="H7" s="45" t="s">
-        <v>323</v>
       </c>
       <c r="J7" s="9" t="s">
         <v>133</v>
@@ -7806,10 +7860,10 @@
       <c r="O7" s="16" t="s">
         <v>255</v>
       </c>
-      <c r="Q7" s="18">
+      <c r="Q7" s="68">
         <v>604</v>
       </c>
-      <c r="R7" s="37" t="s">
+      <c r="R7" s="69" t="s">
         <v>271</v>
       </c>
       <c r="S7" s="37"/>
@@ -7835,7 +7889,7 @@
         <v>10</v>
       </c>
       <c r="L8" s="16" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="M8" s="9" t="s">
         <v>206</v>
@@ -7846,10 +7900,10 @@
       <c r="O8" s="35" t="s">
         <v>300</v>
       </c>
-      <c r="Q8" s="18">
+      <c r="Q8" s="68">
         <v>605</v>
       </c>
-      <c r="R8" s="37" t="s">
+      <c r="R8" s="69" t="s">
         <v>291</v>
       </c>
       <c r="S8" s="37"/>
@@ -7875,7 +7929,7 @@
         <v>10</v>
       </c>
       <c r="L9" s="16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="M9" s="9" t="s">
         <v>207</v>
@@ -7886,10 +7940,10 @@
       <c r="O9" s="35" t="s">
         <v>300</v>
       </c>
-      <c r="Q9" s="18">
+      <c r="Q9" s="68">
         <v>606</v>
       </c>
-      <c r="R9" s="37" t="s">
+      <c r="R9" s="69" t="s">
         <v>273</v>
       </c>
       <c r="S9" s="37"/>
@@ -7925,10 +7979,10 @@
       <c r="O10" s="35" t="s">
         <v>300</v>
       </c>
-      <c r="Q10" s="18">
+      <c r="Q10" s="68">
         <v>607</v>
       </c>
-      <c r="R10" s="37" t="s">
+      <c r="R10" s="69" t="s">
         <v>298</v>
       </c>
     </row>
@@ -7963,10 +8017,10 @@
       <c r="O11" s="16" t="s">
         <v>252</v>
       </c>
-      <c r="Q11" s="18">
+      <c r="Q11" s="68">
         <v>608</v>
       </c>
-      <c r="R11" s="37" t="s">
+      <c r="R11" s="69" t="s">
         <v>297</v>
       </c>
       <c r="S11" s="37"/>
@@ -8002,10 +8056,10 @@
       <c r="O12" s="16" t="s">
         <v>262</v>
       </c>
-      <c r="Q12" s="18">
+      <c r="Q12" s="68">
         <v>609</v>
       </c>
-      <c r="R12" s="37" t="s">
+      <c r="R12" s="69" t="s">
         <v>289</v>
       </c>
     </row>
@@ -8040,10 +8094,10 @@
       <c r="O13" s="16" t="s">
         <v>262</v>
       </c>
-      <c r="Q13" s="18">
+      <c r="Q13" s="68">
         <v>610</v>
       </c>
-      <c r="R13" s="37" t="s">
+      <c r="R13" s="69" t="s">
         <v>274</v>
       </c>
     </row>
@@ -8067,7 +8121,7 @@
         <v>10</v>
       </c>
       <c r="L14" s="16" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M14" s="9" t="s">
         <v>212</v>
@@ -8078,10 +8132,10 @@
       <c r="O14" s="35" t="s">
         <v>300</v>
       </c>
-      <c r="Q14" s="18">
+      <c r="Q14" s="68">
         <v>611</v>
       </c>
-      <c r="R14" s="37" t="s">
+      <c r="R14" s="69" t="s">
         <v>276</v>
       </c>
     </row>
@@ -8116,10 +8170,10 @@
       <c r="O15" s="16" t="s">
         <v>300</v>
       </c>
-      <c r="Q15" s="18">
+      <c r="Q15" s="68">
         <v>612</v>
       </c>
-      <c r="R15" s="37" t="s">
+      <c r="R15" s="69" t="s">
         <v>275</v>
       </c>
     </row>
@@ -8143,7 +8197,7 @@
         <v>10</v>
       </c>
       <c r="L16" s="16" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M16" s="9" t="s">
         <v>214</v>
@@ -8154,10 +8208,10 @@
       <c r="O16" s="35" t="s">
         <v>300</v>
       </c>
-      <c r="Q16" s="18">
+      <c r="Q16" s="68">
         <v>613</v>
       </c>
-      <c r="R16" s="37" t="s">
+      <c r="R16" s="69" t="s">
         <v>272</v>
       </c>
       <c r="S16" s="37"/>
@@ -8193,10 +8247,10 @@
       <c r="O17" s="16" t="s">
         <v>300</v>
       </c>
-      <c r="Q17" s="18">
+      <c r="Q17" s="68">
         <v>614</v>
       </c>
-      <c r="R17" s="37" t="s">
+      <c r="R17" s="69" t="s">
         <v>283</v>
       </c>
     </row>
@@ -8220,7 +8274,7 @@
         <v>10</v>
       </c>
       <c r="L18" s="16" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M18" s="9" t="s">
         <v>216</v>
@@ -8231,10 +8285,10 @@
       <c r="O18" s="35" t="s">
         <v>300</v>
       </c>
-      <c r="Q18" s="18">
+      <c r="Q18" s="68">
         <v>615</v>
       </c>
-      <c r="R18" s="37" t="s">
+      <c r="R18" s="69" t="s">
         <v>277</v>
       </c>
       <c r="S18" s="37"/>
@@ -8270,10 +8324,10 @@
       <c r="O19" s="16" t="s">
         <v>300</v>
       </c>
-      <c r="Q19" s="18">
+      <c r="Q19" s="68">
         <v>616</v>
       </c>
-      <c r="R19" s="37" t="s">
+      <c r="R19" s="69" t="s">
         <v>279</v>
       </c>
       <c r="S19" s="37"/>
@@ -8298,7 +8352,7 @@
         <v>10</v>
       </c>
       <c r="L20" s="16" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M20" s="9" t="s">
         <v>218</v>
@@ -8309,10 +8363,10 @@
       <c r="O20" s="35" t="s">
         <v>300</v>
       </c>
-      <c r="Q20" s="18">
+      <c r="Q20" s="68">
         <v>617</v>
       </c>
-      <c r="R20" s="37" t="s">
+      <c r="R20" s="69" t="s">
         <v>288</v>
       </c>
       <c r="S20" s="37"/>
@@ -8348,10 +8402,10 @@
       <c r="O21" s="16" t="s">
         <v>300</v>
       </c>
-      <c r="Q21" s="18">
+      <c r="Q21" s="68">
         <v>618</v>
       </c>
-      <c r="R21" s="37" t="s">
+      <c r="R21" s="69" t="s">
         <v>299</v>
       </c>
       <c r="S21" s="37"/>
@@ -8367,16 +8421,16 @@
         <v>1</v>
       </c>
       <c r="E22" s="31" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F22" s="55" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G22" s="50" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H22" s="45" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="J22" s="9" t="s">
         <v>147</v>
@@ -8385,7 +8439,7 @@
         <v>10</v>
       </c>
       <c r="L22" s="16" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M22" s="9" t="s">
         <v>220</v>
@@ -8396,10 +8450,10 @@
       <c r="O22" s="35" t="s">
         <v>300</v>
       </c>
-      <c r="Q22" s="18">
+      <c r="Q22" s="68">
         <v>619</v>
       </c>
-      <c r="R22" s="37" t="s">
+      <c r="R22" s="69" t="s">
         <v>285</v>
       </c>
       <c r="S22" s="37"/>
@@ -8415,16 +8469,16 @@
         <v>1</v>
       </c>
       <c r="E23" s="31" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F23" s="55" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G23" s="51" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H23" s="45" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J23" s="9" t="s">
         <v>148</v>
@@ -8444,10 +8498,10 @@
       <c r="O23" s="16" t="s">
         <v>300</v>
       </c>
-      <c r="Q23" s="18">
+      <c r="Q23" s="68">
         <v>620</v>
       </c>
-      <c r="R23" s="37" t="s">
+      <c r="R23" s="69" t="s">
         <v>292</v>
       </c>
       <c r="S23" s="37"/>
@@ -8463,16 +8517,16 @@
         <v>1</v>
       </c>
       <c r="E24" s="28" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F24" s="55" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G24" s="52" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H24" s="45" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J24" s="9" t="s">
         <v>149</v>
@@ -8481,7 +8535,7 @@
         <v>10</v>
       </c>
       <c r="L24" s="16" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M24" s="9" t="s">
         <v>222</v>
@@ -8492,10 +8546,10 @@
       <c r="O24" s="35" t="s">
         <v>300</v>
       </c>
-      <c r="Q24" s="18">
+      <c r="Q24" s="68">
         <v>621</v>
       </c>
-      <c r="R24" s="37" t="s">
+      <c r="R24" s="69" t="s">
         <v>293</v>
       </c>
       <c r="S24" s="37"/>
@@ -8511,16 +8565,16 @@
         <v>1</v>
       </c>
       <c r="E25" s="28" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F25" s="55" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G25" s="53" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H25" s="45" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J25" s="9" t="s">
         <v>150</v>
@@ -8540,10 +8594,10 @@
       <c r="O25" s="16" t="s">
         <v>300</v>
       </c>
-      <c r="Q25" s="18">
+      <c r="Q25" s="68">
         <v>622</v>
       </c>
-      <c r="R25" s="37" t="s">
+      <c r="R25" s="69" t="s">
         <v>294</v>
       </c>
       <c r="S25" s="37"/>
@@ -8579,10 +8633,10 @@
       <c r="O26" s="36" t="s">
         <v>263</v>
       </c>
-      <c r="Q26" s="18">
+      <c r="Q26" s="68">
         <v>623</v>
       </c>
-      <c r="R26" s="37" t="s">
+      <c r="R26" s="69" t="s">
         <v>295</v>
       </c>
       <c r="S26" s="37"/>
@@ -8598,7 +8652,7 @@
         <v>1</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="1"/>
@@ -8610,7 +8664,7 @@
         <v>10</v>
       </c>
       <c r="L27" s="16" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M27" s="9" t="s">
         <v>225</v>
@@ -8621,10 +8675,10 @@
       <c r="O27" s="35" t="s">
         <v>257</v>
       </c>
-      <c r="Q27" s="18">
+      <c r="Q27" s="68">
         <v>624</v>
       </c>
-      <c r="R27" s="37" t="s">
+      <c r="R27" s="69" t="s">
         <v>290</v>
       </c>
       <c r="S27" s="37"/>
@@ -8663,10 +8717,10 @@
       <c r="O28" s="16" t="s">
         <v>258</v>
       </c>
-      <c r="Q28" s="18">
+      <c r="Q28" s="68">
         <v>625</v>
       </c>
-      <c r="R28" s="37" t="s">
+      <c r="R28" s="69" t="s">
         <v>296</v>
       </c>
       <c r="S28" s="37"/>
@@ -8685,10 +8739,10 @@
         <v>27</v>
       </c>
       <c r="F29" s="55" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G29" s="54" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H29" s="58">
         <v>850</v>
@@ -8712,10 +8766,10 @@
       <c r="O29" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="Q29" s="18">
+      <c r="Q29" s="68">
         <v>626</v>
       </c>
-      <c r="R29" s="37" t="s">
+      <c r="R29" s="69" t="s">
         <v>284</v>
       </c>
       <c r="S29" s="37"/>
@@ -8731,7 +8785,7 @@
         <v>1</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="1"/>
@@ -8751,12 +8805,12 @@
         <v>10</v>
       </c>
       <c r="O30" s="35" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q30" s="18">
+        <v>304</v>
+      </c>
+      <c r="Q30" s="68">
         <v>627</v>
       </c>
-      <c r="R30" s="37" t="s">
+      <c r="R30" s="69" t="s">
         <v>280</v>
       </c>
       <c r="S30" s="37"/>
@@ -8772,7 +8826,7 @@
         <v>1</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="1"/>
@@ -8783,7 +8837,7 @@
         <v>10</v>
       </c>
       <c r="L31" s="16" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M31" s="9" t="s">
         <v>229</v>
@@ -8794,10 +8848,10 @@
       <c r="O31" s="35" t="s">
         <v>300</v>
       </c>
-      <c r="Q31" s="18">
+      <c r="Q31" s="68">
         <v>628</v>
       </c>
-      <c r="R31" s="37" t="s">
+      <c r="R31" s="69" t="s">
         <v>282</v>
       </c>
       <c r="S31" s="37"/>
@@ -8813,7 +8867,7 @@
         <v>1</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J32" s="9" t="s">
         <v>157</v>
@@ -8833,10 +8887,10 @@
       <c r="O32" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="Q32" s="18">
+      <c r="Q32" s="68">
         <v>629</v>
       </c>
-      <c r="R32" s="37" t="s">
+      <c r="R32" s="69" t="s">
         <v>281</v>
       </c>
       <c r="S32" s="37"/>
@@ -8852,7 +8906,7 @@
         <v>1</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="J33" s="9" t="s">
         <v>158</v>
@@ -8872,10 +8926,10 @@
       <c r="O33" s="16" t="s">
         <v>300</v>
       </c>
-      <c r="Q33" s="18">
+      <c r="Q33" s="68">
         <v>630</v>
       </c>
-      <c r="R33" s="37" t="s">
+      <c r="R33" s="69" t="s">
         <v>278</v>
       </c>
       <c r="S33" s="37"/>
@@ -8900,7 +8954,7 @@
         <v>10</v>
       </c>
       <c r="L34" s="36" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M34" s="9" t="s">
         <v>232</v>
@@ -8911,10 +8965,10 @@
       <c r="O34" s="42" t="s">
         <v>300</v>
       </c>
-      <c r="Q34" s="18">
+      <c r="Q34" s="68">
         <v>631</v>
       </c>
-      <c r="R34" s="37" t="s">
+      <c r="R34" s="69" t="s">
         <v>286</v>
       </c>
       <c r="S34" s="37"/>
@@ -8930,7 +8984,7 @@
         <v>1</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="J35" s="38" t="s">
         <v>160</v>
@@ -8939,7 +8993,7 @@
         <v>10</v>
       </c>
       <c r="L35" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="M35" s="9" t="s">
         <v>233</v>
@@ -8950,10 +9004,10 @@
       <c r="O35" s="35" t="s">
         <v>300</v>
       </c>
-      <c r="Q35" s="18">
+      <c r="Q35" s="68">
         <v>632</v>
       </c>
-      <c r="R35" s="37" t="s">
+      <c r="R35" s="69" t="s">
         <v>287</v>
       </c>
       <c r="S35" s="37"/>
@@ -9003,7 +9057,7 @@
         <v>1</v>
       </c>
       <c r="E37" s="29" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J37" s="9" t="s">
         <v>192</v>
@@ -9012,7 +9066,7 @@
         <v>10</v>
       </c>
       <c r="L37" s="35" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="M37" s="9" t="s">
         <v>235</v>
@@ -9038,7 +9092,7 @@
         <v>1</v>
       </c>
       <c r="E38" s="29" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J38" s="9" t="s">
         <v>162</v>
@@ -9058,10 +9112,10 @@
       <c r="O38" s="16" t="s">
         <v>261</v>
       </c>
-      <c r="Q38" s="60" t="s">
-        <v>311</v>
-      </c>
-      <c r="R38" s="60"/>
+      <c r="Q38" s="71" t="s">
+        <v>310</v>
+      </c>
+      <c r="R38" s="71"/>
       <c r="S38" s="37"/>
     </row>
     <row r="39" spans="2:19" x14ac:dyDescent="0.25">
@@ -9095,11 +9149,11 @@
       <c r="O39" s="35" t="s">
         <v>261</v>
       </c>
-      <c r="Q39" s="18">
+      <c r="Q39" s="68">
         <v>700</v>
       </c>
-      <c r="R39" s="37" t="s">
-        <v>313</v>
+      <c r="R39" s="69" t="s">
+        <v>312</v>
       </c>
       <c r="S39" s="37"/>
     </row>
@@ -9114,7 +9168,7 @@
         <v>1</v>
       </c>
       <c r="E40" s="30" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="J40" s="9" t="s">
         <v>164</v>
@@ -9123,7 +9177,7 @@
         <v>10</v>
       </c>
       <c r="L40" s="16" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M40" s="9" t="s">
         <v>238</v>
@@ -9134,11 +9188,11 @@
       <c r="O40" s="35" t="s">
         <v>300</v>
       </c>
-      <c r="Q40" s="45">
+      <c r="Q40" s="70">
         <v>701</v>
       </c>
-      <c r="R40" s="37" t="s">
-        <v>314</v>
+      <c r="R40" s="69" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="41" spans="2:19" x14ac:dyDescent="0.25">
@@ -9184,7 +9238,7 @@
         <v>1</v>
       </c>
       <c r="E42" s="30" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="J42" s="9" t="s">
         <v>166</v>
@@ -9193,7 +9247,7 @@
         <v>10</v>
       </c>
       <c r="L42" s="16" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M42" s="9" t="s">
         <v>240</v>
@@ -9236,10 +9290,10 @@
       <c r="O43" s="16" t="s">
         <v>300</v>
       </c>
-      <c r="Q43" s="60" t="s">
-        <v>353</v>
-      </c>
-      <c r="R43" s="60"/>
+      <c r="Q43" s="71" t="s">
+        <v>382</v>
+      </c>
+      <c r="R43" s="71"/>
     </row>
     <row r="44" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B44" s="34">
@@ -9252,7 +9306,7 @@
         <v>1</v>
       </c>
       <c r="E44" s="25" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="J44" s="9" t="s">
         <v>168</v>
@@ -9261,7 +9315,7 @@
         <v>10</v>
       </c>
       <c r="L44" s="16" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M44" s="9" t="s">
         <v>242</v>
@@ -9272,11 +9326,11 @@
       <c r="O44" s="35" t="s">
         <v>300</v>
       </c>
-      <c r="Q44" s="45">
+      <c r="Q44" s="70">
         <v>750</v>
       </c>
-      <c r="R44" t="s">
-        <v>354</v>
+      <c r="R44" s="16" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="45" spans="2:19" x14ac:dyDescent="0.25">
@@ -9290,7 +9344,7 @@
         <v>1</v>
       </c>
       <c r="E45" s="25" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="J45" s="9" t="s">
         <v>169</v>
@@ -9310,11 +9364,11 @@
       <c r="O45" s="16" t="s">
         <v>300</v>
       </c>
-      <c r="Q45" s="45">
+      <c r="Q45" s="70">
         <v>751</v>
       </c>
-      <c r="R45" t="s">
-        <v>355</v>
+      <c r="R45" s="16" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="46" spans="2:19" x14ac:dyDescent="0.25">
@@ -9337,7 +9391,7 @@
         <v>10</v>
       </c>
       <c r="L46" s="16" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M46" s="9" t="s">
         <v>244</v>
@@ -9401,7 +9455,7 @@
         <v>10</v>
       </c>
       <c r="L48" s="16" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M48" s="9" t="s">
         <v>246</v>
@@ -9647,7 +9701,7 @@
         <v>1</v>
       </c>
       <c r="E61" s="25" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="62" spans="2:18" x14ac:dyDescent="0.25">
@@ -9703,7 +9757,7 @@
         <v>1</v>
       </c>
       <c r="E65" s="31" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.25">
@@ -9793,16 +9847,16 @@
         <v>1</v>
       </c>
       <c r="E71" s="28" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F71" s="55" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G71" s="57" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H71" s="45" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.25">
@@ -9818,6 +9872,7 @@
       <c r="E72" s="25" t="s">
         <v>96</v>
       </c>
+      <c r="J72" s="67"/>
     </row>
     <row r="73" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B73" s="34">
@@ -9886,7 +9941,16 @@
         <v>1</v>
       </c>
       <c r="E77" s="25" t="s">
-        <v>302</v>
+        <v>380</v>
+      </c>
+      <c r="F77" s="55" t="s">
+        <v>379</v>
+      </c>
+      <c r="G77" s="47" t="s">
+        <v>381</v>
+      </c>
+      <c r="H77" s="45">
+        <v>1010</v>
       </c>
     </row>
     <row r="78" spans="2:12" x14ac:dyDescent="0.25">
@@ -9900,16 +9964,25 @@
         <v>1</v>
       </c>
       <c r="E78" s="25" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F78" s="55" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G78" s="56" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H78" s="45" t="s">
-        <v>352</v>
+        <v>351</v>
+      </c>
+      <c r="I78" s="55" t="s">
+        <v>347</v>
+      </c>
+      <c r="J78" s="44" t="s">
+        <v>309</v>
+      </c>
+      <c r="K78" s="45" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.25">
@@ -9925,6 +9998,15 @@
       <c r="E79" s="27" t="s">
         <v>301</v>
       </c>
+      <c r="I79" s="55" t="s">
+        <v>347</v>
+      </c>
+      <c r="J79" s="48" t="s">
+        <v>314</v>
+      </c>
+      <c r="K79" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="80" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B80" s="34">
@@ -10049,7 +10131,7 @@
         <v>1</v>
       </c>
       <c r="E88" s="25" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.25">
@@ -10063,7 +10145,7 @@
         <v>1</v>
       </c>
       <c r="E89" s="25" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.25">
@@ -10077,7 +10159,7 @@
         <v>1</v>
       </c>
       <c r="E90" s="31" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.25">
@@ -10091,7 +10173,7 @@
         <v>1</v>
       </c>
       <c r="E91" s="25" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.25">
@@ -10105,7 +10187,7 @@
         <v>1</v>
       </c>
       <c r="E92" s="25" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.25">
@@ -10119,7 +10201,7 @@
         <v>1</v>
       </c>
       <c r="E93" s="25" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.25">
@@ -10133,7 +10215,7 @@
         <v>1</v>
       </c>
       <c r="E94" s="25" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.25">
@@ -10147,7 +10229,7 @@
         <v>1</v>
       </c>
       <c r="E95" s="25" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.25">
@@ -10161,7 +10243,7 @@
         <v>1</v>
       </c>
       <c r="E96" s="25" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.25">
@@ -10175,7 +10257,7 @@
         <v>1</v>
       </c>
       <c r="E97" s="25" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.25">
@@ -10203,7 +10285,7 @@
         <v>1</v>
       </c>
       <c r="E99" s="25" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.25">
@@ -10231,7 +10313,7 @@
         <v>1</v>
       </c>
       <c r="E101" s="25" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.25">
@@ -10259,7 +10341,7 @@
         <v>1</v>
       </c>
       <c r="E103" s="25" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.25">
@@ -10287,7 +10369,7 @@
         <v>1</v>
       </c>
       <c r="E105" s="25" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.25">
@@ -10301,7 +10383,7 @@
         <v>1</v>
       </c>
       <c r="E106" s="25" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.25">
@@ -10595,13 +10677,13 @@
         <v>1</v>
       </c>
       <c r="E127" s="28" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F127" s="55" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G127" s="59" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="H127" s="45">
         <v>853</v>

--- a/Producciones.xlsx
+++ b/Producciones.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Usuario\Documents\NetBeansProjects\Compilador\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7628EB90-96DB-4402-8239-787B0E3A0579}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A8A67A-F16C-45C5-BC6D-34A1C5C0B6A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A2E2150B-4EBC-493D-997F-5AEA11C60ED9}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A2E2150B-4EBC-493D-997F-5AEA11C60ED9}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="400">
   <si>
     <t>PRODUCIONES</t>
   </si>
@@ -195,21 +195,6 @@
     <t>I1</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">OR I1 I2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
     <t>I2</t>
   </si>
   <si>
@@ -402,9 +387,6 @@
     </r>
   </si>
   <si>
-    <t>ARR J2</t>
-  </si>
-  <si>
     <t>ASIGN J3</t>
   </si>
   <si>
@@ -4861,6 +4843,1718 @@
     </r>
   </si>
   <si>
+    <t>Verif. Asignación</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> TERMINOPASCAL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> E0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> TERMINOPASCAL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> E0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ELEVACION </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> C0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ELEVACION  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> C0</t>
+    </r>
+  </si>
+  <si>
+    <t>Verif. Opercación</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>//</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ELEVACION </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> C0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>%</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ELEVACION </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> C0</t>
+    </r>
+  </si>
+  <si>
+    <t>(820-821)</t>
+  </si>
+  <si>
+    <t>Incompatibilidad de tipos …</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Decimal</t>
+    </r>
+  </si>
+  <si>
+    <t>Negativo</t>
+  </si>
+  <si>
+    <t>851-852</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> SIMPLEEXP-PAS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> H0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&gt;&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">SIMPLEEXP-PAS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> H0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA50021"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ASIGN J3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">** </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">FACTOR </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> D0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&amp; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">OPBIT </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> M0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>^</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ANDLOG </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> O0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">| </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">XORLOG </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> P0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&amp;&amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> NOT </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Q0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>##</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> NOT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> @</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Q0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>INNOT</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ORLOG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> @</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> L0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IN</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ORLOG </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> L0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ISNOT</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ORLOG </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> L0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IS</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ORLOG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> @</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> L0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ORLOG </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> L0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&gt;= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ORLOG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>L0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">!= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ORLOG </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> L0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">== </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ORLOG </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> L0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ORLOG </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">@ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>L0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ORLOG </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> L0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>!</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> EXP-PAS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> F0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>||</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> AND </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> G0</t>
+    </r>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> OR </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> EST</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A3 K0</t>
+    </r>
+  </si>
+  <si>
+    <t>IF (booleano)</t>
+  </si>
+  <si>
+    <t>ERRORES DE SEMANTICA 1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>elif</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> OR </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EST</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A3 K0</t>
+    </r>
+  </si>
+  <si>
+    <t>ELIF (booleano)</t>
+  </si>
+  <si>
+    <t>WHILE (booleano)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">while </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">OR </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF26AD5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EST</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">A3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>wend</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">OR  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA50021"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">@ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0099CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+  </si>
+  <si>
+    <t>La EXP tiene que ser Booleana</t>
+  </si>
+  <si>
+    <t>ID debe ser mismo tipo que EXP</t>
+  </si>
+  <si>
+    <t>La cant. de dimensiones utilizadas en una lista de arreglo debe ser igual a la declarada</t>
+  </si>
+  <si>
+    <t>1010 - 1012</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1020 - 1021</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I0</t>
+    </r>
+  </si>
+  <si>
+    <t>(822 - 824)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I0</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">OR I1 I2 </t>
+  </si>
+  <si>
+    <t>Lista-Arreglo</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ARR </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">@ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA50021"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> J2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>860 - 861</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">J0 </t>
     </r>
@@ -4876,6 +6570,26 @@
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
         <b/>
         <sz val="11"/>
         <color theme="1"/>
@@ -4887,1653 +6601,28 @@
     </r>
   </si>
   <si>
-    <t>Verif. Asignación</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> TERMINOPASCAL </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF3E529"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> E0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>+</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> TERMINOPASCAL </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF3E529"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> E0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ELEVACION </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF3E529"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> C0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">ELEVACION  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF3E529"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> C0</t>
-    </r>
-  </si>
-  <si>
-    <t>Verif. Opercación</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>S1</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>//</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">ELEVACION </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF3E529"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> C0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>%</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ELEVACION </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF3E529"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> C0</t>
-    </r>
-  </si>
-  <si>
-    <t>(820-821)</t>
-  </si>
-  <si>
-    <t>Incompatibilidad de tipos …</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Decimal</t>
-    </r>
-  </si>
-  <si>
-    <t>Negativo</t>
-  </si>
-  <si>
-    <t>851-852</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> SIMPLEEXP-PAS </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF3E529"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> H0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">&gt;&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">SIMPLEEXP-PAS </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF3E529"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> H0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFA50021"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ASIGN J3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">** </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">FACTOR </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF3E529"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> D0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">&amp; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">OPBIT </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF3E529"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> M0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>^</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ANDLOG </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF3E529"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> O0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">| </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">XORLOG </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF3E529"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> P0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&amp;&amp;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> NOT </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF3E529"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Q0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>##</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> NOT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF3E529"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> @</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Q0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>INNOT</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ORLOG</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF3E529"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> @</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> L0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>IN</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ORLOG </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF3E529"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> L0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ISNOT</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ORLOG </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF3E529"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> L0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>IS</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ORLOG</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF3E529"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> @</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> L0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ORLOG </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF3E529"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> L0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">&gt;= </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ORLOG</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF3E529"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>L0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">!= </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">ORLOG </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFF3E529"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> L0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">== </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">ORLOG </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF3E529"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> L0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;=</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ORLOG </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF3E529"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">@ </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>L0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ORLOG </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF3E529"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> L0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>!</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> EXP-PAS </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF3E529"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> F0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>||</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> AND </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF3E529"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> G0</t>
-    </r>
-  </si>
-  <si>
-    <t>S2</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>if</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> OR </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> EST</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A3 K0</t>
-    </r>
-  </si>
-  <si>
-    <t>IF (booleano)</t>
-  </si>
-  <si>
-    <t>ERRORES DE SEMANTICA 1</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>elif</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> OR </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8" tint="0.39997558519241921"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>EST</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A3 K0</t>
-    </r>
-  </si>
-  <si>
-    <t>ELIF (booleano)</t>
-  </si>
-  <si>
-    <t>WHILE (booleano)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">while </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">OR </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF26AD5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>EST</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">A3 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>wend</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">OR  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFA50021"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">@ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0099CC"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-  </si>
-  <si>
-    <t>La EXP tiene que ser Booleana</t>
-  </si>
-  <si>
-    <t>ID debe ser mismo tipo que EXP</t>
-  </si>
-  <si>
-    <t>La cant. de dimensiones utilizadas en una lista de arreglo debe ser igual a la declarada</t>
-  </si>
-  <si>
-    <t>1010 - 1012</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1020 - 1021</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> I0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> I0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>OR I1</t>
-    </r>
-  </si>
-  <si>
-    <t>(822 - 824)</t>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>La organizacion de los datos de inicializacion de una lista tipo arr deben tener un orden</t>
+  </si>
+  <si>
+    <t>Fuera de limite</t>
+  </si>
+  <si>
+    <t>Los diccionarios no tienen posiciones negativas</t>
+  </si>
+  <si>
+    <t>Diferente valor de llave</t>
+  </si>
+  <si>
+    <t>Las tuplas no tienen posiciones negativas</t>
+  </si>
+  <si>
+    <t>Fuera de dimension</t>
+  </si>
+  <si>
+    <t>La EXP debe ser entera</t>
   </si>
 </sst>
 </file>
@@ -6825,7 +6914,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="22">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6945,6 +7034,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0099CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7111,7 +7206,7 @@
     <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7231,7 +7326,17 @@
     </xf>
     <xf numFmtId="0" fontId="37" fillId="20" borderId="0" xfId="7" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="33" fillId="21" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7255,17 +7360,11 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -7404,13 +7503,13 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFA50021"/>
       <color rgb="FF0099CC"/>
       <color rgb="FFF26AD5"/>
       <color rgb="FFFFCCFF"/>
       <color rgb="FFCC0000"/>
       <color rgb="FFF7A7E6"/>
       <color rgb="FFF3E529"/>
-      <color rgb="FFA50021"/>
       <color rgb="FFE0AAB9"/>
       <color rgb="FFFFA605"/>
       <color rgb="FFFFA401"/>
@@ -7726,8 +7825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE3FA8B9-A47E-429A-BD32-FD36D0235D3B}">
   <dimension ref="B1:DI168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView tabSelected="1" topLeftCell="P45" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="R56" sqref="R56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7752,40 +7851,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="71"/>
-      <c r="J1" s="68" t="s">
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="75"/>
+      <c r="J1" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68" t="s">
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
       <c r="U1" s="5"/>
       <c r="V1" s="5"/>
     </row>
     <row r="2" spans="2:113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="72"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="68"/>
-      <c r="O2" s="68"/>
-      <c r="Q2" s="67" t="s">
-        <v>306</v>
-      </c>
-      <c r="R2" s="67"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="78"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="72"/>
+      <c r="Q2" s="79" t="s">
+        <v>304</v>
+      </c>
+      <c r="R2" s="79"/>
       <c r="S2" s="18"/>
       <c r="T2" s="18"/>
       <c r="U2" s="18"/>
@@ -7893,43 +7992,43 @@
         <v>1</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F3" s="54" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G3" s="44" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H3" s="45" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="I3" t="s">
         <v>9</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K3" s="8" t="s">
         <v>10</v>
       </c>
       <c r="L3" s="16" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="N3" s="8" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="35" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="Q3" s="60">
         <v>600</v>
       </c>
       <c r="R3" s="61" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="S3" s="37"/>
     </row>
@@ -7944,40 +8043,40 @@
         <v>1</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F4" s="54" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G4" s="48" t="s">
+        <v>307</v>
+      </c>
+      <c r="H4" t="s">
         <v>309</v>
       </c>
-      <c r="H4" t="s">
-        <v>311</v>
-      </c>
       <c r="J4" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K4" s="10" t="s">
         <v>10</v>
       </c>
       <c r="L4" s="35" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="N4" s="10" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="16" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="Q4" s="60">
         <v>601</v>
       </c>
       <c r="R4" s="61" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="S4" s="37"/>
     </row>
@@ -7992,40 +8091,40 @@
         <v>1</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F5" s="54" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G5" s="46" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H5" s="45">
         <v>804</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K5" s="10" t="s">
         <v>10</v>
       </c>
       <c r="L5" s="35" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="N5" s="10" t="s">
         <v>10</v>
       </c>
       <c r="O5" s="16" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="Q5" s="60">
         <v>602</v>
       </c>
       <c r="R5" s="61" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="S5" s="37"/>
     </row>
@@ -8040,40 +8139,40 @@
         <v>1</v>
       </c>
       <c r="E6" s="49" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F6" s="54" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G6" s="47" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H6" s="45">
         <v>805</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K6" s="10" t="s">
         <v>10</v>
       </c>
       <c r="L6" s="35" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="N6" s="10" t="s">
         <v>10</v>
       </c>
       <c r="O6" s="16" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="Q6" s="60">
         <v>603</v>
       </c>
       <c r="R6" s="61" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="S6" s="37"/>
     </row>
@@ -8088,40 +8187,40 @@
         <v>1</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F7" s="54" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G7" s="43" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H7" s="45" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K7" s="10" t="s">
         <v>10</v>
       </c>
       <c r="L7" s="35" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="N7" s="10" t="s">
         <v>10</v>
       </c>
       <c r="O7" s="16" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="Q7" s="60">
         <v>604</v>
       </c>
       <c r="R7" s="61" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="S7" s="37"/>
     </row>
@@ -8136,32 +8235,32 @@
         <v>1</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="H8" s="45"/>
       <c r="J8" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K8" s="10" t="s">
         <v>10</v>
       </c>
       <c r="L8" s="16" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="N8" s="10" t="s">
         <v>10</v>
       </c>
       <c r="O8" s="35" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="Q8" s="60">
         <v>605</v>
       </c>
       <c r="R8" s="61" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="S8" s="37"/>
     </row>
@@ -8176,32 +8275,32 @@
         <v>1</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H9" s="45"/>
       <c r="J9" s="9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K9" s="10" t="s">
         <v>10</v>
       </c>
       <c r="L9" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="N9" s="10" t="s">
         <v>10</v>
       </c>
       <c r="O9" s="35" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="Q9" s="60">
         <v>606</v>
       </c>
       <c r="R9" s="61" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="S9" s="37"/>
     </row>
@@ -8216,31 +8315,31 @@
         <v>1</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K10" s="10" t="s">
         <v>10</v>
       </c>
       <c r="L10" s="16" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="N10" s="10" t="s">
         <v>10</v>
       </c>
       <c r="O10" s="35" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="Q10" s="60">
         <v>607</v>
       </c>
       <c r="R10" s="61" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="11" spans="2:113" x14ac:dyDescent="0.25">
@@ -8254,31 +8353,31 @@
         <v>1</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K11" s="10" t="s">
         <v>10</v>
       </c>
       <c r="L11" s="35" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="N11" s="10" t="s">
         <v>10</v>
       </c>
       <c r="O11" s="16" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="Q11" s="60">
         <v>608</v>
       </c>
       <c r="R11" s="61" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="S11" s="37"/>
     </row>
@@ -8296,28 +8395,28 @@
         <v>21</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K12" s="10" t="s">
         <v>10</v>
       </c>
       <c r="L12" s="35" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="N12" s="10" t="s">
         <v>10</v>
       </c>
       <c r="O12" s="16" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="Q12" s="60">
         <v>609</v>
       </c>
       <c r="R12" s="61" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="13" spans="2:113" x14ac:dyDescent="0.25">
@@ -8331,31 +8430,31 @@
         <v>1</v>
       </c>
       <c r="E13" s="27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K13" s="10" t="s">
         <v>10</v>
       </c>
       <c r="L13" s="35" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="N13" s="10" t="s">
         <v>10</v>
       </c>
       <c r="O13" s="16" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="Q13" s="60">
         <v>610</v>
       </c>
       <c r="R13" s="61" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="14" spans="2:113" x14ac:dyDescent="0.25">
@@ -8372,28 +8471,28 @@
         <v>12</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K14" s="10" t="s">
         <v>10</v>
       </c>
       <c r="L14" s="16" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="N14" s="10" t="s">
         <v>10</v>
       </c>
       <c r="O14" s="35" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="Q14" s="60">
         <v>611</v>
       </c>
       <c r="R14" s="61" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="15" spans="2:113" x14ac:dyDescent="0.25">
@@ -8410,28 +8509,28 @@
         <v>13</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K15" s="10" t="s">
         <v>10</v>
       </c>
       <c r="L15" s="35" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="M15" s="9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="N15" s="10" t="s">
         <v>10</v>
       </c>
       <c r="O15" s="16" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="Q15" s="60">
         <v>612</v>
       </c>
       <c r="R15" s="61" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="16" spans="2:113" x14ac:dyDescent="0.25">
@@ -8448,28 +8547,28 @@
         <v>14</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K16" s="10" t="s">
         <v>10</v>
       </c>
       <c r="L16" s="16" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="N16" s="10" t="s">
         <v>10</v>
       </c>
       <c r="O16" s="35" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="Q16" s="60">
         <v>613</v>
       </c>
       <c r="R16" s="61" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="S16" s="37"/>
     </row>
@@ -8487,28 +8586,28 @@
         <v>15</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K17" s="10" t="s">
         <v>10</v>
       </c>
       <c r="L17" s="35" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="M17" s="9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="N17" s="10" t="s">
         <v>10</v>
       </c>
       <c r="O17" s="16" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="Q17" s="60">
         <v>614</v>
       </c>
       <c r="R17" s="61" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.25">
@@ -8525,28 +8624,28 @@
         <v>16</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K18" s="10" t="s">
         <v>10</v>
       </c>
       <c r="L18" s="16" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="M18" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="N18" s="10" t="s">
         <v>10</v>
       </c>
       <c r="O18" s="35" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="Q18" s="60">
         <v>615</v>
       </c>
       <c r="R18" s="61" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="S18" s="37"/>
     </row>
@@ -8564,28 +8663,28 @@
         <v>17</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K19" s="10" t="s">
         <v>10</v>
       </c>
       <c r="L19" s="36" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M19" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="N19" s="10" t="s">
         <v>10</v>
       </c>
       <c r="O19" s="16" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="Q19" s="60">
         <v>616</v>
       </c>
       <c r="R19" s="61" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="S19" s="37"/>
     </row>
@@ -8603,28 +8702,28 @@
         <v>18</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K20" s="10" t="s">
         <v>10</v>
       </c>
       <c r="L20" s="16" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="M20" s="9" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="N20" s="10" t="s">
         <v>10</v>
       </c>
       <c r="O20" s="35" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="Q20" s="60">
         <v>617</v>
       </c>
       <c r="R20" s="61" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="S20" s="37"/>
     </row>
@@ -8642,28 +8741,28 @@
         <v>19</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K21" s="10" t="s">
         <v>10</v>
       </c>
       <c r="L21" s="35" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M21" s="9" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N21" s="10" t="s">
         <v>10</v>
       </c>
       <c r="O21" s="16" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="Q21" s="60">
         <v>618</v>
       </c>
       <c r="R21" s="61" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="S21" s="37"/>
     </row>
@@ -8678,40 +8777,40 @@
         <v>1</v>
       </c>
       <c r="E22" s="31" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F22" s="54" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G22" s="50" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H22" s="45" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K22" s="10" t="s">
         <v>10</v>
       </c>
       <c r="L22" s="16" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="M22" s="9" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="N22" s="10" t="s">
         <v>10</v>
       </c>
       <c r="O22" s="35" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="Q22" s="60">
         <v>619</v>
       </c>
       <c r="R22" s="61" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="S22" s="37"/>
     </row>
@@ -8726,40 +8825,40 @@
         <v>1</v>
       </c>
       <c r="E23" s="31" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F23" s="54" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G23" s="51" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H23" s="45" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K23" s="10" t="s">
         <v>10</v>
       </c>
       <c r="L23" s="35" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="M23" s="9" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="N23" s="10" t="s">
         <v>10</v>
       </c>
       <c r="O23" s="16" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="Q23" s="60">
         <v>620</v>
       </c>
       <c r="R23" s="61" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="S23" s="37"/>
     </row>
@@ -8774,40 +8873,40 @@
         <v>1</v>
       </c>
       <c r="E24" s="28" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F24" s="54" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G24" s="52" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H24" s="45" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K24" s="10" t="s">
         <v>10</v>
       </c>
       <c r="L24" s="16" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="M24" s="9" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="N24" s="10" t="s">
         <v>10</v>
       </c>
       <c r="O24" s="35" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="Q24" s="60">
         <v>621</v>
       </c>
       <c r="R24" s="61" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="S24" s="37"/>
     </row>
@@ -8822,40 +8921,40 @@
         <v>1</v>
       </c>
       <c r="E25" s="28" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F25" s="54" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G25" s="53" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H25" s="45" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K25" s="10" t="s">
         <v>10</v>
       </c>
       <c r="L25" s="35" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M25" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="N25" s="10" t="s">
         <v>10</v>
       </c>
       <c r="O25" s="16" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="Q25" s="60">
         <v>622</v>
       </c>
       <c r="R25" s="61" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S25" s="37"/>
     </row>
@@ -8864,37 +8963,37 @@
         <v>24</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D26" s="23" t="s">
         <v>1</v>
       </c>
       <c r="E26" s="25" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K26" s="10" t="s">
         <v>10</v>
       </c>
       <c r="L26" s="16" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M26" s="9" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="N26" s="10" t="s">
         <v>10</v>
       </c>
       <c r="O26" s="36" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="Q26" s="60">
         <v>623</v>
       </c>
       <c r="R26" s="61" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S26" s="37"/>
     </row>
@@ -8909,34 +9008,34 @@
         <v>1</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="1"/>
       <c r="I27" s="4"/>
       <c r="J27" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K27" s="10" t="s">
         <v>10</v>
       </c>
       <c r="L27" s="16" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="M27" s="9" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N27" s="10" t="s">
         <v>10</v>
       </c>
       <c r="O27" s="35" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="Q27" s="60">
         <v>624</v>
       </c>
       <c r="R27" s="61" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="S27" s="37"/>
     </row>
@@ -8951,34 +9050,34 @@
         <v>1</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="1"/>
       <c r="I28" s="4"/>
       <c r="J28" s="9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K28" s="10" t="s">
         <v>10</v>
       </c>
       <c r="L28" s="35" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M28" s="9" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="N28" s="10" t="s">
         <v>10</v>
       </c>
       <c r="O28" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="Q28" s="60">
         <v>625</v>
       </c>
       <c r="R28" s="61" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="S28" s="37"/>
     </row>
@@ -8996,38 +9095,38 @@
         <v>27</v>
       </c>
       <c r="F29" s="54" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="G29" s="64" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="H29" s="57">
         <v>850</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K29" s="10" t="s">
         <v>10</v>
       </c>
       <c r="L29" s="35" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="M29" s="9" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="N29" s="10" t="s">
         <v>10</v>
       </c>
       <c r="O29" s="16" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="Q29" s="60">
         <v>626</v>
       </c>
       <c r="R29" s="61" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="S29" s="37"/>
     </row>
@@ -9042,33 +9141,33 @@
         <v>1</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="1"/>
       <c r="J30" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K30" s="10" t="s">
         <v>10</v>
       </c>
       <c r="L30" s="17" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="M30" s="9" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="N30" s="10" t="s">
         <v>10</v>
       </c>
       <c r="O30" s="35" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="Q30" s="60">
         <v>627</v>
       </c>
       <c r="R30" s="61" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="S30" s="37"/>
     </row>
@@ -9083,33 +9182,33 @@
         <v>1</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="1"/>
       <c r="J31" s="9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K31" s="10" t="s">
         <v>10</v>
       </c>
       <c r="L31" s="16" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="M31" s="9" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="N31" s="10" t="s">
         <v>10</v>
       </c>
       <c r="O31" s="35" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="Q31" s="60">
         <v>628</v>
       </c>
       <c r="R31" s="61" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="S31" s="37"/>
     </row>
@@ -9124,31 +9223,31 @@
         <v>1</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="J32" s="9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K32" s="10" t="s">
         <v>10</v>
       </c>
       <c r="L32" s="36" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="M32" s="9" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="N32" s="10" t="s">
         <v>10</v>
       </c>
       <c r="O32" s="16" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="Q32" s="60">
         <v>629</v>
       </c>
       <c r="R32" s="61" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="S32" s="37"/>
     </row>
@@ -9163,31 +9262,31 @@
         <v>1</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K33" s="10" t="s">
         <v>10</v>
       </c>
       <c r="L33" s="35" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="M33" s="9" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="N33" s="10" t="s">
         <v>10</v>
       </c>
       <c r="O33" s="16" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="Q33" s="60">
         <v>630</v>
       </c>
       <c r="R33" s="61" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="S33" s="37"/>
     </row>
@@ -9205,28 +9304,28 @@
         <v>29</v>
       </c>
       <c r="J34" s="9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K34" s="10" t="s">
         <v>10</v>
       </c>
       <c r="L34" s="36" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M34" s="9" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="N34" s="10" t="s">
         <v>10</v>
       </c>
       <c r="O34" s="42" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="Q34" s="60">
         <v>631</v>
       </c>
       <c r="R34" s="61" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S34" s="37"/>
     </row>
@@ -9241,31 +9340,31 @@
         <v>1</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="J35" s="38" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K35" s="10" t="s">
         <v>10</v>
       </c>
       <c r="L35" s="16" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="M35" s="9" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="N35" s="10" t="s">
         <v>10</v>
       </c>
       <c r="O35" s="35" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="Q35" s="60">
         <v>632</v>
       </c>
       <c r="R35" s="61" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="S35" s="37"/>
     </row>
@@ -9283,22 +9382,22 @@
         <v>32</v>
       </c>
       <c r="J36" s="9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K36" s="10" t="s">
         <v>10</v>
       </c>
       <c r="L36" s="35" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="M36" s="9" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="N36" s="10" t="s">
         <v>10</v>
       </c>
       <c r="O36" s="16" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="Q36" s="18"/>
       <c r="S36" s="37"/>
@@ -9314,25 +9413,25 @@
         <v>1</v>
       </c>
       <c r="E37" s="29" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K37" s="10" t="s">
         <v>10</v>
       </c>
       <c r="L37" s="35" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="N37" s="10" t="s">
         <v>10</v>
       </c>
       <c r="O37" s="16" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="Q37" s="18"/>
       <c r="R37" s="37"/>
@@ -9349,30 +9448,30 @@
         <v>1</v>
       </c>
       <c r="E38" s="29" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K38" s="10" t="s">
         <v>10</v>
       </c>
       <c r="L38" s="35" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="M38" s="9" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="N38" s="10" t="s">
         <v>10</v>
       </c>
       <c r="O38" s="16" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q38" s="67" t="s">
-        <v>305</v>
-      </c>
-      <c r="R38" s="67"/>
+        <v>255</v>
+      </c>
+      <c r="Q38" s="79" t="s">
+        <v>303</v>
+      </c>
+      <c r="R38" s="79"/>
       <c r="S38" s="37"/>
     </row>
     <row r="39" spans="2:19" x14ac:dyDescent="0.25">
@@ -9389,28 +9488,28 @@
         <v>35</v>
       </c>
       <c r="J39" s="9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K39" s="10" t="s">
         <v>10</v>
       </c>
       <c r="L39" s="16" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="M39" s="9" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="N39" s="10" t="s">
         <v>10</v>
       </c>
       <c r="O39" s="35" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="Q39" s="60">
         <v>700</v>
       </c>
       <c r="R39" s="61" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="S39" s="37"/>
     </row>
@@ -9425,31 +9524,31 @@
         <v>1</v>
       </c>
       <c r="E40" s="30" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="J40" s="9" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K40" s="10" t="s">
         <v>10</v>
       </c>
       <c r="L40" s="16" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="M40" s="9" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="N40" s="10" t="s">
         <v>10</v>
       </c>
       <c r="O40" s="35" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="Q40" s="62">
         <v>701</v>
       </c>
       <c r="R40" s="61" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="41" spans="2:19" x14ac:dyDescent="0.25">
@@ -9466,22 +9565,22 @@
         <v>39</v>
       </c>
       <c r="J41" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K41" s="10" t="s">
         <v>10</v>
       </c>
       <c r="L41" s="35" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="M41" s="9" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="N41" s="10" t="s">
         <v>10</v>
       </c>
       <c r="O41" s="16" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="42" spans="2:19" x14ac:dyDescent="0.25">
@@ -9495,25 +9594,25 @@
         <v>1</v>
       </c>
       <c r="E42" s="30" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="J42" s="9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K42" s="10" t="s">
         <v>10</v>
       </c>
       <c r="L42" s="16" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="M42" s="9" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="N42" s="10" t="s">
         <v>10</v>
       </c>
       <c r="O42" s="35" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="43" spans="2:19" x14ac:dyDescent="0.25">
@@ -9530,27 +9629,27 @@
         <v>41</v>
       </c>
       <c r="J43" s="9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K43" s="10" t="s">
         <v>10</v>
       </c>
       <c r="L43" s="35" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="M43" s="9" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="N43" s="10" t="s">
         <v>10</v>
       </c>
       <c r="O43" s="16" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q43" s="76" t="s">
-        <v>375</v>
-      </c>
-      <c r="R43" s="76"/>
+        <v>294</v>
+      </c>
+      <c r="Q43" s="71" t="s">
+        <v>372</v>
+      </c>
+      <c r="R43" s="71"/>
     </row>
     <row r="44" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B44" s="34">
@@ -9563,31 +9662,31 @@
         <v>1</v>
       </c>
       <c r="E44" s="25" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="J44" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K44" s="10" t="s">
         <v>10</v>
       </c>
       <c r="L44" s="16" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="M44" s="9" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="N44" s="10" t="s">
         <v>10</v>
       </c>
       <c r="O44" s="35" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="Q44" s="62">
         <v>750</v>
       </c>
       <c r="R44" s="16" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="45" spans="2:19" x14ac:dyDescent="0.25">
@@ -9601,28 +9700,28 @@
         <v>1</v>
       </c>
       <c r="E45" s="25" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="J45" s="9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K45" s="10" t="s">
         <v>10</v>
       </c>
       <c r="L45" s="35" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M45" s="9" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="N45" s="10" t="s">
         <v>10</v>
       </c>
       <c r="O45" s="16" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="Q45" s="10"/>
-      <c r="R45" s="75"/>
+      <c r="R45" s="67"/>
     </row>
     <row r="46" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B46" s="34">
@@ -9638,22 +9737,22 @@
         <v>43</v>
       </c>
       <c r="J46" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K46" s="10" t="s">
         <v>10</v>
       </c>
       <c r="L46" s="16" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="M46" s="9" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="N46" s="10" t="s">
         <v>10</v>
       </c>
       <c r="O46" s="35" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="47" spans="2:19" x14ac:dyDescent="0.25">
@@ -9667,30 +9766,30 @@
         <v>1</v>
       </c>
       <c r="E47" s="25" t="s">
-        <v>46</v>
+        <v>387</v>
       </c>
       <c r="J47" s="9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K47" s="10" t="s">
         <v>10</v>
       </c>
       <c r="L47" s="35" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="M47" s="9" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="N47" s="10" t="s">
         <v>10</v>
       </c>
       <c r="O47" s="16" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q47" s="76" t="s">
-        <v>375</v>
-      </c>
-      <c r="R47" s="76"/>
+        <v>294</v>
+      </c>
+      <c r="Q47" s="71" t="s">
+        <v>372</v>
+      </c>
+      <c r="R47" s="71"/>
     </row>
     <row r="48" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B48" s="34">
@@ -9703,43 +9802,43 @@
         <v>1</v>
       </c>
       <c r="E48" s="25" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F48" s="54" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G48" s="51" t="s">
-        <v>319</v>
+        <v>388</v>
       </c>
       <c r="H48" s="45" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="J48" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K48" s="10" t="s">
         <v>10</v>
       </c>
       <c r="L48" s="16" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="M48" s="9" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="N48" s="10" t="s">
         <v>10</v>
       </c>
       <c r="O48" s="35" t="s">
-        <v>296</v>
-      </c>
-      <c r="P48" s="78" t="s">
-        <v>384</v>
+        <v>294</v>
+      </c>
+      <c r="P48" s="69" t="s">
+        <v>381</v>
       </c>
       <c r="Q48" s="62">
         <v>760</v>
       </c>
       <c r="R48" s="16" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="49" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9753,34 +9852,34 @@
         <v>1</v>
       </c>
       <c r="E49" s="25" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="J49" s="9" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K49" s="10" t="s">
         <v>10</v>
       </c>
       <c r="L49" s="35" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="M49" s="9" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="N49" s="10" t="s">
         <v>10</v>
       </c>
       <c r="O49" s="16" t="s">
-        <v>296</v>
-      </c>
-      <c r="P49" s="79" t="s">
-        <v>385</v>
+        <v>294</v>
+      </c>
+      <c r="P49" s="70" t="s">
+        <v>382</v>
       </c>
       <c r="Q49" s="62">
         <v>761</v>
       </c>
-      <c r="R49" s="77" t="s">
-        <v>382</v>
+      <c r="R49" s="68" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="50" spans="2:18" x14ac:dyDescent="0.25">
@@ -9788,40 +9887,40 @@
         <v>48</v>
       </c>
       <c r="C50" s="26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D50" s="23" t="s">
         <v>1</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="J50" s="9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K50" s="10" t="s">
         <v>10</v>
       </c>
       <c r="L50" s="16" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="M50" s="9" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="N50" s="10" t="s">
         <v>10</v>
       </c>
       <c r="O50" s="35" t="s">
-        <v>296</v>
-      </c>
-      <c r="P50" s="79">
+        <v>294</v>
+      </c>
+      <c r="P50" s="70">
         <v>1030</v>
       </c>
       <c r="Q50" s="62">
         <v>762</v>
       </c>
       <c r="R50" s="16" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="51" spans="2:18" x14ac:dyDescent="0.25">
@@ -9829,7 +9928,7 @@
         <v>49</v>
       </c>
       <c r="C51" s="26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D51" s="23" t="s">
         <v>1</v>
@@ -9838,39 +9937,54 @@
         <v>10</v>
       </c>
       <c r="J51" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K51" s="14" t="s">
         <v>10</v>
       </c>
       <c r="L51" s="16" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="M51" s="13" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="N51" s="14" t="s">
         <v>10</v>
       </c>
       <c r="O51" s="35" t="s">
-        <v>296</v>
-      </c>
-      <c r="P51" s="79"/>
-      <c r="Q51" s="16"/>
-      <c r="R51" s="16"/>
+        <v>294</v>
+      </c>
+      <c r="P51" s="70">
+        <v>1031</v>
+      </c>
+      <c r="Q51" s="62">
+        <v>763</v>
+      </c>
+      <c r="R51" s="16" t="s">
+        <v>393</v>
+      </c>
     </row>
     <row r="52" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B52" s="34">
         <v>50</v>
       </c>
       <c r="C52" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D52" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="E52" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D52" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="E52" s="12" t="s">
-        <v>49</v>
+      <c r="P52">
+        <v>1040</v>
+      </c>
+      <c r="Q52" s="62">
+        <v>764</v>
+      </c>
+      <c r="R52" s="42" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="53" spans="2:18" x14ac:dyDescent="0.25">
@@ -9878,13 +9992,22 @@
         <v>51</v>
       </c>
       <c r="C53" s="26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D53" s="23" t="s">
         <v>1</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
+      </c>
+      <c r="P53" s="81">
+        <v>1050</v>
+      </c>
+      <c r="Q53" s="62">
+        <v>765</v>
+      </c>
+      <c r="R53" s="42" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="54" spans="2:18" x14ac:dyDescent="0.25">
@@ -9892,13 +10015,22 @@
         <v>52</v>
       </c>
       <c r="C54" s="26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D54" s="23" t="s">
         <v>1</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
+      </c>
+      <c r="P54" s="81">
+        <v>1060</v>
+      </c>
+      <c r="Q54" s="62">
+        <v>766</v>
+      </c>
+      <c r="R54" s="42" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="55" spans="2:18" x14ac:dyDescent="0.25">
@@ -9906,13 +10038,22 @@
         <v>53</v>
       </c>
       <c r="C55" s="26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D55" s="23" t="s">
         <v>1</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
+      </c>
+      <c r="P55" s="81">
+        <v>1061</v>
+      </c>
+      <c r="Q55" s="62">
+        <v>767</v>
+      </c>
+      <c r="R55" s="42" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="56" spans="2:18" x14ac:dyDescent="0.25">
@@ -9920,28 +10061,45 @@
         <v>54</v>
       </c>
       <c r="C56" s="26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D56" s="23" t="s">
         <v>1</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="R56" s="18"/>
+        <v>52</v>
+      </c>
+      <c r="P56" s="81">
+        <v>1070</v>
+      </c>
+      <c r="Q56" s="62">
+        <v>768</v>
+      </c>
+      <c r="R56" s="61" t="s">
+        <v>398</v>
+      </c>
     </row>
     <row r="57" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B57" s="34">
         <v>55</v>
       </c>
       <c r="C57" s="26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D57" s="23" t="s">
         <v>1</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+      <c r="P57" s="81">
+        <v>1071</v>
+      </c>
+      <c r="Q57" s="62">
+        <v>769</v>
+      </c>
+      <c r="R57" s="42" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="58" spans="2:18" x14ac:dyDescent="0.25">
@@ -9949,13 +10107,13 @@
         <v>56</v>
       </c>
       <c r="C58" s="26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D58" s="23" t="s">
         <v>1</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="59" spans="2:18" x14ac:dyDescent="0.25">
@@ -9963,7 +10121,7 @@
         <v>57</v>
       </c>
       <c r="C59" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D59" s="23" t="s">
         <v>1</v>
@@ -9977,13 +10135,13 @@
         <v>58</v>
       </c>
       <c r="C60" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D60" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="E60" s="25" t="s">
         <v>56</v>
-      </c>
-      <c r="D60" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="E60" s="25" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="61" spans="2:18" x14ac:dyDescent="0.25">
@@ -9991,13 +10149,22 @@
         <v>59</v>
       </c>
       <c r="C61" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D61" s="23" t="s">
         <v>1</v>
       </c>
       <c r="E61" s="25" t="s">
-        <v>335</v>
+        <v>391</v>
+      </c>
+      <c r="F61" s="54" t="s">
+        <v>340</v>
+      </c>
+      <c r="G61" s="80" t="s">
+        <v>392</v>
+      </c>
+      <c r="H61" s="45">
+        <v>844</v>
       </c>
     </row>
     <row r="62" spans="2:18" x14ac:dyDescent="0.25">
@@ -10005,13 +10172,13 @@
         <v>60</v>
       </c>
       <c r="C62" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D62" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="E62" s="28" t="s">
         <v>58</v>
-      </c>
-      <c r="D62" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="E62" s="28" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="63" spans="2:18" x14ac:dyDescent="0.25">
@@ -10019,13 +10186,13 @@
         <v>61</v>
       </c>
       <c r="C63" s="26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D63" s="23" t="s">
         <v>1</v>
       </c>
       <c r="E63" s="28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="64" spans="2:18" x14ac:dyDescent="0.25">
@@ -10033,13 +10200,31 @@
         <v>62</v>
       </c>
       <c r="C64" s="26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D64" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="E64" s="25" t="s">
-        <v>90</v>
+      <c r="E64" s="31" t="s">
+        <v>389</v>
+      </c>
+      <c r="F64" s="54" t="s">
+        <v>369</v>
+      </c>
+      <c r="G64" s="51" t="s">
+        <v>388</v>
+      </c>
+      <c r="H64" s="45" t="s">
+        <v>390</v>
+      </c>
+      <c r="I64" s="54" t="s">
+        <v>340</v>
+      </c>
+      <c r="J64" s="56" t="s">
+        <v>333</v>
+      </c>
+      <c r="K64" s="45">
+        <v>851</v>
       </c>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.25">
@@ -10047,13 +10232,13 @@
         <v>63</v>
       </c>
       <c r="C65" s="26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D65" s="23" t="s">
         <v>1</v>
       </c>
       <c r="E65" s="31" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.25">
@@ -10061,13 +10246,13 @@
         <v>64</v>
       </c>
       <c r="C66" s="26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D66" s="23" t="s">
         <v>1</v>
       </c>
       <c r="E66" s="25" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G66" s="3"/>
       <c r="H66" s="1"/>
@@ -10078,13 +10263,13 @@
         <v>65</v>
       </c>
       <c r="C67" s="26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D67" s="23" t="s">
         <v>1</v>
       </c>
       <c r="E67" s="28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.25">
@@ -10092,13 +10277,13 @@
         <v>66</v>
       </c>
       <c r="C68" s="26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D68" s="23" t="s">
         <v>1</v>
       </c>
       <c r="E68" s="28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.25">
@@ -10106,13 +10291,13 @@
         <v>67</v>
       </c>
       <c r="C69" s="26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D69" s="23" t="s">
         <v>1</v>
       </c>
       <c r="E69" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.25">
@@ -10120,13 +10305,13 @@
         <v>68</v>
       </c>
       <c r="C70" s="26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D70" s="23" t="s">
         <v>1</v>
       </c>
       <c r="E70" s="31" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H70" s="45"/>
       <c r="L70" t="s">
@@ -10138,28 +10323,28 @@
         <v>69</v>
       </c>
       <c r="C71" s="26" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D71" s="23" t="s">
         <v>1</v>
       </c>
       <c r="E71" s="28" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="F71" s="54" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="G71" s="56" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="H71" s="45" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="I71" s="54" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="J71" s="66" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K71" s="45">
         <v>1020</v>
@@ -10170,13 +10355,13 @@
         <v>70</v>
       </c>
       <c r="C72" s="26" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D72" s="23" t="s">
         <v>1</v>
       </c>
       <c r="E72" s="25" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H72" s="45"/>
       <c r="J72" s="59"/>
@@ -10186,13 +10371,13 @@
         <v>71</v>
       </c>
       <c r="C73" s="26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D73" s="23" t="s">
         <v>1</v>
       </c>
       <c r="E73" s="27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H73" s="45"/>
     </row>
@@ -10201,13 +10386,13 @@
         <v>72</v>
       </c>
       <c r="C74" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D74" s="23" t="s">
         <v>1</v>
       </c>
       <c r="E74" s="25" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H74" s="45"/>
     </row>
@@ -10216,13 +10401,13 @@
         <v>73</v>
       </c>
       <c r="C75" s="26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D75" s="23" t="s">
         <v>1</v>
       </c>
       <c r="E75" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H75" s="45"/>
     </row>
@@ -10231,13 +10416,13 @@
         <v>74</v>
       </c>
       <c r="C76" s="26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D76" s="23" t="s">
         <v>1</v>
       </c>
       <c r="E76" s="25" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H76" s="45"/>
     </row>
@@ -10246,19 +10431,19 @@
         <v>75</v>
       </c>
       <c r="C77" s="26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D77" s="23" t="s">
         <v>1</v>
       </c>
       <c r="E77" s="25" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F77" s="54" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G77" s="47" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="H77" s="45">
         <v>1010</v>
@@ -10269,31 +10454,31 @@
         <v>76</v>
       </c>
       <c r="C78" s="26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D78" s="23" t="s">
         <v>1</v>
       </c>
       <c r="E78" s="25" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F78" s="54" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G78" s="55" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="H78" s="45" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="I78" s="54" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="J78" s="44" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K78" s="45" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.25">
@@ -10301,31 +10486,31 @@
         <v>77</v>
       </c>
       <c r="C79" s="26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D79" s="23" t="s">
         <v>1</v>
       </c>
       <c r="E79" s="27" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F79" s="54" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G79" s="65" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="H79" s="45">
         <v>1011</v>
       </c>
       <c r="I79" s="54" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="J79" s="48" t="s">
+        <v>307</v>
+      </c>
+      <c r="K79" t="s">
         <v>309</v>
-      </c>
-      <c r="K79" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="80" spans="2:12" x14ac:dyDescent="0.25">
@@ -10333,13 +10518,13 @@
         <v>78</v>
       </c>
       <c r="C80" s="26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D80" s="23" t="s">
         <v>1</v>
       </c>
       <c r="E80" s="27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H80" s="45"/>
     </row>
@@ -10348,13 +10533,13 @@
         <v>79</v>
       </c>
       <c r="C81" s="26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D81" s="23" t="s">
         <v>1</v>
       </c>
       <c r="E81" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H81" s="45"/>
     </row>
@@ -10363,13 +10548,13 @@
         <v>80</v>
       </c>
       <c r="C82" s="26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D82" s="23" t="s">
         <v>1</v>
       </c>
       <c r="E82" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H82" s="45"/>
     </row>
@@ -10378,7 +10563,7 @@
         <v>81</v>
       </c>
       <c r="C83" s="26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D83" s="23" t="s">
         <v>1</v>
@@ -10393,13 +10578,13 @@
         <v>82</v>
       </c>
       <c r="C84" s="26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D84" s="23" t="s">
         <v>1</v>
       </c>
       <c r="E84" s="25" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H84" s="45"/>
     </row>
@@ -10408,19 +10593,19 @@
         <v>83</v>
       </c>
       <c r="C85" s="26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D85" s="23" t="s">
         <v>1</v>
       </c>
       <c r="E85" s="25" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F85" s="54" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G85" s="63" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="H85" s="45">
         <v>1012</v>
@@ -10431,13 +10616,13 @@
         <v>84</v>
       </c>
       <c r="C86" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="D86" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="E86" s="27" t="s">
         <v>71</v>
-      </c>
-      <c r="D86" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="E86" s="27" t="s">
-        <v>72</v>
       </c>
       <c r="H86" s="45"/>
     </row>
@@ -10446,13 +10631,13 @@
         <v>85</v>
       </c>
       <c r="C87" s="26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D87" s="23" t="s">
         <v>1</v>
       </c>
       <c r="E87" s="25" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H87" s="45"/>
     </row>
@@ -10461,13 +10646,13 @@
         <v>86</v>
       </c>
       <c r="C88" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D88" s="23" t="s">
         <v>1</v>
       </c>
       <c r="E88" s="25" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="H88" s="45"/>
     </row>
@@ -10476,13 +10661,13 @@
         <v>87</v>
       </c>
       <c r="C89" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D89" s="23" t="s">
         <v>1</v>
       </c>
       <c r="E89" s="25" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.25">
@@ -10490,13 +10675,13 @@
         <v>88</v>
       </c>
       <c r="C90" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D90" s="23" t="s">
         <v>1</v>
       </c>
       <c r="E90" s="31" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.25">
@@ -10504,13 +10689,13 @@
         <v>89</v>
       </c>
       <c r="C91" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D91" s="23" t="s">
         <v>1</v>
       </c>
       <c r="E91" s="25" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.25">
@@ -10518,13 +10703,13 @@
         <v>90</v>
       </c>
       <c r="C92" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D92" s="23" t="s">
         <v>1</v>
       </c>
       <c r="E92" s="25" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="93" spans="2:8" x14ac:dyDescent="0.25">
@@ -10532,13 +10717,13 @@
         <v>91</v>
       </c>
       <c r="C93" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D93" s="23" t="s">
         <v>1</v>
       </c>
       <c r="E93" s="25" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.25">
@@ -10546,13 +10731,13 @@
         <v>92</v>
       </c>
       <c r="C94" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D94" s="23" t="s">
         <v>1</v>
       </c>
       <c r="E94" s="25" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.25">
@@ -10560,13 +10745,13 @@
         <v>93</v>
       </c>
       <c r="C95" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D95" s="23" t="s">
         <v>1</v>
       </c>
       <c r="E95" s="25" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.25">
@@ -10574,13 +10759,13 @@
         <v>94</v>
       </c>
       <c r="C96" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D96" s="23" t="s">
         <v>1</v>
       </c>
       <c r="E96" s="25" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.25">
@@ -10588,13 +10773,13 @@
         <v>95</v>
       </c>
       <c r="C97" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D97" s="23" t="s">
         <v>1</v>
       </c>
       <c r="E97" s="25" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.25">
@@ -10602,13 +10787,13 @@
         <v>96</v>
       </c>
       <c r="C98" s="26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D98" s="23" t="s">
         <v>1</v>
       </c>
       <c r="E98" s="25" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.25">
@@ -10616,13 +10801,13 @@
         <v>97</v>
       </c>
       <c r="C99" s="26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D99" s="23" t="s">
         <v>1</v>
       </c>
       <c r="E99" s="25" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.25">
@@ -10630,13 +10815,13 @@
         <v>98</v>
       </c>
       <c r="C100" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D100" s="23" t="s">
         <v>1</v>
       </c>
       <c r="E100" s="25" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.25">
@@ -10644,13 +10829,13 @@
         <v>99</v>
       </c>
       <c r="C101" s="26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D101" s="23" t="s">
         <v>1</v>
       </c>
       <c r="E101" s="25" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.25">
@@ -10658,13 +10843,13 @@
         <v>100</v>
       </c>
       <c r="C102" s="26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D102" s="23" t="s">
         <v>1</v>
       </c>
       <c r="E102" s="25" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.25">
@@ -10672,13 +10857,13 @@
         <v>101</v>
       </c>
       <c r="C103" s="26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D103" s="23" t="s">
         <v>1</v>
       </c>
       <c r="E103" s="25" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.25">
@@ -10686,13 +10871,13 @@
         <v>102</v>
       </c>
       <c r="C104" s="26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D104" s="23" t="s">
         <v>1</v>
       </c>
       <c r="E104" s="25" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="105" spans="2:5" x14ac:dyDescent="0.25">
@@ -10700,13 +10885,13 @@
         <v>103</v>
       </c>
       <c r="C105" s="26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D105" s="23" t="s">
         <v>1</v>
       </c>
       <c r="E105" s="25" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.25">
@@ -10714,13 +10899,13 @@
         <v>104</v>
       </c>
       <c r="C106" s="26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D106" s="23" t="s">
         <v>1</v>
       </c>
       <c r="E106" s="25" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.25">
@@ -10728,13 +10913,13 @@
         <v>105</v>
       </c>
       <c r="C107" s="26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D107" s="23" t="s">
         <v>1</v>
       </c>
       <c r="E107" s="27" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="108" spans="2:5" x14ac:dyDescent="0.25">
@@ -10742,13 +10927,13 @@
         <v>106</v>
       </c>
       <c r="C108" s="26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D108" s="23" t="s">
         <v>1</v>
       </c>
       <c r="E108" s="27" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="109" spans="2:5" x14ac:dyDescent="0.25">
@@ -10756,13 +10941,13 @@
         <v>107</v>
       </c>
       <c r="C109" s="26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D109" s="23" t="s">
         <v>1</v>
       </c>
       <c r="E109" s="27" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="110" spans="2:5" x14ac:dyDescent="0.25">
@@ -10770,13 +10955,13 @@
         <v>108</v>
       </c>
       <c r="C110" s="26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D110" s="23" t="s">
         <v>1</v>
       </c>
       <c r="E110" s="27" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.25">
@@ -10784,13 +10969,13 @@
         <v>109</v>
       </c>
       <c r="C111" s="26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D111" s="23" t="s">
         <v>1</v>
       </c>
       <c r="E111" s="27" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.25">
@@ -10798,13 +10983,13 @@
         <v>110</v>
       </c>
       <c r="C112" s="26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D112" s="23" t="s">
         <v>1</v>
       </c>
       <c r="E112" s="27" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="113" spans="2:8" x14ac:dyDescent="0.25">
@@ -10812,13 +10997,13 @@
         <v>111</v>
       </c>
       <c r="C113" s="26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D113" s="23" t="s">
         <v>1</v>
       </c>
       <c r="E113" s="27" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="114" spans="2:8" x14ac:dyDescent="0.25">
@@ -10826,13 +11011,13 @@
         <v>112</v>
       </c>
       <c r="C114" s="26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D114" s="23" t="s">
         <v>1</v>
       </c>
       <c r="E114" s="27" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="115" spans="2:8" x14ac:dyDescent="0.25">
@@ -10840,13 +11025,13 @@
         <v>113</v>
       </c>
       <c r="C115" s="26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D115" s="23" t="s">
         <v>1</v>
       </c>
       <c r="E115" s="27" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="116" spans="2:8" x14ac:dyDescent="0.25">
@@ -10854,13 +11039,13 @@
         <v>114</v>
       </c>
       <c r="C116" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D116" s="23" t="s">
         <v>1</v>
       </c>
       <c r="E116" s="27" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="117" spans="2:8" x14ac:dyDescent="0.25">
@@ -10868,13 +11053,13 @@
         <v>115</v>
       </c>
       <c r="C117" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D117" s="23" t="s">
         <v>1</v>
       </c>
       <c r="E117" s="27" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="118" spans="2:8" x14ac:dyDescent="0.25">
@@ -10882,13 +11067,13 @@
         <v>116</v>
       </c>
       <c r="C118" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D118" s="23" t="s">
         <v>1</v>
       </c>
       <c r="E118" s="27" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="119" spans="2:8" x14ac:dyDescent="0.25">
@@ -10896,13 +11081,13 @@
         <v>117</v>
       </c>
       <c r="C119" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D119" s="23" t="s">
         <v>1</v>
       </c>
       <c r="E119" s="27" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="120" spans="2:8" x14ac:dyDescent="0.25">
@@ -10910,13 +11095,13 @@
         <v>118</v>
       </c>
       <c r="C120" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D120" s="23" t="s">
         <v>1</v>
       </c>
       <c r="E120" s="27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="121" spans="2:8" x14ac:dyDescent="0.25">
@@ -10924,13 +11109,13 @@
         <v>119</v>
       </c>
       <c r="C121" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D121" s="23" t="s">
         <v>1</v>
       </c>
       <c r="E121" s="27" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="122" spans="2:8" x14ac:dyDescent="0.25">
@@ -10938,13 +11123,13 @@
         <v>120</v>
       </c>
       <c r="C122" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D122" s="23" t="s">
         <v>1</v>
       </c>
       <c r="E122" s="27" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="123" spans="2:8" x14ac:dyDescent="0.25">
@@ -10952,13 +11137,13 @@
         <v>121</v>
       </c>
       <c r="C123" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D123" s="23" t="s">
         <v>1</v>
       </c>
       <c r="E123" s="27" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="124" spans="2:8" x14ac:dyDescent="0.25">
@@ -10966,13 +11151,13 @@
         <v>122</v>
       </c>
       <c r="C124" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D124" s="23" t="s">
         <v>1</v>
       </c>
       <c r="E124" s="27" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="125" spans="2:8" x14ac:dyDescent="0.25">
@@ -10980,13 +11165,13 @@
         <v>123</v>
       </c>
       <c r="C125" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D125" s="23" t="s">
         <v>1</v>
       </c>
       <c r="E125" s="27" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="126" spans="2:8" x14ac:dyDescent="0.25">
@@ -10994,13 +11179,13 @@
         <v>124</v>
       </c>
       <c r="C126" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D126" s="23" t="s">
         <v>1</v>
       </c>
       <c r="E126" s="27" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="127" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11014,13 +11199,13 @@
         <v>1</v>
       </c>
       <c r="E127" s="28" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F127" s="54" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="G127" s="58" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="H127" s="45">
         <v>853</v>
@@ -11079,7 +11264,7 @@
     <row r="132" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B132" s="39"/>
       <c r="C132" s="26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D132" s="23" t="s">
         <v>1</v>
@@ -11199,7 +11384,7 @@
     <row r="142" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B142" s="39"/>
       <c r="C142" s="26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D142" s="23" t="s">
         <v>1</v>
@@ -11211,7 +11396,7 @@
     <row r="143" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B143" s="39"/>
       <c r="C143" s="26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D143" s="23" t="s">
         <v>1</v>
@@ -11223,7 +11408,7 @@
     <row r="144" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B144" s="39"/>
       <c r="C144" s="26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D144" s="23" t="s">
         <v>1</v>
@@ -11235,7 +11420,7 @@
     <row r="145" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B145" s="39"/>
       <c r="C145" s="41" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D145" s="23" t="s">
         <v>1</v>
@@ -11247,7 +11432,7 @@
     <row r="146" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B146" s="39"/>
       <c r="C146" s="26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D146" s="23" t="s">
         <v>1</v>
@@ -11259,7 +11444,7 @@
     <row r="147" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B147" s="39"/>
       <c r="C147" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D147" s="23" t="s">
         <v>1</v>
@@ -11271,7 +11456,7 @@
     <row r="148" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B148" s="39"/>
       <c r="C148" s="26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D148" s="23" t="s">
         <v>1</v>
@@ -11283,7 +11468,7 @@
     <row r="149" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B149" s="39"/>
       <c r="C149" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D149" s="23" t="s">
         <v>1</v>
@@ -11295,7 +11480,7 @@
     <row r="150" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B150" s="39"/>
       <c r="C150" s="26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D150" s="23" t="s">
         <v>1</v>
@@ -11307,7 +11492,7 @@
     <row r="151" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B151" s="39"/>
       <c r="C151" s="26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D151" s="23" t="s">
         <v>1</v>
@@ -11319,7 +11504,7 @@
     <row r="152" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B152" s="39"/>
       <c r="C152" s="26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D152" s="23" t="s">
         <v>1</v>
@@ -11331,7 +11516,7 @@
     <row r="153" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B153" s="6"/>
       <c r="C153" s="32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D153" s="23" t="s">
         <v>1</v>

--- a/Producciones.xlsx
+++ b/Producciones.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Usuario\Documents\NetBeansProjects\Compilador\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59CEF8FA-4ECC-4DC0-9607-33C4CFB78284}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5533067-B56B-450C-B8C6-280D91ABABE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32520" yWindow="660" windowWidth="17145" windowHeight="14025" xr2:uid="{A2E2150B-4EBC-493D-997F-5AEA11C60ED9}"/>
+    <workbookView xWindow="2415" yWindow="1140" windowWidth="17145" windowHeight="14130" xr2:uid="{CE99D781-93EC-43B9-9325-D9E8261D5F1E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="418">
   <si>
     <t>PRODUCIONES</t>
   </si>
@@ -4360,6 +4360,2208 @@
     <t>For id</t>
   </si>
   <si>
+    <t>(812 - 816)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCF20C"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CONSTANTE B2</t>
+    </r>
+  </si>
+  <si>
+    <t>(817 - 819)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> id = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">CONSTANTE </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A0</t>
+    </r>
+  </si>
+  <si>
+    <t>Verif. Asignación</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> TERMINOPASCAL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> E0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> TERMINOPASCAL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> E0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ELEVACION </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> C0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ELEVACION  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> C0</t>
+    </r>
+  </si>
+  <si>
+    <t>Verif. Opercación</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>//</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ELEVACION </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> C0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>%</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ELEVACION </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> C0</t>
+    </r>
+  </si>
+  <si>
+    <t>(820-821)</t>
+  </si>
+  <si>
+    <t>Incompatibilidad de tipos …</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Decimal</t>
+    </r>
+  </si>
+  <si>
+    <t>Negativo</t>
+  </si>
+  <si>
+    <t>851-852</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> SIMPLEEXP-PAS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> H0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&gt;&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">SIMPLEEXP-PAS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> H0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA50021"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ASIGN J3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">** </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">FACTOR </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> D0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&amp; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">OPBIT </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> M0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>^</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ANDLOG </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> O0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">| </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">XORLOG </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> P0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&amp;&amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> NOT </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Q0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>##</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> NOT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> @</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Q0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>INNOT</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ORLOG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> @</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> L0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IN</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ORLOG </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> L0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ISNOT</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ORLOG </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> L0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IS</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ORLOG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> @</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> L0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ORLOG </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> L0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&gt;= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ORLOG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>L0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">!= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ORLOG </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> L0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">== </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ORLOG </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> L0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ORLOG </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">@ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>L0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ORLOG </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> L0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>!</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> EXP-PAS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> F0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>||</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> AND </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> G0</t>
+    </r>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> OR </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> EST</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A3 K0</t>
+    </r>
+  </si>
+  <si>
+    <t>IF (booleano)</t>
+  </si>
+  <si>
+    <t>ERRORES DE SEMANTICA 1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>elif</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> OR </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EST</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A3 K0</t>
+    </r>
+  </si>
+  <si>
+    <t>ELIF (booleano)</t>
+  </si>
+  <si>
+    <t>WHILE (booleano)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">while </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">OR </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF26AD5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EST</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">A3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>wend</t>
+    </r>
+  </si>
+  <si>
+    <t>La EXP tiene que ser Booleana</t>
+  </si>
+  <si>
+    <t>ID debe ser mismo tipo que EXP</t>
+  </si>
+  <si>
+    <t>La cant. de dimensiones utilizadas en una lista de arreglo debe ser igual a la declarada</t>
+  </si>
+  <si>
+    <t>1010 - 1012</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1020 - 1021</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I0</t>
+    </r>
+  </si>
+  <si>
+    <t>(822 - 824)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I0</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">OR I1 I2 </t>
+  </si>
+  <si>
+    <t>Lista-Arreglo</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ARR </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">@ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA50021"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> J2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>860 - 861</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">J0 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">id </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">J1 </t>
+    </r>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>La organizacion de los datos de inicializacion de una lista tipo arr deben tener un orden</t>
+  </si>
+  <si>
+    <t>Fuera de limite</t>
+  </si>
+  <si>
+    <t>Los diccionarios no tienen posiciones negativas</t>
+  </si>
+  <si>
+    <t>Diferente valor de llave</t>
+  </si>
+  <si>
+    <t>Las tuplas no tienen posiciones negativas</t>
+  </si>
+  <si>
+    <t>Fuera de dimension</t>
+  </si>
+  <si>
+    <t>La EXP debe ser entera</t>
+  </si>
+  <si>
+    <t>ERRORES DE SEMANTICA 2</t>
+  </si>
+  <si>
+    <t>845 - 846</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> J5 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+  </si>
+  <si>
+    <t>ID debe ser var, par, arr, list, dicc, rang para recibir valor</t>
+  </si>
+  <si>
+    <t>La cant. de parametros debe ser igual a la declarada</t>
+  </si>
+  <si>
+    <t>Valor invalido</t>
+  </si>
+  <si>
+    <t>Id for</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">OR  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA50021"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+  </si>
+  <si>
+    <t>Return</t>
+  </si>
+  <si>
+    <r>
+      <t>Return</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> OR </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9999FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+  </si>
+  <si>
+    <t>(804, -804)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">def </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> id ( </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">A1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">PROGRAM </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF7A7E6"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EST A3</t>
+    </r>
+  </si>
+  <si>
+    <t>End EST</t>
+  </si>
+  <si>
+    <t>s2</t>
+  </si>
+  <si>
+    <t>ID debe ser clase procedimiento</t>
+  </si>
+  <si>
+    <t>ID debe ser clase funcion</t>
+  </si>
+  <si>
+    <t>ID debe ser declarado antes de ser utilizado</t>
+  </si>
+  <si>
+    <t>A, s1</t>
+  </si>
+  <si>
+    <t>Se esperaba rango positivo</t>
+  </si>
+  <si>
+    <t>For value</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -4483,6 +6685,27 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve"> OR</t>
     </r>
     <r>
@@ -4493,6 +6716,26 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve"> :</t>
     </r>
     <r>
@@ -4528,2197 +6771,7 @@
     </r>
   </si>
   <si>
-    <t>(812 - 816)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCCF20C"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CONSTANTE B2</t>
-    </r>
-  </si>
-  <si>
-    <t>(817 - 819)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> id = </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">CONSTANTE </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A0</t>
-    </r>
-  </si>
-  <si>
-    <t>Verif. Asignación</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> TERMINOPASCAL </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF3E529"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> E0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>+</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> TERMINOPASCAL </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF3E529"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> E0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ELEVACION </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF3E529"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> C0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">ELEVACION  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF3E529"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> C0</t>
-    </r>
-  </si>
-  <si>
-    <t>Verif. Opercación</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>S1</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>//</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">ELEVACION </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF3E529"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> C0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>%</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ELEVACION </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF3E529"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> C0</t>
-    </r>
-  </si>
-  <si>
-    <t>(820-821)</t>
-  </si>
-  <si>
-    <t>Incompatibilidad de tipos …</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Decimal</t>
-    </r>
-  </si>
-  <si>
-    <t>Negativo</t>
-  </si>
-  <si>
-    <t>851-852</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> SIMPLEEXP-PAS </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF3E529"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> H0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">&gt;&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">SIMPLEEXP-PAS </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF3E529"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> H0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFA50021"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ASIGN J3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">** </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">FACTOR </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF3E529"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> D0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">&amp; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">OPBIT </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF3E529"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> M0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>^</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ANDLOG </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF3E529"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> O0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">| </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">XORLOG </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF3E529"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> P0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&amp;&amp;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> NOT </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF3E529"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Q0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>##</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> NOT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF3E529"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> @</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Q0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>INNOT</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ORLOG</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF3E529"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> @</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> L0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>IN</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ORLOG </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF3E529"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> L0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ISNOT</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ORLOG </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF3E529"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> L0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>IS</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ORLOG</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF3E529"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> @</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> L0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ORLOG </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF3E529"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> L0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">&gt;= </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ORLOG</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF3E529"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>L0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">!= </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">ORLOG </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFF3E529"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> L0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">== </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">ORLOG </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF3E529"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> L0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;=</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ORLOG </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF3E529"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">@ </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>L0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ORLOG </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF3E529"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> L0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>!</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> EXP-PAS </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF3E529"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> F0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>||</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> AND </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF3E529"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> G0</t>
-    </r>
-  </si>
-  <si>
-    <t>S2</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>if</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> OR </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> EST</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A3 K0</t>
-    </r>
-  </si>
-  <si>
-    <t>IF (booleano)</t>
-  </si>
-  <si>
-    <t>ERRORES DE SEMANTICA 1</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>elif</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> OR </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8" tint="0.39997558519241921"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>EST</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A3 K0</t>
-    </r>
-  </si>
-  <si>
-    <t>ELIF (booleano)</t>
-  </si>
-  <si>
-    <t>WHILE (booleano)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">while </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">OR </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF26AD5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>EST</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">A3 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>wend</t>
-    </r>
-  </si>
-  <si>
-    <t>La EXP tiene que ser Booleana</t>
-  </si>
-  <si>
-    <t>ID debe ser mismo tipo que EXP</t>
-  </si>
-  <si>
-    <t>La cant. de dimensiones utilizadas en una lista de arreglo debe ser igual a la declarada</t>
-  </si>
-  <si>
-    <t>1010 - 1012</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1020 - 1021</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> I0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> I0</t>
-    </r>
-  </si>
-  <si>
-    <t>(822 - 824)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> I0</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">OR I1 I2 </t>
-  </si>
-  <si>
-    <t>Lista-Arreglo</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ARR </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">@ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFA50021"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> J2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <t>860 - 861</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">J0 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">id </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">J1 </t>
-    </r>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>La organizacion de los datos de inicializacion de una lista tipo arr deben tener un orden</t>
-  </si>
-  <si>
-    <t>Fuera de limite</t>
-  </si>
-  <si>
-    <t>Los diccionarios no tienen posiciones negativas</t>
-  </si>
-  <si>
-    <t>Diferente valor de llave</t>
-  </si>
-  <si>
-    <t>Las tuplas no tienen posiciones negativas</t>
-  </si>
-  <si>
-    <t>Fuera de dimension</t>
-  </si>
-  <si>
-    <t>La EXP debe ser entera</t>
-  </si>
-  <si>
-    <t>ERRORES DE SEMANTICA 2</t>
-  </si>
-  <si>
-    <t>845 - 846</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> J5 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-  </si>
-  <si>
-    <t>ID debe ser var, par, arr, list, dicc, rang para recibir valor</t>
-  </si>
-  <si>
-    <t>La cant. de parametros debe ser igual a la declarada</t>
-  </si>
-  <si>
-    <t>Valor invalido</t>
-  </si>
-  <si>
-    <t>Id for</t>
-  </si>
-  <si>
-    <t>for</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">OR  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFA50021"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-  </si>
-  <si>
-    <t>Return</t>
-  </si>
-  <si>
-    <r>
-      <t>Return</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> OR </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9999FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-  </si>
-  <si>
-    <t>(804, -804)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">def </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> id ( </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">A1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="7"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">PROGRAM </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF7A7E6"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>EST A3</t>
-    </r>
-  </si>
-  <si>
-    <t>End EST</t>
-  </si>
-  <si>
-    <t>s2</t>
-  </si>
-  <si>
-    <t>ID debe ser clase procedimiento</t>
-  </si>
-  <si>
-    <t>ID debe ser clase funcion</t>
-  </si>
-  <si>
-    <t>ID debe ser declarado antes de ser utilizado</t>
+    <t>863 , 864</t>
   </si>
 </sst>
 </file>
@@ -7024,7 +7077,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="23">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7150,6 +7203,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF9999FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7315,7 +7374,7 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7449,6 +7508,8 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="21" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7476,8 +7537,11 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="20% - Énfasis5" xfId="6" builtinId="46"/>
@@ -7935,8 +7999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE3FA8B9-A47E-429A-BD32-FD36D0235D3B}">
   <dimension ref="B1:DI168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P46" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="Q51" sqref="Q51"/>
+    <sheetView tabSelected="1" topLeftCell="C51" workbookViewId="0">
+      <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7961,40 +8025,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="77"/>
-      <c r="J1" s="74" t="s">
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="79"/>
+      <c r="J1" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74" t="s">
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
       <c r="U1" s="5"/>
       <c r="V1" s="5"/>
     </row>
     <row r="2" spans="2:113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="78"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="74"/>
-      <c r="O2" s="74"/>
-      <c r="Q2" s="81" t="s">
+      <c r="B2" s="80"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="76"/>
+      <c r="O2" s="76"/>
+      <c r="Q2" s="83" t="s">
         <v>301</v>
       </c>
-      <c r="R2" s="81"/>
+      <c r="R2" s="83"/>
       <c r="S2" s="18"/>
       <c r="T2" s="18"/>
       <c r="U2" s="18"/>
@@ -8105,7 +8169,7 @@
         <v>298</v>
       </c>
       <c r="F3" s="54" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G3" s="44" t="s">
         <v>299</v>
@@ -8153,10 +8217,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F4" s="54" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G4" s="48" t="s">
         <v>304</v>
@@ -8201,16 +8265,16 @@
         <v>1</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F5" s="54" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G5" s="46" t="s">
         <v>307</v>
       </c>
       <c r="H5" s="45" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="J5" s="9" t="s">
         <v>124</v>
@@ -8252,7 +8316,7 @@
         <v>310</v>
       </c>
       <c r="F6" s="54" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G6" s="47" t="s">
         <v>308</v>
@@ -8300,7 +8364,7 @@
         <v>311</v>
       </c>
       <c r="F7" s="54" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G7" s="43" t="s">
         <v>309</v>
@@ -8345,13 +8409,13 @@
         <v>1</v>
       </c>
       <c r="E8" s="25" t="s">
+        <v>407</v>
+      </c>
+      <c r="F8" s="54" t="s">
+        <v>409</v>
+      </c>
+      <c r="G8" s="74" t="s">
         <v>408</v>
-      </c>
-      <c r="F8" s="54" t="s">
-        <v>410</v>
-      </c>
-      <c r="G8" s="83" t="s">
-        <v>409</v>
       </c>
       <c r="H8" s="45">
         <v>862</v>
@@ -8898,7 +8962,7 @@
         <v>317</v>
       </c>
       <c r="F22" s="54" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G22" s="50" t="s">
         <v>314</v>
@@ -8946,7 +9010,7 @@
         <v>318</v>
       </c>
       <c r="F23" s="54" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G23" s="51" t="s">
         <v>313</v>
@@ -8994,13 +9058,13 @@
         <v>319</v>
       </c>
       <c r="F24" s="54" t="s">
-        <v>335</v>
+        <v>413</v>
       </c>
       <c r="G24" s="52" t="s">
         <v>315</v>
       </c>
       <c r="H24" s="45" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J24" s="9" t="s">
         <v>142</v>
@@ -9042,13 +9106,13 @@
         <v>320</v>
       </c>
       <c r="F25" s="54" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G25" s="53" t="s">
         <v>316</v>
       </c>
       <c r="H25" s="45" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J25" s="9" t="s">
         <v>143</v>
@@ -9126,7 +9190,7 @@
         <v>1</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="1"/>
@@ -9213,10 +9277,10 @@
         <v>27</v>
       </c>
       <c r="F29" s="54" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G29" s="64" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H29" s="57">
         <v>850</v>
@@ -9259,7 +9323,7 @@
         <v>1</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="1"/>
@@ -9300,7 +9364,7 @@
         <v>1</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="1"/>
@@ -9341,7 +9405,7 @@
         <v>1</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J32" s="9" t="s">
         <v>150</v>
@@ -9380,7 +9444,7 @@
         <v>1</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J33" s="9" t="s">
         <v>151</v>
@@ -9458,7 +9522,7 @@
         <v>1</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J35" s="38" t="s">
         <v>153</v>
@@ -9531,7 +9595,7 @@
         <v>1</v>
       </c>
       <c r="E37" s="29" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J37" s="9" t="s">
         <v>185</v>
@@ -9566,7 +9630,7 @@
         <v>1</v>
       </c>
       <c r="E38" s="29" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J38" s="9" t="s">
         <v>155</v>
@@ -9586,10 +9650,10 @@
       <c r="O38" s="16" t="s">
         <v>252</v>
       </c>
-      <c r="Q38" s="81" t="s">
+      <c r="Q38" s="83" t="s">
         <v>300</v>
       </c>
-      <c r="R38" s="81"/>
+      <c r="R38" s="83"/>
       <c r="S38" s="37"/>
     </row>
     <row r="39" spans="2:19" x14ac:dyDescent="0.25">
@@ -9642,7 +9706,7 @@
         <v>1</v>
       </c>
       <c r="E40" s="30" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J40" s="9" t="s">
         <v>157</v>
@@ -9712,7 +9776,7 @@
         <v>1</v>
       </c>
       <c r="E42" s="30" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="J42" s="9" t="s">
         <v>159</v>
@@ -9764,10 +9828,10 @@
       <c r="O43" s="16" t="s">
         <v>291</v>
       </c>
-      <c r="Q43" s="73" t="s">
-        <v>368</v>
-      </c>
-      <c r="R43" s="73"/>
+      <c r="Q43" s="75" t="s">
+        <v>367</v>
+      </c>
+      <c r="R43" s="75"/>
     </row>
     <row r="44" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B44" s="34">
@@ -9780,7 +9844,7 @@
         <v>1</v>
       </c>
       <c r="E44" s="25" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J44" s="9" t="s">
         <v>161</v>
@@ -9804,7 +9868,7 @@
         <v>750</v>
       </c>
       <c r="R44" s="16" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="45" spans="2:19" x14ac:dyDescent="0.25">
@@ -9818,7 +9882,7 @@
         <v>1</v>
       </c>
       <c r="E45" s="25" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="J45" s="9" t="s">
         <v>162</v>
@@ -9884,7 +9948,7 @@
         <v>1</v>
       </c>
       <c r="E47" s="25" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J47" s="9" t="s">
         <v>164</v>
@@ -9904,10 +9968,10 @@
       <c r="O47" s="16" t="s">
         <v>291</v>
       </c>
-      <c r="Q47" s="73" t="s">
-        <v>395</v>
-      </c>
-      <c r="R47" s="73"/>
+      <c r="Q47" s="75" t="s">
+        <v>394</v>
+      </c>
+      <c r="R47" s="75"/>
     </row>
     <row r="48" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B48" s="34">
@@ -9920,16 +9984,16 @@
         <v>1</v>
       </c>
       <c r="E48" s="25" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F48" s="54" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G48" s="51" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H48" s="45" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="J48" s="9" t="s">
         <v>165</v>
@@ -9950,13 +10014,13 @@
         <v>291</v>
       </c>
       <c r="P48" s="68" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Q48" s="62">
         <v>760</v>
       </c>
       <c r="R48" s="16" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="49" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9970,7 +10034,7 @@
         <v>1</v>
       </c>
       <c r="E49" s="25" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="J49" s="9" t="s">
         <v>166</v>
@@ -9991,13 +10055,13 @@
         <v>291</v>
       </c>
       <c r="P49" s="69" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="Q49" s="62">
         <v>761</v>
       </c>
       <c r="R49" s="67" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="50" spans="2:18" x14ac:dyDescent="0.25">
@@ -10011,7 +10075,7 @@
         <v>1</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="J50" s="9" t="s">
         <v>167</v>
@@ -10038,7 +10102,7 @@
         <v>762</v>
       </c>
       <c r="R50" s="16" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="51" spans="2:18" x14ac:dyDescent="0.25">
@@ -10079,7 +10143,7 @@
         <v>763</v>
       </c>
       <c r="R51" s="16" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="52" spans="2:18" x14ac:dyDescent="0.25">
@@ -10102,7 +10166,7 @@
         <v>764</v>
       </c>
       <c r="R52" s="42" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="53" spans="2:18" x14ac:dyDescent="0.25">
@@ -10125,7 +10189,7 @@
         <v>765</v>
       </c>
       <c r="R53" s="42" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="54" spans="2:18" x14ac:dyDescent="0.25">
@@ -10148,7 +10212,7 @@
         <v>766</v>
       </c>
       <c r="R54" s="42" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="55" spans="2:18" x14ac:dyDescent="0.25">
@@ -10171,7 +10235,7 @@
         <v>767</v>
       </c>
       <c r="R55" s="42" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="56" spans="2:18" x14ac:dyDescent="0.25">
@@ -10194,7 +10258,7 @@
         <v>768</v>
       </c>
       <c r="R56" s="61" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="57" spans="2:18" x14ac:dyDescent="0.25">
@@ -10217,7 +10281,7 @@
         <v>769</v>
       </c>
       <c r="R57" s="42" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="58" spans="2:18" x14ac:dyDescent="0.25">
@@ -10240,7 +10304,7 @@
         <v>770</v>
       </c>
       <c r="R58" s="42" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="59" spans="2:18" x14ac:dyDescent="0.25">
@@ -10263,7 +10327,7 @@
         <v>771</v>
       </c>
       <c r="R59" s="42" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="60" spans="2:18" x14ac:dyDescent="0.25">
@@ -10286,7 +10350,7 @@
         <v>772</v>
       </c>
       <c r="R60" s="42" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="61" spans="2:18" x14ac:dyDescent="0.25">
@@ -10300,13 +10364,13 @@
         <v>1</v>
       </c>
       <c r="E61" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="F61" s="54" t="s">
+        <v>335</v>
+      </c>
+      <c r="G61" s="70" t="s">
         <v>386</v>
-      </c>
-      <c r="F61" s="54" t="s">
-        <v>336</v>
-      </c>
-      <c r="G61" s="70" t="s">
-        <v>387</v>
       </c>
       <c r="H61" s="45">
         <v>844</v>
@@ -10318,7 +10382,7 @@
         <v>773</v>
       </c>
       <c r="R61" s="42" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="62" spans="2:18" x14ac:dyDescent="0.25">
@@ -10341,7 +10405,7 @@
         <v>774</v>
       </c>
       <c r="R62" s="42" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="63" spans="2:18" x14ac:dyDescent="0.25">
@@ -10364,7 +10428,7 @@
         <v>775</v>
       </c>
       <c r="R63" s="42" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="64" spans="2:18" x14ac:dyDescent="0.25">
@@ -10378,22 +10442,22 @@
         <v>1</v>
       </c>
       <c r="E64" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="F64" s="54" t="s">
+        <v>364</v>
+      </c>
+      <c r="G64" s="51" t="s">
+        <v>382</v>
+      </c>
+      <c r="H64" s="45" t="s">
         <v>384</v>
       </c>
-      <c r="F64" s="54" t="s">
-        <v>365</v>
-      </c>
-      <c r="G64" s="51" t="s">
-        <v>383</v>
-      </c>
-      <c r="H64" s="45" t="s">
-        <v>385</v>
-      </c>
       <c r="I64" s="54" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="J64" s="56" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K64" s="45">
         <v>851</v>
@@ -10405,7 +10469,7 @@
         <v>776</v>
       </c>
       <c r="R64" s="42" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="65" spans="2:18" x14ac:dyDescent="0.25">
@@ -10419,7 +10483,7 @@
         <v>1</v>
       </c>
       <c r="E65" s="31" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="P65" s="71">
         <v>1130</v>
@@ -10428,7 +10492,7 @@
         <v>777</v>
       </c>
       <c r="R65" s="42" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="66" spans="2:18" x14ac:dyDescent="0.25">
@@ -10442,18 +10506,27 @@
         <v>1</v>
       </c>
       <c r="E66" s="31" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F66" s="54" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G66" s="72" t="s">
         <v>307</v>
       </c>
       <c r="H66" s="45" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I66" s="2"/>
+      <c r="P66" s="71">
+        <v>1160</v>
+      </c>
+      <c r="Q66" s="84">
+        <v>778</v>
+      </c>
+      <c r="R66" s="85" t="s">
+        <v>414</v>
+      </c>
     </row>
     <row r="67" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B67" s="34">
@@ -10468,6 +10541,15 @@
       <c r="E67" s="28" t="s">
         <v>58</v>
       </c>
+      <c r="P67" s="71">
+        <v>1161</v>
+      </c>
+      <c r="Q67" s="84">
+        <v>779</v>
+      </c>
+      <c r="R67" s="85" t="s">
+        <v>414</v>
+      </c>
     </row>
     <row r="68" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B68" s="34">
@@ -10527,16 +10609,16 @@
         <v>1</v>
       </c>
       <c r="E71" s="28" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F71" s="54" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G71" s="56" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H71" s="45" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I71" s="54"/>
       <c r="K71" s="45"/>
@@ -10628,16 +10710,25 @@
         <v>1</v>
       </c>
       <c r="E77" s="25" t="s">
+        <v>365</v>
+      </c>
+      <c r="F77" s="54" t="s">
+        <v>364</v>
+      </c>
+      <c r="G77" s="47" t="s">
         <v>366</v>
-      </c>
-      <c r="F77" s="54" t="s">
-        <v>365</v>
-      </c>
-      <c r="G77" s="47" t="s">
-        <v>367</v>
       </c>
       <c r="H77" s="45">
         <v>1010</v>
+      </c>
+      <c r="I77" s="54" t="s">
+        <v>364</v>
+      </c>
+      <c r="J77" s="86" t="s">
+        <v>415</v>
+      </c>
+      <c r="K77" s="45" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="78" spans="2:18" x14ac:dyDescent="0.25">
@@ -10651,19 +10742,19 @@
         <v>1</v>
       </c>
       <c r="E78" s="25" t="s">
-        <v>324</v>
+        <v>416</v>
       </c>
       <c r="F78" s="54" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G78" s="55" t="s">
         <v>323</v>
       </c>
       <c r="H78" s="45" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I78" s="54" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J78" s="44" t="s">
         <v>299</v>
@@ -10683,19 +10774,19 @@
         <v>1</v>
       </c>
       <c r="E79" s="27" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F79" s="54" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G79" s="65" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H79" s="45">
         <v>1011</v>
       </c>
       <c r="I79" s="54" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J79" s="48" t="s">
         <v>304</v>
@@ -10745,13 +10836,13 @@
         <v>1</v>
       </c>
       <c r="E82" s="28" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F82" s="54" t="s">
-        <v>365</v>
-      </c>
-      <c r="G82" s="82" t="s">
-        <v>404</v>
+        <v>364</v>
+      </c>
+      <c r="G82" s="73" t="s">
+        <v>403</v>
       </c>
       <c r="H82" s="45">
         <v>1140</v>
@@ -10798,13 +10889,13 @@
         <v>1</v>
       </c>
       <c r="E85" s="25" t="s">
+        <v>368</v>
+      </c>
+      <c r="F85" s="54" t="s">
+        <v>364</v>
+      </c>
+      <c r="G85" s="63" t="s">
         <v>369</v>
-      </c>
-      <c r="F85" s="54" t="s">
-        <v>365</v>
-      </c>
-      <c r="G85" s="63" t="s">
-        <v>370</v>
       </c>
       <c r="H85" s="45">
         <v>1012</v>
@@ -10851,7 +10942,7 @@
         <v>1</v>
       </c>
       <c r="E88" s="25" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H88" s="45"/>
     </row>
@@ -10866,7 +10957,7 @@
         <v>1</v>
       </c>
       <c r="E89" s="25" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.25">
@@ -10880,7 +10971,7 @@
         <v>1</v>
       </c>
       <c r="E90" s="31" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.25">
@@ -10894,7 +10985,7 @@
         <v>1</v>
       </c>
       <c r="E91" s="25" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.25">
@@ -10908,7 +10999,7 @@
         <v>1</v>
       </c>
       <c r="E92" s="25" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="93" spans="2:8" x14ac:dyDescent="0.25">
@@ -10922,7 +11013,7 @@
         <v>1</v>
       </c>
       <c r="E93" s="25" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.25">
@@ -10936,7 +11027,7 @@
         <v>1</v>
       </c>
       <c r="E94" s="25" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.25">
@@ -10950,7 +11041,7 @@
         <v>1</v>
       </c>
       <c r="E95" s="25" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.25">
@@ -10964,7 +11055,7 @@
         <v>1</v>
       </c>
       <c r="E96" s="25" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.25">
@@ -10978,7 +11069,7 @@
         <v>1</v>
       </c>
       <c r="E97" s="25" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.25">
@@ -11006,7 +11097,7 @@
         <v>1</v>
       </c>
       <c r="E99" s="25" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.25">
@@ -11034,7 +11125,7 @@
         <v>1</v>
       </c>
       <c r="E101" s="25" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.25">
@@ -11062,7 +11153,7 @@
         <v>1</v>
       </c>
       <c r="E103" s="25" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.25">
@@ -11090,7 +11181,7 @@
         <v>1</v>
       </c>
       <c r="E105" s="25" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.25">
@@ -11104,7 +11195,7 @@
         <v>1</v>
       </c>
       <c r="E106" s="25" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.25">
@@ -11398,13 +11489,13 @@
         <v>1</v>
       </c>
       <c r="E127" s="28" t="s">
+        <v>340</v>
+      </c>
+      <c r="F127" s="54" t="s">
+        <v>335</v>
+      </c>
+      <c r="G127" s="58" t="s">
         <v>341</v>
-      </c>
-      <c r="F127" s="54" t="s">
-        <v>336</v>
-      </c>
-      <c r="G127" s="58" t="s">
-        <v>342</v>
       </c>
       <c r="H127" s="45">
         <v>853</v>

--- a/Producciones.xlsx
+++ b/Producciones.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Usuario\Documents\NetBeansProjects\Compilador\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5533067-B56B-450C-B8C6-280D91ABABE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A93E72C-B026-4902-8029-DB8B7A8AE2D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2415" yWindow="1140" windowWidth="17145" windowHeight="14130" xr2:uid="{CE99D781-93EC-43B9-9325-D9E8261D5F1E}"/>
+    <workbookView xWindow="13755" yWindow="2205" windowWidth="14250" windowHeight="13260" xr2:uid="{CE99D781-93EC-43B9-9325-D9E8261D5F1E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -7510,6 +7510,11 @@
     <xf numFmtId="0" fontId="33" fillId="21" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="33" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7537,11 +7542,6 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="20% - Énfasis5" xfId="6" builtinId="46"/>
@@ -7999,8 +7999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE3FA8B9-A47E-429A-BD32-FD36D0235D3B}">
   <dimension ref="B1:DI168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C51" workbookViewId="0">
-      <selection activeCell="E66" sqref="E66"/>
+    <sheetView tabSelected="1" topLeftCell="D16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8025,40 +8025,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="77" t="s">
+      <c r="B1" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="79"/>
-      <c r="J1" s="76" t="s">
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="82"/>
+      <c r="J1" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76" t="s">
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
       <c r="U1" s="5"/>
       <c r="V1" s="5"/>
     </row>
     <row r="2" spans="2:113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="80"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="76"/>
-      <c r="O2" s="76"/>
-      <c r="Q2" s="83" t="s">
+      <c r="B2" s="83"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="85"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="79"/>
+      <c r="Q2" s="86" t="s">
         <v>301</v>
       </c>
-      <c r="R2" s="83"/>
+      <c r="R2" s="86"/>
       <c r="S2" s="18"/>
       <c r="T2" s="18"/>
       <c r="U2" s="18"/>
@@ -9650,10 +9650,10 @@
       <c r="O38" s="16" t="s">
         <v>252</v>
       </c>
-      <c r="Q38" s="83" t="s">
+      <c r="Q38" s="86" t="s">
         <v>300</v>
       </c>
-      <c r="R38" s="83"/>
+      <c r="R38" s="86"/>
       <c r="S38" s="37"/>
     </row>
     <row r="39" spans="2:19" x14ac:dyDescent="0.25">
@@ -9828,10 +9828,10 @@
       <c r="O43" s="16" t="s">
         <v>291</v>
       </c>
-      <c r="Q43" s="75" t="s">
+      <c r="Q43" s="78" t="s">
         <v>367</v>
       </c>
-      <c r="R43" s="75"/>
+      <c r="R43" s="78"/>
     </row>
     <row r="44" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B44" s="34">
@@ -9968,10 +9968,10 @@
       <c r="O47" s="16" t="s">
         <v>291</v>
       </c>
-      <c r="Q47" s="75" t="s">
+      <c r="Q47" s="78" t="s">
         <v>394</v>
       </c>
-      <c r="R47" s="75"/>
+      <c r="R47" s="78"/>
     </row>
     <row r="48" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B48" s="34">
@@ -10521,10 +10521,10 @@
       <c r="P66" s="71">
         <v>1160</v>
       </c>
-      <c r="Q66" s="84">
+      <c r="Q66" s="75">
         <v>778</v>
       </c>
-      <c r="R66" s="85" t="s">
+      <c r="R66" s="76" t="s">
         <v>414</v>
       </c>
     </row>
@@ -10544,10 +10544,10 @@
       <c r="P67" s="71">
         <v>1161</v>
       </c>
-      <c r="Q67" s="84">
+      <c r="Q67" s="75">
         <v>779</v>
       </c>
-      <c r="R67" s="85" t="s">
+      <c r="R67" s="76" t="s">
         <v>414</v>
       </c>
     </row>
@@ -10724,7 +10724,7 @@
       <c r="I77" s="54" t="s">
         <v>364</v>
       </c>
-      <c r="J77" s="86" t="s">
+      <c r="J77" s="77" t="s">
         <v>415</v>
       </c>
       <c r="K77" s="45" t="s">

--- a/Producciones.xlsx
+++ b/Producciones.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Usuario\Documents\NetBeansProjects\Compilador\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A93E72C-B026-4902-8029-DB8B7A8AE2D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27EFCC7F-6CF0-4421-A0E5-496480545531}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13755" yWindow="2205" windowWidth="14250" windowHeight="13260" xr2:uid="{CE99D781-93EC-43B9-9325-D9E8261D5F1E}"/>
+    <workbookView xWindow="13380" yWindow="1935" windowWidth="14430" windowHeight="11385" xr2:uid="{CE99D781-93EC-43B9-9325-D9E8261D5F1E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="419">
   <si>
     <t>PRODUCIONES</t>
   </si>
@@ -6346,6 +6346,285 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF7A7E6"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EST A3</t>
+    </r>
+  </si>
+  <si>
+    <t>End EST</t>
+  </si>
+  <si>
+    <t>s2</t>
+  </si>
+  <si>
+    <t>ID debe ser clase procedimiento</t>
+  </si>
+  <si>
+    <t>ID debe ser clase funcion</t>
+  </si>
+  <si>
+    <t>ID debe ser declarado antes de ser utilizado</t>
+  </si>
+  <si>
+    <t>A, s1</t>
+  </si>
+  <si>
+    <t>Se esperaba rango positivo</t>
+  </si>
+  <si>
+    <t>For value</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">@ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFA401"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> OR </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFA401"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>to</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> OR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> :</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> EST A3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">End </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+  </si>
+  <si>
+    <t>863 , 864</t>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">def </t>
     </r>
     <r>
@@ -6470,6 +6749,16 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t xml:space="preserve">@ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD3034D"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>@</t>
     </r>
     <r>
@@ -6495,290 +6784,14 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF7A7E6"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>EST A3</t>
-    </r>
-  </si>
-  <si>
-    <t>End EST</t>
-  </si>
-  <si>
-    <t>s2</t>
-  </si>
-  <si>
-    <t>ID debe ser clase procedimiento</t>
-  </si>
-  <si>
-    <t>ID debe ser clase funcion</t>
-  </si>
-  <si>
-    <t>ID debe ser declarado antes de ser utilizado</t>
-  </si>
-  <si>
-    <t>A, s1</t>
-  </si>
-  <si>
-    <t>Se esperaba rango positivo</t>
-  </si>
-  <si>
-    <t>For value</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">for </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">@ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFA401"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> OR </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFA401"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>to</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> OR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> :</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> EST A3 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">End </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-  </si>
-  <si>
-    <t>863 , 864</t>
+    <t>No return?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="42" x14ac:knownFonts="1">
+  <fonts count="43" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7076,8 +7089,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFD3034D"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="24">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7209,6 +7229,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD3034D"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7374,7 +7400,7 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7542,6 +7568,7 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="20% - Énfasis5" xfId="6" builtinId="46"/>
@@ -7677,6 +7704,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFD3034D"/>
       <color rgb="FFF7A7E6"/>
       <color rgb="FF9999FF"/>
       <color rgb="FFA50021"/>
@@ -7686,7 +7714,6 @@
       <color rgb="FFCC0000"/>
       <color rgb="FFF3E529"/>
       <color rgb="FFE0AAB9"/>
-      <color rgb="FFFFA605"/>
     </mruColors>
   </colors>
   <extLst>
@@ -7999,8 +8026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE3FA8B9-A47E-429A-BD32-FD36D0235D3B}">
   <dimension ref="B1:DI168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8217,7 +8244,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="F4" s="54" t="s">
         <v>334</v>
@@ -8409,16 +8436,16 @@
         <v>1</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F8" s="54" t="s">
-        <v>409</v>
-      </c>
-      <c r="G8" s="74" t="s">
         <v>408</v>
       </c>
+      <c r="G8" s="87" t="s">
+        <v>418</v>
+      </c>
       <c r="H8" s="45">
-        <v>862</v>
+        <v>1150</v>
       </c>
       <c r="J8" s="9" t="s">
         <v>127</v>
@@ -8459,7 +8486,15 @@
       <c r="E9" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="H9" s="45"/>
+      <c r="F9" s="54" t="s">
+        <v>408</v>
+      </c>
+      <c r="G9" s="74" t="s">
+        <v>407</v>
+      </c>
+      <c r="H9" s="45">
+        <v>862</v>
+      </c>
       <c r="J9" s="9" t="s">
         <v>128</v>
       </c>
@@ -9058,7 +9093,7 @@
         <v>319</v>
       </c>
       <c r="F24" s="54" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G24" s="52" t="s">
         <v>315</v>
@@ -10428,7 +10463,7 @@
         <v>775</v>
       </c>
       <c r="R63" s="42" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="64" spans="2:18" x14ac:dyDescent="0.25">
@@ -10469,7 +10504,7 @@
         <v>776</v>
       </c>
       <c r="R64" s="42" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="65" spans="2:18" x14ac:dyDescent="0.25">
@@ -10492,7 +10527,7 @@
         <v>777</v>
       </c>
       <c r="R65" s="42" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="66" spans="2:18" x14ac:dyDescent="0.25">
@@ -10525,7 +10560,7 @@
         <v>778</v>
       </c>
       <c r="R66" s="76" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="67" spans="2:18" x14ac:dyDescent="0.25">
@@ -10548,7 +10583,7 @@
         <v>779</v>
       </c>
       <c r="R67" s="76" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="68" spans="2:18" x14ac:dyDescent="0.25">
@@ -10725,10 +10760,10 @@
         <v>364</v>
       </c>
       <c r="J77" s="77" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="K77" s="45" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="78" spans="2:18" x14ac:dyDescent="0.25">
@@ -10742,7 +10777,7 @@
         <v>1</v>
       </c>
       <c r="E78" s="25" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F78" s="54" t="s">
         <v>334</v>

--- a/Producciones.xlsx
+++ b/Producciones.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Usuario\Documents\NetBeansProjects\Compilador\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27EFCC7F-6CF0-4421-A0E5-496480545531}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A89E086F-353D-4876-A5C4-C41AA6A84A6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13380" yWindow="1935" windowWidth="14430" windowHeight="11385" xr2:uid="{CE99D781-93EC-43B9-9325-D9E8261D5F1E}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="14430" windowHeight="11385" xr2:uid="{CE99D781-93EC-43B9-9325-D9E8261D5F1E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="422">
   <si>
     <t>PRODUCIONES</t>
   </si>
@@ -4728,9 +4728,6 @@
     </r>
   </si>
   <si>
-    <t>(820-821)</t>
-  </si>
-  <si>
     <t>Incompatibilidad de tipos …</t>
   </si>
   <si>
@@ -5674,6 +5671,857 @@
     <t>S2</t>
   </si>
   <si>
+    <t>IF (booleano)</t>
+  </si>
+  <si>
+    <t>ERRORES DE SEMANTICA 1</t>
+  </si>
+  <si>
+    <t>ELIF (booleano)</t>
+  </si>
+  <si>
+    <t>WHILE (booleano)</t>
+  </si>
+  <si>
+    <t>La EXP tiene que ser Booleana</t>
+  </si>
+  <si>
+    <t>ID debe ser mismo tipo que EXP</t>
+  </si>
+  <si>
+    <t>La cant. de dimensiones utilizadas en una lista de arreglo debe ser igual a la declarada</t>
+  </si>
+  <si>
+    <t>1010 - 1012</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1020 - 1021</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I0</t>
+    </r>
+  </si>
+  <si>
+    <t>(822 - 824)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I0</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">OR I1 I2 </t>
+  </si>
+  <si>
+    <t>Lista-Arreglo</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ARR </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">@ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA50021"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> J2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>860 - 861</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">J0 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">id </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">J1 </t>
+    </r>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>La organizacion de los datos de inicializacion de una lista tipo arr deben tener un orden</t>
+  </si>
+  <si>
+    <t>Fuera de limite</t>
+  </si>
+  <si>
+    <t>Los diccionarios no tienen posiciones negativas</t>
+  </si>
+  <si>
+    <t>Diferente valor de llave</t>
+  </si>
+  <si>
+    <t>Las tuplas no tienen posiciones negativas</t>
+  </si>
+  <si>
+    <t>Fuera de dimension</t>
+  </si>
+  <si>
+    <t>La EXP debe ser entera</t>
+  </si>
+  <si>
+    <t>ERRORES DE SEMANTICA 2</t>
+  </si>
+  <si>
+    <t>845 - 846</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> J5 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+  </si>
+  <si>
+    <t>ID debe ser var, par, arr, list, dicc, rang para recibir valor</t>
+  </si>
+  <si>
+    <t>La cant. de parametros debe ser igual a la declarada</t>
+  </si>
+  <si>
+    <t>Valor invalido</t>
+  </si>
+  <si>
+    <t>Id for</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">OR  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA50021"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+  </si>
+  <si>
+    <t>Return</t>
+  </si>
+  <si>
+    <r>
+      <t>Return</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> OR </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9999FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+  </si>
+  <si>
+    <t>(804, -804)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF7A7E6"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EST A3</t>
+    </r>
+  </si>
+  <si>
+    <t>End EST</t>
+  </si>
+  <si>
+    <t>s2</t>
+  </si>
+  <si>
+    <t>ID debe ser clase procedimiento</t>
+  </si>
+  <si>
+    <t>ID debe ser clase funcion</t>
+  </si>
+  <si>
+    <t>ID debe ser declarado antes de ser utilizado</t>
+  </si>
+  <si>
+    <t>A, s1</t>
+  </si>
+  <si>
+    <t>Se esperaba rango positivo</t>
+  </si>
+  <si>
+    <t>For value</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">@ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFA401"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> OR </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFA401"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>to</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> OR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> :</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> EST A3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">End </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+  </si>
+  <si>
+    <t>863 , 864</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">def </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> id ( </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">A1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">PROGRAM </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">@ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD3034D"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A0</t>
+    </r>
+  </si>
+  <si>
+    <t>No return?</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -5693,6 +6541,27 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve"> OR </t>
     </r>
     <r>
@@ -5761,10 +6630,129 @@
     </r>
   </si>
   <si>
-    <t>IF (booleano)</t>
-  </si>
-  <si>
-    <t>ERRORES DE SEMANTICA 1</t>
+    <t>(820, 821)</t>
+  </si>
+  <si>
+    <t>1009, 1010</t>
+  </si>
+  <si>
+    <r>
+      <t>while</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF7A7E6"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF26AD5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">OR </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF26AD5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EST</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">A3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>wend</t>
+    </r>
   </si>
   <si>
     <r>
@@ -5786,6 +6774,27 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve"> OR </t>
     </r>
     <r>
@@ -5853,945 +6862,17 @@
     </r>
   </si>
   <si>
-    <t>ELIF (booleano)</t>
-  </si>
-  <si>
-    <t>WHILE (booleano)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">while </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">OR </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF26AD5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>EST</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">A3 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>wend</t>
-    </r>
-  </si>
-  <si>
-    <t>La EXP tiene que ser Booleana</t>
-  </si>
-  <si>
-    <t>ID debe ser mismo tipo que EXP</t>
-  </si>
-  <si>
-    <t>La cant. de dimensiones utilizadas en una lista de arreglo debe ser igual a la declarada</t>
-  </si>
-  <si>
-    <t>1010 - 1012</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1020 - 1021</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> I0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> I0</t>
-    </r>
-  </si>
-  <si>
-    <t>(822 - 824)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> I0</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">OR I1 I2 </t>
-  </si>
-  <si>
-    <t>Lista-Arreglo</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ARR </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">@ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFA50021"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> J2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <t>860 - 861</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">J0 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">id </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">J1 </t>
-    </r>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>La organizacion de los datos de inicializacion de una lista tipo arr deben tener un orden</t>
-  </si>
-  <si>
-    <t>Fuera de limite</t>
-  </si>
-  <si>
-    <t>Los diccionarios no tienen posiciones negativas</t>
-  </si>
-  <si>
-    <t>Diferente valor de llave</t>
-  </si>
-  <si>
-    <t>Las tuplas no tienen posiciones negativas</t>
-  </si>
-  <si>
-    <t>Fuera de dimension</t>
-  </si>
-  <si>
-    <t>La EXP debe ser entera</t>
-  </si>
-  <si>
-    <t>ERRORES DE SEMANTICA 2</t>
-  </si>
-  <si>
-    <t>845 - 846</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> J5 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-  </si>
-  <si>
-    <t>ID debe ser var, par, arr, list, dicc, rang para recibir valor</t>
-  </si>
-  <si>
-    <t>La cant. de parametros debe ser igual a la declarada</t>
-  </si>
-  <si>
-    <t>Valor invalido</t>
-  </si>
-  <si>
-    <t>Id for</t>
-  </si>
-  <si>
-    <t>for</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">OR  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFA50021"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-  </si>
-  <si>
-    <t>Return</t>
-  </si>
-  <si>
-    <r>
-      <t>Return</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> OR </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9999FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-  </si>
-  <si>
-    <t>(804, -804)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF7A7E6"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>EST A3</t>
-    </r>
-  </si>
-  <si>
-    <t>End EST</t>
-  </si>
-  <si>
-    <t>s2</t>
-  </si>
-  <si>
-    <t>ID debe ser clase procedimiento</t>
-  </si>
-  <si>
-    <t>ID debe ser clase funcion</t>
-  </si>
-  <si>
-    <t>ID debe ser declarado antes de ser utilizado</t>
-  </si>
-  <si>
-    <t>A, s1</t>
-  </si>
-  <si>
-    <t>Se esperaba rango positivo</t>
-  </si>
-  <si>
-    <t>For value</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">for </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">@ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFA401"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> OR </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFA401"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>to</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> OR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> :</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> EST A3 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">End </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-  </si>
-  <si>
-    <t>863 , 864</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">def </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> id ( </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">A1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="7"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">PROGRAM </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">@ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD3034D"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A0</t>
-    </r>
-  </si>
-  <si>
-    <t>No return?</t>
+    <t>1009, 1012</t>
+  </si>
+  <si>
+    <t>1009, 1011</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="43" x14ac:knownFonts="1">
+  <fonts count="44" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7092,6 +7173,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFD3034D"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -7400,7 +7488,7 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7541,6 +7629,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="33" fillId="23" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7568,7 +7657,9 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="20% - Énfasis5" xfId="6" builtinId="46"/>
@@ -7704,12 +7795,12 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFF26AD5"/>
+      <color rgb="FFF7A7E6"/>
       <color rgb="FFD3034D"/>
-      <color rgb="FFF7A7E6"/>
       <color rgb="FF9999FF"/>
       <color rgb="FFA50021"/>
       <color rgb="FF0099CC"/>
-      <color rgb="FFF26AD5"/>
       <color rgb="FFFFCCFF"/>
       <color rgb="FFCC0000"/>
       <color rgb="FFF3E529"/>
@@ -8026,8 +8117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE3FA8B9-A47E-429A-BD32-FD36D0235D3B}">
   <dimension ref="B1:DI168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="D61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H83" sqref="H83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8052,40 +8143,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="80" t="s">
+      <c r="B1" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="82"/>
-      <c r="J1" s="79" t="s">
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="83"/>
+      <c r="J1" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79" t="s">
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
       <c r="U1" s="5"/>
       <c r="V1" s="5"/>
     </row>
     <row r="2" spans="2:113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="83"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="85"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
-      <c r="N2" s="79"/>
-      <c r="O2" s="79"/>
-      <c r="Q2" s="86" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="86"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="Q2" s="87" t="s">
         <v>301</v>
       </c>
-      <c r="R2" s="86"/>
+      <c r="R2" s="87"/>
       <c r="S2" s="18"/>
       <c r="T2" s="18"/>
       <c r="U2" s="18"/>
@@ -8244,7 +8335,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="F4" s="54" t="s">
         <v>334</v>
@@ -8301,7 +8392,7 @@
         <v>307</v>
       </c>
       <c r="H5" s="45" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="J5" s="9" t="s">
         <v>124</v>
@@ -8436,13 +8527,13 @@
         <v>1</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="F8" s="54" t="s">
-        <v>408</v>
-      </c>
-      <c r="G8" s="87" t="s">
-        <v>418</v>
+        <v>404</v>
+      </c>
+      <c r="G8" s="78" t="s">
+        <v>414</v>
       </c>
       <c r="H8" s="45">
         <v>1150</v>
@@ -8487,10 +8578,10 @@
         <v>68</v>
       </c>
       <c r="F9" s="54" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="G9" s="74" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="H9" s="45">
         <v>862</v>
@@ -9093,7 +9184,7 @@
         <v>319</v>
       </c>
       <c r="F24" s="54" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="G24" s="52" t="s">
         <v>315</v>
@@ -9557,7 +9648,7 @@
         <v>1</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J35" s="38" t="s">
         <v>153</v>
@@ -9685,10 +9776,10 @@
       <c r="O38" s="16" t="s">
         <v>252</v>
       </c>
-      <c r="Q38" s="86" t="s">
+      <c r="Q38" s="87" t="s">
         <v>300</v>
       </c>
-      <c r="R38" s="86"/>
+      <c r="R38" s="87"/>
       <c r="S38" s="37"/>
     </row>
     <row r="39" spans="2:19" x14ac:dyDescent="0.25">
@@ -9741,7 +9832,7 @@
         <v>1</v>
       </c>
       <c r="E40" s="30" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="J40" s="9" t="s">
         <v>157</v>
@@ -9811,7 +9902,7 @@
         <v>1</v>
       </c>
       <c r="E42" s="30" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J42" s="9" t="s">
         <v>159</v>
@@ -9863,10 +9954,10 @@
       <c r="O43" s="16" t="s">
         <v>291</v>
       </c>
-      <c r="Q43" s="78" t="s">
-        <v>367</v>
-      </c>
-      <c r="R43" s="78"/>
+      <c r="Q43" s="79" t="s">
+        <v>365</v>
+      </c>
+      <c r="R43" s="79"/>
     </row>
     <row r="44" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B44" s="34">
@@ -9879,7 +9970,7 @@
         <v>1</v>
       </c>
       <c r="E44" s="25" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J44" s="9" t="s">
         <v>161</v>
@@ -9903,7 +9994,7 @@
         <v>750</v>
       </c>
       <c r="R44" s="16" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="45" spans="2:19" x14ac:dyDescent="0.25">
@@ -9917,7 +10008,7 @@
         <v>1</v>
       </c>
       <c r="E45" s="25" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J45" s="9" t="s">
         <v>162</v>
@@ -9983,7 +10074,7 @@
         <v>1</v>
       </c>
       <c r="E47" s="25" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="J47" s="9" t="s">
         <v>164</v>
@@ -10003,10 +10094,10 @@
       <c r="O47" s="16" t="s">
         <v>291</v>
       </c>
-      <c r="Q47" s="78" t="s">
-        <v>394</v>
-      </c>
-      <c r="R47" s="78"/>
+      <c r="Q47" s="79" t="s">
+        <v>390</v>
+      </c>
+      <c r="R47" s="79"/>
     </row>
     <row r="48" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B48" s="34">
@@ -10019,16 +10110,16 @@
         <v>1</v>
       </c>
       <c r="E48" s="25" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F48" s="54" t="s">
         <v>334</v>
       </c>
       <c r="G48" s="51" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="H48" s="45" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="J48" s="9" t="s">
         <v>165</v>
@@ -10049,13 +10140,13 @@
         <v>291</v>
       </c>
       <c r="P48" s="68" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="Q48" s="62">
         <v>760</v>
       </c>
       <c r="R48" s="16" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="49" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10069,7 +10160,7 @@
         <v>1</v>
       </c>
       <c r="E49" s="25" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="J49" s="9" t="s">
         <v>166</v>
@@ -10090,13 +10181,13 @@
         <v>291</v>
       </c>
       <c r="P49" s="69" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="Q49" s="62">
         <v>761</v>
       </c>
       <c r="R49" s="67" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="50" spans="2:18" x14ac:dyDescent="0.25">
@@ -10110,7 +10201,7 @@
         <v>1</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="J50" s="9" t="s">
         <v>167</v>
@@ -10137,7 +10228,7 @@
         <v>762</v>
       </c>
       <c r="R50" s="16" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="51" spans="2:18" x14ac:dyDescent="0.25">
@@ -10178,7 +10269,7 @@
         <v>763</v>
       </c>
       <c r="R51" s="16" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="52" spans="2:18" x14ac:dyDescent="0.25">
@@ -10201,7 +10292,7 @@
         <v>764</v>
       </c>
       <c r="R52" s="42" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="53" spans="2:18" x14ac:dyDescent="0.25">
@@ -10224,7 +10315,7 @@
         <v>765</v>
       </c>
       <c r="R53" s="42" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="54" spans="2:18" x14ac:dyDescent="0.25">
@@ -10247,7 +10338,7 @@
         <v>766</v>
       </c>
       <c r="R54" s="42" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="55" spans="2:18" x14ac:dyDescent="0.25">
@@ -10270,7 +10361,7 @@
         <v>767</v>
       </c>
       <c r="R55" s="42" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="56" spans="2:18" x14ac:dyDescent="0.25">
@@ -10293,7 +10384,7 @@
         <v>768</v>
       </c>
       <c r="R56" s="61" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="57" spans="2:18" x14ac:dyDescent="0.25">
@@ -10316,7 +10407,7 @@
         <v>769</v>
       </c>
       <c r="R57" s="42" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="58" spans="2:18" x14ac:dyDescent="0.25">
@@ -10339,7 +10430,7 @@
         <v>770</v>
       </c>
       <c r="R58" s="42" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="59" spans="2:18" x14ac:dyDescent="0.25">
@@ -10362,7 +10453,7 @@
         <v>771</v>
       </c>
       <c r="R59" s="42" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="60" spans="2:18" x14ac:dyDescent="0.25">
@@ -10385,7 +10476,7 @@
         <v>772</v>
       </c>
       <c r="R60" s="42" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="61" spans="2:18" x14ac:dyDescent="0.25">
@@ -10399,13 +10490,13 @@
         <v>1</v>
       </c>
       <c r="E61" s="25" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F61" s="54" t="s">
         <v>335</v>
       </c>
       <c r="G61" s="70" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="H61" s="45">
         <v>844</v>
@@ -10417,7 +10508,7 @@
         <v>773</v>
       </c>
       <c r="R61" s="42" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="62" spans="2:18" x14ac:dyDescent="0.25">
@@ -10440,7 +10531,7 @@
         <v>774</v>
       </c>
       <c r="R62" s="42" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="63" spans="2:18" x14ac:dyDescent="0.25">
@@ -10463,7 +10554,7 @@
         <v>775</v>
       </c>
       <c r="R63" s="42" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="64" spans="2:18" x14ac:dyDescent="0.25">
@@ -10477,16 +10568,16 @@
         <v>1</v>
       </c>
       <c r="E64" s="31" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F64" s="54" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G64" s="51" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="H64" s="45" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="I64" s="54" t="s">
         <v>335</v>
@@ -10504,7 +10595,7 @@
         <v>776</v>
       </c>
       <c r="R64" s="42" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="65" spans="2:18" x14ac:dyDescent="0.25">
@@ -10518,7 +10609,7 @@
         <v>1</v>
       </c>
       <c r="E65" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="P65" s="71">
         <v>1130</v>
@@ -10527,7 +10618,7 @@
         <v>777</v>
       </c>
       <c r="R65" s="42" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="66" spans="2:18" x14ac:dyDescent="0.25">
@@ -10541,16 +10632,16 @@
         <v>1</v>
       </c>
       <c r="E66" s="31" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="F66" s="54" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G66" s="72" t="s">
         <v>307</v>
       </c>
       <c r="H66" s="45" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="I66" s="2"/>
       <c r="P66" s="71">
@@ -10560,7 +10651,7 @@
         <v>778</v>
       </c>
       <c r="R66" s="76" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="67" spans="2:18" x14ac:dyDescent="0.25">
@@ -10583,7 +10674,7 @@
         <v>779</v>
       </c>
       <c r="R67" s="76" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="68" spans="2:18" x14ac:dyDescent="0.25">
@@ -10644,7 +10735,7 @@
         <v>1</v>
       </c>
       <c r="E71" s="28" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="F71" s="54" t="s">
         <v>335</v>
@@ -10653,7 +10744,7 @@
         <v>328</v>
       </c>
       <c r="H71" s="45" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I71" s="54"/>
       <c r="K71" s="45"/>
@@ -10745,25 +10836,25 @@
         <v>1</v>
       </c>
       <c r="E77" s="25" t="s">
-        <v>365</v>
+        <v>415</v>
       </c>
       <c r="F77" s="54" t="s">
+        <v>363</v>
+      </c>
+      <c r="G77" s="47" t="s">
         <v>364</v>
       </c>
-      <c r="G77" s="47" t="s">
-        <v>366</v>
-      </c>
-      <c r="H77" s="45">
-        <v>1010</v>
+      <c r="H77" s="88" t="s">
+        <v>417</v>
       </c>
       <c r="I77" s="54" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="J77" s="77" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="K77" s="45" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="78" spans="2:18" x14ac:dyDescent="0.25">
@@ -10777,7 +10868,7 @@
         <v>1</v>
       </c>
       <c r="E78" s="25" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="F78" s="54" t="s">
         <v>334</v>
@@ -10786,7 +10877,7 @@
         <v>323</v>
       </c>
       <c r="H78" s="45" t="s">
-        <v>338</v>
+        <v>416</v>
       </c>
       <c r="I78" s="54" t="s">
         <v>334</v>
@@ -10809,16 +10900,16 @@
         <v>1</v>
       </c>
       <c r="E79" s="27" t="s">
-        <v>371</v>
+        <v>418</v>
       </c>
       <c r="F79" s="54" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G79" s="65" t="s">
-        <v>370</v>
-      </c>
-      <c r="H79" s="45">
-        <v>1011</v>
+        <v>367</v>
+      </c>
+      <c r="H79" s="88" t="s">
+        <v>421</v>
       </c>
       <c r="I79" s="54" t="s">
         <v>334</v>
@@ -10871,13 +10962,13 @@
         <v>1</v>
       </c>
       <c r="E82" s="28" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="F82" s="54" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G82" s="73" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="H82" s="45">
         <v>1140</v>
@@ -10924,16 +11015,16 @@
         <v>1</v>
       </c>
       <c r="E85" s="25" t="s">
-        <v>368</v>
+        <v>419</v>
       </c>
       <c r="F85" s="54" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G85" s="63" t="s">
-        <v>369</v>
-      </c>
-      <c r="H85" s="45">
-        <v>1012</v>
+        <v>366</v>
+      </c>
+      <c r="H85" s="88" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.25">
@@ -10977,7 +11068,7 @@
         <v>1</v>
       </c>
       <c r="E88" s="25" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H88" s="45"/>
     </row>
@@ -10992,7 +11083,7 @@
         <v>1</v>
       </c>
       <c r="E89" s="25" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.25">
@@ -11006,7 +11097,7 @@
         <v>1</v>
       </c>
       <c r="E90" s="31" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.25">
@@ -11020,7 +11111,7 @@
         <v>1</v>
       </c>
       <c r="E91" s="25" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.25">
@@ -11034,7 +11125,7 @@
         <v>1</v>
       </c>
       <c r="E92" s="25" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="93" spans="2:8" x14ac:dyDescent="0.25">
@@ -11048,7 +11139,7 @@
         <v>1</v>
       </c>
       <c r="E93" s="25" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.25">
@@ -11062,7 +11153,7 @@
         <v>1</v>
       </c>
       <c r="E94" s="25" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.25">
@@ -11076,7 +11167,7 @@
         <v>1</v>
       </c>
       <c r="E95" s="25" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.25">
@@ -11090,7 +11181,7 @@
         <v>1</v>
       </c>
       <c r="E96" s="25" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.25">
@@ -11104,7 +11195,7 @@
         <v>1</v>
       </c>
       <c r="E97" s="25" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.25">
@@ -11132,7 +11223,7 @@
         <v>1</v>
       </c>
       <c r="E99" s="25" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.25">
@@ -11160,7 +11251,7 @@
         <v>1</v>
       </c>
       <c r="E101" s="25" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.25">
@@ -11188,7 +11279,7 @@
         <v>1</v>
       </c>
       <c r="E103" s="25" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.25">
@@ -11216,7 +11307,7 @@
         <v>1</v>
       </c>
       <c r="E105" s="25" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.25">
@@ -11230,7 +11321,7 @@
         <v>1</v>
       </c>
       <c r="E106" s="25" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.25">
@@ -11524,13 +11615,13 @@
         <v>1</v>
       </c>
       <c r="E127" s="28" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F127" s="54" t="s">
         <v>335</v>
       </c>
       <c r="G127" s="58" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H127" s="45">
         <v>853</v>

--- a/Producciones.xlsx
+++ b/Producciones.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Usuario\Documents\NetBeansProjects\Compilador\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A9EFAA-B3FC-4389-9AAE-D88CBC7304D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CACAA87-C920-40D8-BC7F-6A3EB4ADAC30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2745" yWindow="0" windowWidth="22620" windowHeight="15600" activeTab="2" xr2:uid="{CE99D781-93EC-43B9-9325-D9E8261D5F1E}"/>
+    <workbookView xWindow="1560" yWindow="45" windowWidth="15630" windowHeight="15600" activeTab="2" xr2:uid="{CE99D781-93EC-43B9-9325-D9E8261D5F1E}"/>
   </bookViews>
   <sheets>
     <sheet name="Producciones" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="442">
   <si>
     <t>PRODUCIONES</t>
   </si>
@@ -7136,6 +7136,33 @@
   </si>
   <si>
     <t>Paramertro debe ser tipo cadena, id, idlista o  idcadena</t>
+  </si>
+  <si>
+    <t>Numero de parametros incorrecto</t>
+  </si>
+  <si>
+    <t>Parametro debe ser tipo idlista, idcadena, iddicc, idtup, o idrang</t>
+  </si>
+  <si>
+    <t>Parametro debe ser tipo decimal o id</t>
+  </si>
+  <si>
+    <t>Parametro debe ser tipo idlista</t>
+  </si>
+  <si>
+    <t>Parametro debe ser tipo idlista num</t>
+  </si>
+  <si>
+    <t>Parametro debe ser tipo decimal, float, hex, oct, bin, complejo, cadena o char</t>
+  </si>
+  <si>
+    <t>Entradas</t>
+  </si>
+  <si>
+    <t>Salidas</t>
+  </si>
+  <si>
+    <t>Uso</t>
   </si>
 </sst>
 </file>
@@ -7623,7 +7650,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -7826,6 +7853,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -7836,7 +7876,7 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7969,33 +8009,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8056,6 +8069,45 @@
     <xf numFmtId="0" fontId="33" fillId="25" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="33" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="33" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="20% - Énfasis5" xfId="6" builtinId="46"/>
@@ -8599,34 +8651,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="76"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="106"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
       <c r="U1" s="5"/>
       <c r="V1" s="5"/>
     </row>
     <row r="2" spans="2:113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="77"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="83"/>
-      <c r="N2" s="83"/>
-      <c r="O2" s="83"/>
-      <c r="Q2" s="83"/>
-      <c r="R2" s="83"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="109"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="74"/>
+      <c r="O2" s="74"/>
+      <c r="Q2" s="74"/>
+      <c r="R2" s="74"/>
       <c r="T2" s="18"/>
       <c r="U2" s="18"/>
       <c r="V2" s="18"/>
@@ -8761,22 +8813,22 @@
       <c r="E4" s="11" t="s">
         <v>390</v>
       </c>
-      <c r="F4" s="86" t="s">
+      <c r="F4" s="77" t="s">
         <v>312</v>
       </c>
-      <c r="G4" s="87" t="s">
+      <c r="G4" s="78" t="s">
         <v>286</v>
       </c>
-      <c r="H4" s="88" t="s">
+      <c r="H4" s="79" t="s">
         <v>378</v>
       </c>
-      <c r="I4" s="90" t="s">
+      <c r="I4" s="81" t="s">
         <v>312</v>
       </c>
-      <c r="J4" s="91" t="s">
+      <c r="J4" s="82" t="s">
         <v>283</v>
       </c>
-      <c r="K4" s="84" t="s">
+      <c r="K4" s="75" t="s">
         <v>285</v>
       </c>
     </row>
@@ -8802,13 +8854,13 @@
       <c r="H5" s="44">
         <v>805</v>
       </c>
-      <c r="I5" s="85" t="s">
+      <c r="I5" s="76" t="s">
         <v>312</v>
       </c>
-      <c r="J5" s="92" t="s">
+      <c r="J5" s="83" t="s">
         <v>402</v>
       </c>
-      <c r="K5" s="93" t="s">
+      <c r="K5" s="84" t="s">
         <v>291</v>
       </c>
     </row>
@@ -8834,13 +8886,13 @@
       <c r="H6" s="44" t="s">
         <v>291</v>
       </c>
-      <c r="I6" s="94" t="s">
+      <c r="I6" s="85" t="s">
         <v>381</v>
       </c>
-      <c r="J6" s="95" t="s">
+      <c r="J6" s="86" t="s">
         <v>391</v>
       </c>
-      <c r="K6" s="96">
+      <c r="K6" s="87">
         <v>1150</v>
       </c>
     </row>
@@ -9034,7 +9086,7 @@
       <c r="E19" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="L19" s="81"/>
+      <c r="L19" s="72"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="33">
@@ -9172,13 +9224,13 @@
       <c r="F26" s="51" t="s">
         <v>404</v>
       </c>
-      <c r="G26" s="109" t="s">
+      <c r="G26" s="100" t="s">
         <v>407</v>
       </c>
       <c r="H26" s="44">
         <v>871</v>
       </c>
-      <c r="O26" s="81"/>
+      <c r="O26" s="72"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="33">
@@ -9253,7 +9305,7 @@
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="1"/>
-      <c r="L30" s="81"/>
+      <c r="L30" s="72"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B31" s="33">
@@ -9284,7 +9336,7 @@
       <c r="E32" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="L32" s="81"/>
+      <c r="L32" s="72"/>
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B33" s="33">
@@ -9313,7 +9365,7 @@
       <c r="E34" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="L34" s="81"/>
+      <c r="L34" s="72"/>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B35" s="33">
@@ -9370,8 +9422,8 @@
       <c r="E38" s="29" t="s">
         <v>308</v>
       </c>
-      <c r="Q38" s="83"/>
-      <c r="R38" s="83"/>
+      <c r="Q38" s="74"/>
+      <c r="R38" s="74"/>
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B39" s="33">
@@ -9442,8 +9494,8 @@
       <c r="E43" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="Q43" s="83"/>
-      <c r="R43" s="83"/>
+      <c r="Q43" s="74"/>
+      <c r="R43" s="74"/>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B44" s="33">
@@ -9500,8 +9552,8 @@
       <c r="E47" s="25" t="s">
         <v>355</v>
       </c>
-      <c r="Q47" s="83"/>
-      <c r="R47" s="83"/>
+      <c r="Q47" s="74"/>
+      <c r="R47" s="74"/>
     </row>
     <row r="48" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B48" s="33">
@@ -9758,22 +9810,22 @@
       <c r="E64" s="31" t="s">
         <v>357</v>
       </c>
-      <c r="F64" s="86" t="s">
+      <c r="F64" s="77" t="s">
         <v>341</v>
       </c>
-      <c r="G64" s="97" t="s">
+      <c r="G64" s="88" t="s">
         <v>356</v>
       </c>
-      <c r="H64" s="88" t="s">
+      <c r="H64" s="79" t="s">
         <v>358</v>
       </c>
-      <c r="I64" s="98" t="s">
+      <c r="I64" s="89" t="s">
         <v>313</v>
       </c>
-      <c r="J64" s="99" t="s">
+      <c r="J64" s="90" t="s">
         <v>399</v>
       </c>
-      <c r="K64" s="100">
+      <c r="K64" s="91">
         <v>851</v>
       </c>
     </row>
@@ -9865,10 +9917,10 @@
       <c r="E69" s="25" t="s">
         <v>410</v>
       </c>
-      <c r="F69" s="89" t="s">
+      <c r="F69" s="80" t="s">
         <v>404</v>
       </c>
-      <c r="G69" s="111" t="s">
+      <c r="G69" s="102" t="s">
         <v>411</v>
       </c>
       <c r="H69" s="10">
@@ -9959,16 +10011,16 @@
       <c r="D74" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="E74" s="102" t="s">
+      <c r="E74" s="93" t="s">
         <v>403</v>
       </c>
-      <c r="F74" s="86" t="s">
+      <c r="F74" s="77" t="s">
         <v>404</v>
       </c>
-      <c r="G74" s="110" t="s">
+      <c r="G74" s="101" t="s">
         <v>406</v>
       </c>
-      <c r="H74" s="100">
+      <c r="H74" s="91">
         <v>870</v>
       </c>
     </row>
@@ -10038,22 +10090,22 @@
       <c r="E78" s="25" t="s">
         <v>388</v>
       </c>
-      <c r="F78" s="86" t="s">
+      <c r="F78" s="77" t="s">
         <v>312</v>
       </c>
-      <c r="G78" s="101" t="s">
+      <c r="G78" s="92" t="s">
         <v>302</v>
       </c>
-      <c r="H78" s="88" t="s">
+      <c r="H78" s="79" t="s">
         <v>393</v>
       </c>
-      <c r="I78" s="90" t="s">
+      <c r="I78" s="81" t="s">
         <v>341</v>
       </c>
-      <c r="J78" s="106" t="s">
+      <c r="J78" s="97" t="s">
         <v>387</v>
       </c>
-      <c r="K78" s="103" t="s">
+      <c r="K78" s="94" t="s">
         <v>389</v>
       </c>
     </row>
@@ -10079,13 +10131,13 @@
       <c r="H79" s="71" t="s">
         <v>398</v>
       </c>
-      <c r="I79" s="85" t="s">
+      <c r="I79" s="76" t="s">
         <v>312</v>
       </c>
-      <c r="J79" s="105" t="s">
+      <c r="J79" s="96" t="s">
         <v>278</v>
       </c>
-      <c r="K79" s="93" t="s">
+      <c r="K79" s="84" t="s">
         <v>284</v>
       </c>
     </row>
@@ -10103,13 +10155,13 @@
         <v>71</v>
       </c>
       <c r="H80" s="44"/>
-      <c r="I80" s="94" t="s">
+      <c r="I80" s="85" t="s">
         <v>312</v>
       </c>
-      <c r="J80" s="104" t="s">
+      <c r="J80" s="95" t="s">
         <v>283</v>
       </c>
-      <c r="K80" s="96" t="s">
+      <c r="K80" s="87" t="s">
         <v>285</v>
       </c>
     </row>
@@ -10522,10 +10574,10 @@
       <c r="E107" s="27" t="s">
         <v>414</v>
       </c>
-      <c r="F107" s="89" t="s">
+      <c r="F107" s="80" t="s">
         <v>404</v>
       </c>
-      <c r="G107" s="112" t="s">
+      <c r="G107" s="103" t="s">
         <v>412</v>
       </c>
       <c r="H107" s="10">
@@ -10545,10 +10597,10 @@
       <c r="E108" s="27" t="s">
         <v>415</v>
       </c>
-      <c r="F108" s="89" t="s">
+      <c r="F108" s="80" t="s">
         <v>404</v>
       </c>
-      <c r="G108" s="112" t="s">
+      <c r="G108" s="103" t="s">
         <v>412</v>
       </c>
       <c r="H108" s="10">
@@ -10568,10 +10620,10 @@
       <c r="E109" s="27" t="s">
         <v>416</v>
       </c>
-      <c r="F109" s="89" t="s">
+      <c r="F109" s="80" t="s">
         <v>404</v>
       </c>
-      <c r="G109" s="112" t="s">
+      <c r="G109" s="103" t="s">
         <v>412</v>
       </c>
       <c r="H109" s="10">
@@ -10591,10 +10643,10 @@
       <c r="E110" s="27" t="s">
         <v>417</v>
       </c>
-      <c r="F110" s="89" t="s">
+      <c r="F110" s="80" t="s">
         <v>404</v>
       </c>
-      <c r="G110" s="112" t="s">
+      <c r="G110" s="103" t="s">
         <v>412</v>
       </c>
       <c r="H110" s="10">
@@ -10614,10 +10666,10 @@
       <c r="E111" s="27" t="s">
         <v>418</v>
       </c>
-      <c r="F111" s="89" t="s">
+      <c r="F111" s="80" t="s">
         <v>404</v>
       </c>
-      <c r="G111" s="112" t="s">
+      <c r="G111" s="103" t="s">
         <v>412</v>
       </c>
       <c r="H111" s="10">
@@ -10637,10 +10689,10 @@
       <c r="E112" s="27" t="s">
         <v>419</v>
       </c>
-      <c r="F112" s="89" t="s">
+      <c r="F112" s="80" t="s">
         <v>404</v>
       </c>
-      <c r="G112" s="112" t="s">
+      <c r="G112" s="103" t="s">
         <v>412</v>
       </c>
       <c r="H112" s="10">
@@ -10660,10 +10712,10 @@
       <c r="E113" s="27" t="s">
         <v>420</v>
       </c>
-      <c r="F113" s="89" t="s">
+      <c r="F113" s="80" t="s">
         <v>404</v>
       </c>
-      <c r="G113" s="112" t="s">
+      <c r="G113" s="103" t="s">
         <v>412</v>
       </c>
       <c r="H113" s="10">
@@ -10683,10 +10735,10 @@
       <c r="E114" s="27" t="s">
         <v>421</v>
       </c>
-      <c r="F114" s="89" t="s">
+      <c r="F114" s="80" t="s">
         <v>404</v>
       </c>
-      <c r="G114" s="112" t="s">
+      <c r="G114" s="103" t="s">
         <v>412</v>
       </c>
       <c r="H114" s="10">
@@ -10706,10 +10758,10 @@
       <c r="E115" s="27" t="s">
         <v>422</v>
       </c>
-      <c r="F115" s="89" t="s">
+      <c r="F115" s="80" t="s">
         <v>404</v>
       </c>
-      <c r="G115" s="112" t="s">
+      <c r="G115" s="103" t="s">
         <v>412</v>
       </c>
       <c r="H115" s="10">
@@ -10729,10 +10781,10 @@
       <c r="E116" s="27" t="s">
         <v>423</v>
       </c>
-      <c r="F116" s="89" t="s">
+      <c r="F116" s="80" t="s">
         <v>404</v>
       </c>
-      <c r="G116" s="111" t="s">
+      <c r="G116" s="102" t="s">
         <v>413</v>
       </c>
       <c r="H116" s="10">
@@ -10752,10 +10804,10 @@
       <c r="E117" s="27" t="s">
         <v>424</v>
       </c>
-      <c r="F117" s="89" t="s">
+      <c r="F117" s="80" t="s">
         <v>404</v>
       </c>
-      <c r="G117" s="111" t="s">
+      <c r="G117" s="102" t="s">
         <v>413</v>
       </c>
       <c r="H117" s="10">
@@ -10775,10 +10827,10 @@
       <c r="E118" s="27" t="s">
         <v>425</v>
       </c>
-      <c r="F118" s="89" t="s">
+      <c r="F118" s="80" t="s">
         <v>404</v>
       </c>
-      <c r="G118" s="111" t="s">
+      <c r="G118" s="102" t="s">
         <v>413</v>
       </c>
       <c r="H118" s="10">
@@ -10798,10 +10850,10 @@
       <c r="E119" s="27" t="s">
         <v>431</v>
       </c>
-      <c r="F119" s="89" t="s">
+      <c r="F119" s="80" t="s">
         <v>404</v>
       </c>
-      <c r="G119" s="111" t="s">
+      <c r="G119" s="102" t="s">
         <v>413</v>
       </c>
       <c r="H119" s="10">
@@ -10821,10 +10873,10 @@
       <c r="E120" s="27" t="s">
         <v>426</v>
       </c>
-      <c r="F120" s="89" t="s">
+      <c r="F120" s="80" t="s">
         <v>404</v>
       </c>
-      <c r="G120" s="111" t="s">
+      <c r="G120" s="102" t="s">
         <v>413</v>
       </c>
       <c r="H120" s="10">
@@ -10858,10 +10910,10 @@
       <c r="E122" s="27" t="s">
         <v>427</v>
       </c>
-      <c r="F122" s="89" t="s">
+      <c r="F122" s="80" t="s">
         <v>404</v>
       </c>
-      <c r="G122" s="111" t="s">
+      <c r="G122" s="102" t="s">
         <v>413</v>
       </c>
       <c r="H122" s="10">
@@ -10881,10 +10933,10 @@
       <c r="E123" s="27" t="s">
         <v>428</v>
       </c>
-      <c r="F123" s="89" t="s">
+      <c r="F123" s="80" t="s">
         <v>404</v>
       </c>
-      <c r="G123" s="111" t="s">
+      <c r="G123" s="102" t="s">
         <v>413</v>
       </c>
       <c r="H123" s="10">
@@ -10932,10 +10984,10 @@
       <c r="E126" s="27" t="s">
         <v>429</v>
       </c>
-      <c r="F126" s="89" t="s">
+      <c r="F126" s="80" t="s">
         <v>404</v>
       </c>
-      <c r="G126" s="111" t="s">
+      <c r="G126" s="102" t="s">
         <v>413</v>
       </c>
       <c r="H126" s="10">
@@ -11269,10 +11321,10 @@
     </row>
     <row r="153" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B153" s="6"/>
-      <c r="C153" s="107" t="s">
+      <c r="C153" s="98" t="s">
         <v>82</v>
       </c>
-      <c r="D153" s="108" t="s">
+      <c r="D153" s="99" t="s">
         <v>1</v>
       </c>
       <c r="E153" s="15" t="s">
@@ -11365,16 +11417,16 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
@@ -11916,16 +11968,16 @@
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B57" s="73" t="s">
+      <c r="B57" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="C57" s="73"/>
-      <c r="D57" s="73"/>
+      <c r="C57" s="110"/>
+      <c r="D57" s="110"/>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B58" s="73"/>
-      <c r="C58" s="73"/>
-      <c r="D58" s="73"/>
+      <c r="B58" s="110"/>
+      <c r="C58" s="110"/>
+      <c r="D58" s="110"/>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B59" s="7" t="s">
@@ -12477,10 +12529,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F154BECE-C098-4765-AEF8-6AC2AF134C96}">
-  <dimension ref="B4:E74"/>
+  <dimension ref="B4:E92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B36" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+    <sheetView tabSelected="1" topLeftCell="B55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12489,10 +12541,10 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C4" s="80" t="s">
+      <c r="C4" s="111" t="s">
         <v>280</v>
       </c>
-      <c r="D4" s="80"/>
+      <c r="D4" s="111"/>
       <c r="E4" s="18"/>
     </row>
     <row r="5" spans="3:5" x14ac:dyDescent="0.25">
@@ -12796,10 +12848,10 @@
       <c r="E39" s="36"/>
     </row>
     <row r="40" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C40" s="80" t="s">
+      <c r="C40" s="111" t="s">
         <v>279</v>
       </c>
-      <c r="D40" s="80"/>
+      <c r="D40" s="111"/>
       <c r="E40" s="36"/>
     </row>
     <row r="41" spans="3:5" x14ac:dyDescent="0.25">
@@ -12820,10 +12872,10 @@
       </c>
     </row>
     <row r="45" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C45" s="72" t="s">
+      <c r="C45" s="112" t="s">
         <v>343</v>
       </c>
-      <c r="D45" s="72"/>
+      <c r="D45" s="112"/>
     </row>
     <row r="46" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C46" s="58">
@@ -12838,10 +12890,10 @@
       <c r="D47" s="62"/>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C49" s="72" t="s">
+      <c r="C49" s="112" t="s">
         <v>367</v>
       </c>
-      <c r="D49" s="72"/>
+      <c r="D49" s="112"/>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B50" s="64" t="s">
@@ -13008,7 +13060,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B65" s="67">
         <v>1110</v>
       </c>
@@ -13019,7 +13071,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B66" s="67">
         <v>1120</v>
       </c>
@@ -13030,7 +13082,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B67" s="67">
         <v>1130</v>
       </c>
@@ -13041,36 +13093,36 @@
         <v>384</v>
       </c>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B68" s="67">
         <v>1160</v>
       </c>
-      <c r="C68" s="82">
+      <c r="C68" s="73">
         <v>778</v>
       </c>
       <c r="D68" s="41" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B69" s="67">
         <v>1161</v>
       </c>
-      <c r="C69" s="82">
+      <c r="C69" s="73">
         <v>779</v>
       </c>
       <c r="D69" s="41" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C72" s="72" t="s">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C72" s="112" t="s">
         <v>409</v>
       </c>
-      <c r="D72" s="72"/>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B73" s="64">
+      <c r="D72" s="112"/>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B73" s="113">
         <v>2001</v>
       </c>
       <c r="C73" s="58">
@@ -13079,9 +13131,12 @@
       <c r="D73" s="16" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B74" s="64">
+      <c r="E73" s="114" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B74" s="113">
         <v>2002</v>
       </c>
       <c r="C74" s="58">
@@ -13090,9 +13145,208 @@
       <c r="D74" s="16" t="s">
         <v>432</v>
       </c>
+      <c r="E74" s="115"/>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B75" s="113">
+        <v>2003</v>
+      </c>
+      <c r="C75" s="58">
+        <v>782</v>
+      </c>
+      <c r="D75" s="16" t="s">
+        <v>434</v>
+      </c>
+      <c r="E75" s="115"/>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B76" s="113">
+        <v>2004</v>
+      </c>
+      <c r="C76" s="58">
+        <v>783</v>
+      </c>
+      <c r="D76" s="16" t="s">
+        <v>435</v>
+      </c>
+      <c r="E76" s="115"/>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B77" s="113">
+        <v>2005</v>
+      </c>
+      <c r="C77" s="58">
+        <v>784</v>
+      </c>
+      <c r="D77" s="16" t="s">
+        <v>436</v>
+      </c>
+      <c r="E77" s="115"/>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B78" s="113">
+        <v>2006</v>
+      </c>
+      <c r="C78" s="58">
+        <v>785</v>
+      </c>
+      <c r="D78" s="16" t="s">
+        <v>437</v>
+      </c>
+      <c r="E78" s="115"/>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B79" s="113">
+        <v>2007</v>
+      </c>
+      <c r="C79" s="58">
+        <v>786</v>
+      </c>
+      <c r="D79" s="16" t="s">
+        <v>438</v>
+      </c>
+      <c r="E79" s="116"/>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B80" s="113">
+        <v>2008</v>
+      </c>
+      <c r="C80" s="58">
+        <v>787</v>
+      </c>
+      <c r="D80" s="16"/>
+      <c r="E80" s="114" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B81" s="113">
+        <v>2009</v>
+      </c>
+      <c r="C81" s="58">
+        <v>788</v>
+      </c>
+      <c r="D81" s="16"/>
+      <c r="E81" s="115"/>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B82" s="113">
+        <v>2010</v>
+      </c>
+      <c r="C82" s="58">
+        <v>789</v>
+      </c>
+      <c r="D82" s="16"/>
+      <c r="E82" s="115"/>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B83" s="113">
+        <v>2011</v>
+      </c>
+      <c r="C83" s="58">
+        <v>790</v>
+      </c>
+      <c r="D83" s="16"/>
+      <c r="E83" s="115"/>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B84" s="113">
+        <v>2012</v>
+      </c>
+      <c r="C84" s="58">
+        <v>791</v>
+      </c>
+      <c r="D84" s="16"/>
+      <c r="E84" s="115"/>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B85" s="113">
+        <v>2013</v>
+      </c>
+      <c r="C85" s="58">
+        <v>792</v>
+      </c>
+      <c r="D85" s="16"/>
+      <c r="E85" s="115"/>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B86" s="113">
+        <v>2014</v>
+      </c>
+      <c r="C86" s="58">
+        <v>793</v>
+      </c>
+      <c r="D86" s="16"/>
+      <c r="E86" s="115"/>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B87" s="113">
+        <v>2015</v>
+      </c>
+      <c r="C87" s="58">
+        <v>794</v>
+      </c>
+      <c r="D87" s="16"/>
+      <c r="E87" s="116"/>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B88" s="113">
+        <v>2016</v>
+      </c>
+      <c r="C88" s="58">
+        <v>795</v>
+      </c>
+      <c r="D88" s="16"/>
+      <c r="E88" s="114" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B89" s="113">
+        <v>2017</v>
+      </c>
+      <c r="C89" s="58">
+        <v>796</v>
+      </c>
+      <c r="D89" s="16"/>
+      <c r="E89" s="115"/>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B90" s="113">
+        <v>2018</v>
+      </c>
+      <c r="C90" s="58">
+        <v>797</v>
+      </c>
+      <c r="D90" s="16"/>
+      <c r="E90" s="115"/>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B91" s="113">
+        <v>2019</v>
+      </c>
+      <c r="C91" s="58">
+        <v>798</v>
+      </c>
+      <c r="D91" s="16"/>
+      <c r="E91" s="116"/>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B92" s="113">
+        <v>2020</v>
+      </c>
+      <c r="C92" s="58">
+        <v>799</v>
+      </c>
+      <c r="D92" s="16" t="s">
+        <v>433</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="8">
+    <mergeCell ref="E73:E79"/>
+    <mergeCell ref="E80:E87"/>
+    <mergeCell ref="E88:E91"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C40:D40"/>
     <mergeCell ref="C45:D45"/>

--- a/Producciones.xlsx
+++ b/Producciones.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Usuario\Documents\NetBeansProjects\Compilador\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41291C1D-4088-4D4E-A837-23942E5B90A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F3133B-24DA-41B8-B580-920890700985}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14115" yWindow="90" windowWidth="11475" windowHeight="14850" xr2:uid="{CE99D781-93EC-43B9-9325-D9E8261D5F1E}"/>
+    <workbookView xWindow="16125" yWindow="705" windowWidth="11475" windowHeight="14850" xr2:uid="{CE99D781-93EC-43B9-9325-D9E8261D5F1E}"/>
   </bookViews>
   <sheets>
     <sheet name="Producciones" sheetId="1" r:id="rId1"/>
@@ -3777,11 +3777,3411 @@
     <t>(812 - 816)</t>
   </si>
   <si>
-    <r>
+    <t>(817 - 819)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> id = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">CONSTANTE </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> TERMINOPASCAL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> E0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> TERMINOPASCAL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> E0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ELEVACION </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> C0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ELEVACION  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> C0</t>
+    </r>
+  </si>
+  <si>
+    <t>Verif. Opercación</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>//</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ELEVACION </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> C0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>%</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ELEVACION </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> C0</t>
+    </r>
+  </si>
+  <si>
+    <t>Incompatibilidad de tipos …</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Decimal</t>
+    </r>
+  </si>
+  <si>
+    <t>Negativo</t>
+  </si>
+  <si>
+    <t>851-852</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> SIMPLEEXP-PAS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> H0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&gt;&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">SIMPLEEXP-PAS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> H0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA50021"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ASIGN J3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">** </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">FACTOR </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> D0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&amp; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">OPBIT </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> M0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>^</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ANDLOG </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> O0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">| </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">XORLOG </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> P0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&amp;&amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> NOT </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Q0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>##</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> NOT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> @</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Q0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>INNOT</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ORLOG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> @</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> L0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IN</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ORLOG </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> L0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ISNOT</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ORLOG </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> L0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IS</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ORLOG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> @</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> L0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ORLOG </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> L0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&gt;= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ORLOG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>L0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">!= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ORLOG </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> L0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">== </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ORLOG </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> L0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ORLOG </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">@ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>L0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ORLOG </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> L0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>!</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> EXP-PAS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> F0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>||</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> AND </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF3E529"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> G0</t>
+    </r>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>IF (booleano)</t>
+  </si>
+  <si>
+    <t>ERRORES DE SEMANTICA 1</t>
+  </si>
+  <si>
+    <t>ELIF (booleano)</t>
+  </si>
+  <si>
+    <t>WHILE (booleano)</t>
+  </si>
+  <si>
+    <t>La EXP tiene que ser Booleana</t>
+  </si>
+  <si>
+    <t>ID debe ser mismo tipo que EXP</t>
+  </si>
+  <si>
+    <t>La cant. de dimensiones utilizadas en una lista de arreglo debe ser igual a la declarada</t>
+  </si>
+  <si>
+    <t>1010 - 1012</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1020 - 1021</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I0</t>
+    </r>
+  </si>
+  <si>
+    <t>(822 - 824)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I0</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">OR I1 I2 </t>
+  </si>
+  <si>
+    <t>Lista-Arreglo</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ARR </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">@ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA50021"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> J2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>860 - 861</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">J0 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">id </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">J1 </t>
+    </r>
+  </si>
+  <si>
+    <t>La organizacion de los datos de inicializacion de una lista tipo arr deben tener un orden</t>
+  </si>
+  <si>
+    <t>Fuera de limite</t>
+  </si>
+  <si>
+    <t>Los diccionarios no tienen posiciones negativas</t>
+  </si>
+  <si>
+    <t>Diferente valor de llave</t>
+  </si>
+  <si>
+    <t>Las tuplas no tienen posiciones negativas</t>
+  </si>
+  <si>
+    <t>Fuera de dimension</t>
+  </si>
+  <si>
+    <t>La EXP debe ser entera</t>
+  </si>
+  <si>
+    <t>ERRORES DE SEMANTICA 2</t>
+  </si>
+  <si>
+    <t>845 - 846</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> J5 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+  </si>
+  <si>
+    <t>ID debe ser var, par, arr, list, dicc, rang para recibir valor</t>
+  </si>
+  <si>
+    <t>La cant. de parametros debe ser igual a la declarada</t>
+  </si>
+  <si>
+    <t>Valor invalido</t>
+  </si>
+  <si>
+    <t>Id for</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>Return</t>
+  </si>
+  <si>
+    <r>
+      <t>Return</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> OR </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9999FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF7A7E6"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EST A3</t>
+    </r>
+  </si>
+  <si>
+    <t>End EST</t>
+  </si>
+  <si>
+    <t>s2</t>
+  </si>
+  <si>
+    <t>ID debe ser clase procedimiento</t>
+  </si>
+  <si>
+    <t>ID debe ser clase funcion</t>
+  </si>
+  <si>
+    <t>ID debe ser declarado antes de ser utilizado</t>
+  </si>
+  <si>
+    <t>A, s1</t>
+  </si>
+  <si>
+    <t>Se esperaba rango positivo</t>
+  </si>
+  <si>
+    <t>For value</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">@ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFA401"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> OR </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFA401"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>to</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> OR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> :</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> EST A3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">End </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+  </si>
+  <si>
+    <t>863 , 864</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">def </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> id ( </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">A1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">PROGRAM </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">@ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD3034D"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A0</t>
+    </r>
+  </si>
+  <si>
+    <t>No return?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> OR </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> EST</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A3 K0</t>
+    </r>
+  </si>
+  <si>
+    <t>(820, 821)</t>
+  </si>
+  <si>
+    <t>1009, 1010</t>
+  </si>
+  <si>
+    <r>
+      <t>while</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF7A7E6"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF26AD5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">OR </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF26AD5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">: </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EST</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">A3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>wend</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>elif</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> OR </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EST</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A3 K0</t>
+    </r>
+  </si>
+  <si>
+    <t>1009, 1012</t>
+  </si>
+  <si>
+    <t>1009, 1011</t>
+  </si>
+  <si>
+    <t>Start Asignación</t>
+  </si>
+  <si>
+    <t>End Asignación</t>
+  </si>
+  <si>
+    <t>ID en ejec</t>
+  </si>
+  <si>
+    <t>End Parametros</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">OR </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF663300"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> B0</t>
+    </r>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> OR </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF663300"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">@ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B0</t>
+    </r>
+  </si>
+  <si>
+    <t>fun_par1</t>
+  </si>
+  <si>
+    <t>fun_par2</t>
+  </si>
+  <si>
+    <t>Paramertro debe ser tipo cadena, id o idcadena</t>
+  </si>
+  <si>
+    <t>ERRORES DE SEMANTICA 3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF663300"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> FUNLIST</t>
+    </r>
+  </si>
+  <si>
+    <t>funList</t>
+  </si>
+  <si>
+    <t>end funlist</t>
+  </si>
+  <si>
+    <t>end fun</t>
+  </si>
+  <si>
+    <r>
+      <t>Sort (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> J5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF824100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Reverse (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> J5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF824100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Count ( </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>J5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> )</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF824100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> @</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">index ( </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>J5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> )</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF824100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> @</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">append ( </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>J5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF824100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">extend ( </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>J5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF824100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>pop (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> J5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF824100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">remove ( </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>J5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF824100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">insert ( </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>J5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF824100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">findall ( </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>J5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF663300"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">replace ( </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>J5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF663300"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">len ( </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>J5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF663300"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">choice ( </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>J5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF663300"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">randrange ( </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>J5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF663300"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">mean ( </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>J5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF663300"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> @</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">sum ( </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>J5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF663300"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">random ( </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>J5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">sample ( </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>J5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF663300"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+  </si>
+  <si>
+    <t>Paramertro debe ser tipo cadena, id, idlista o  idcadena</t>
+  </si>
+  <si>
+    <t>Numero de parametros incorrecto</t>
+  </si>
+  <si>
+    <t>Parametro debe ser tipo idlista, idcadena, iddicc, idtup, o idrang</t>
+  </si>
+  <si>
+    <t>Parametro debe ser tipo decimal o id</t>
+  </si>
+  <si>
+    <t>Parametro debe ser tipo idlista</t>
+  </si>
+  <si>
+    <t>Parametro debe ser tipo idlista num</t>
+  </si>
+  <si>
+    <t>Parametro debe ser tipo decimal, float, hex, oct, bin, complejo, cadena o char</t>
+  </si>
+  <si>
+    <t>Entradas</t>
+  </si>
+  <si>
+    <t>Salidas</t>
+  </si>
+  <si>
+    <t>Uso</t>
+  </si>
+  <si>
+    <t>Debe ser idlista</t>
+  </si>
+  <si>
+    <t>Debe ser idlista, idcadena o idlistanumerica</t>
+  </si>
+  <si>
+    <t>Debe ser idlista, idcadena, iddiccionario o idlistanumerica</t>
+  </si>
+  <si>
+    <t>Debe ser idlista o idlistanumerica</t>
+  </si>
+  <si>
+    <t>(804, 1804)</t>
+  </si>
+  <si>
+    <t>Parametro debe ser tipo decimal, float, hex, oct, bin, complejo, cadena, char o id</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">print ( </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">OR </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF663300"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> B0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> )</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">variance ( </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>J5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF663300"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">OR </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ASIGN J3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA50021"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CONSTANTE B1 B2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color rgb="FFCCF20C"/>
         <rFont val="Calibri"/>
@@ -3809,17 +7209,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>CONSTANTE B2</t>
-    </r>
-  </si>
-  <si>
-    <t>(817 - 819)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
+      <t xml:space="preserve">CONSTANTE </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCF20C"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -3828,3408 +7223,14 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> id = </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">CONSTANTE </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> TERMINOPASCAL </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF3E529"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> E0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>+</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> TERMINOPASCAL </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF3E529"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> E0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ELEVACION </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF3E529"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> C0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">ELEVACION  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF3E529"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> C0</t>
-    </r>
-  </si>
-  <si>
-    <t>Verif. Opercación</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>S1</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>//</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">ELEVACION </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF3E529"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> C0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>%</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ELEVACION </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF3E529"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> C0</t>
-    </r>
-  </si>
-  <si>
-    <t>Incompatibilidad de tipos …</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Decimal</t>
-    </r>
-  </si>
-  <si>
-    <t>Negativo</t>
-  </si>
-  <si>
-    <t>851-852</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> SIMPLEEXP-PAS </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF3E529"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> H0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">&gt;&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">SIMPLEEXP-PAS </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF3E529"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> H0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFA50021"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ASIGN J3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">** </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">FACTOR </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF3E529"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> D0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">&amp; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">OPBIT </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF3E529"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> M0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>^</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ANDLOG </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF3E529"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> O0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">| </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">XORLOG </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF3E529"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> P0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&amp;&amp;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> NOT </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF3E529"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Q0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>##</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> NOT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF3E529"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> @</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Q0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>INNOT</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ORLOG</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF3E529"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> @</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> L0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>IN</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ORLOG </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF3E529"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> L0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ISNOT</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ORLOG </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF3E529"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> L0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>IS</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ORLOG</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF3E529"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> @</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> L0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ORLOG </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF3E529"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> L0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">&gt;= </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ORLOG</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF3E529"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>L0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">!= </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">ORLOG </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFF3E529"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> L0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">== </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">ORLOG </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF3E529"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> L0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;=</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ORLOG </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF3E529"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">@ </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>L0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ORLOG </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF3E529"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> L0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>!</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> EXP-PAS </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF3E529"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> F0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>||</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> AND </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF3E529"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> G0</t>
-    </r>
-  </si>
-  <si>
-    <t>S2</t>
-  </si>
-  <si>
-    <t>IF (booleano)</t>
-  </si>
-  <si>
-    <t>ERRORES DE SEMANTICA 1</t>
-  </si>
-  <si>
-    <t>ELIF (booleano)</t>
-  </si>
-  <si>
-    <t>WHILE (booleano)</t>
-  </si>
-  <si>
-    <t>La EXP tiene que ser Booleana</t>
-  </si>
-  <si>
-    <t>ID debe ser mismo tipo que EXP</t>
-  </si>
-  <si>
-    <t>La cant. de dimensiones utilizadas en una lista de arreglo debe ser igual a la declarada</t>
-  </si>
-  <si>
-    <t>1010 - 1012</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1020 - 1021</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> I0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> I0</t>
-    </r>
-  </si>
-  <si>
-    <t>(822 - 824)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> I0</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">OR I1 I2 </t>
-  </si>
-  <si>
-    <t>Lista-Arreglo</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ARR </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">@ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFA50021"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> J2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <t>860 - 861</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">J0 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">id </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">J1 </t>
-    </r>
-  </si>
-  <si>
-    <t>La organizacion de los datos de inicializacion de una lista tipo arr deben tener un orden</t>
-  </si>
-  <si>
-    <t>Fuera de limite</t>
-  </si>
-  <si>
-    <t>Los diccionarios no tienen posiciones negativas</t>
-  </si>
-  <si>
-    <t>Diferente valor de llave</t>
-  </si>
-  <si>
-    <t>Las tuplas no tienen posiciones negativas</t>
-  </si>
-  <si>
-    <t>Fuera de dimension</t>
-  </si>
-  <si>
-    <t>La EXP debe ser entera</t>
-  </si>
-  <si>
-    <t>ERRORES DE SEMANTICA 2</t>
-  </si>
-  <si>
-    <t>845 - 846</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> J5 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-  </si>
-  <si>
-    <t>ID debe ser var, par, arr, list, dicc, rang para recibir valor</t>
-  </si>
-  <si>
-    <t>La cant. de parametros debe ser igual a la declarada</t>
-  </si>
-  <si>
-    <t>Valor invalido</t>
-  </si>
-  <si>
-    <t>Id for</t>
-  </si>
-  <si>
-    <t>for</t>
-  </si>
-  <si>
-    <t>Return</t>
-  </si>
-  <si>
-    <r>
-      <t>Return</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> OR </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9999FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF7A7E6"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>EST A3</t>
-    </r>
-  </si>
-  <si>
-    <t>End EST</t>
-  </si>
-  <si>
-    <t>s2</t>
-  </si>
-  <si>
-    <t>ID debe ser clase procedimiento</t>
-  </si>
-  <si>
-    <t>ID debe ser clase funcion</t>
-  </si>
-  <si>
-    <t>ID debe ser declarado antes de ser utilizado</t>
-  </si>
-  <si>
-    <t>A, s1</t>
-  </si>
-  <si>
-    <t>Se esperaba rango positivo</t>
-  </si>
-  <si>
-    <t>For value</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">for </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">@ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFA401"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> OR </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFA401"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>to</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> OR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> :</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> EST A3 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">End </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-  </si>
-  <si>
-    <t>863 , 864</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">def </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> id ( </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">A1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="7"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">PROGRAM </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">@ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD3034D"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A0</t>
-    </r>
-  </si>
-  <si>
-    <t>No return?</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>if</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> OR </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> EST</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A3 K0</t>
-    </r>
-  </si>
-  <si>
-    <t>(820, 821)</t>
-  </si>
-  <si>
-    <t>1009, 1010</t>
-  </si>
-  <si>
-    <r>
-      <t>while</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF7A7E6"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF26AD5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">OR </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF26AD5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>EST</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">A3 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>wend</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>elif</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8" tint="0.39997558519241921"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> OR </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8" tint="0.39997558519241921"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>EST</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A3 K0</t>
-    </r>
-  </si>
-  <si>
-    <t>1009, 1012</t>
-  </si>
-  <si>
-    <t>1009, 1011</t>
-  </si>
-  <si>
-    <t>Start Asignación</t>
-  </si>
-  <si>
-    <t>End Asignación</t>
-  </si>
-  <si>
-    <t>ID en ejec</t>
-  </si>
-  <si>
-    <t>End Parametros</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">OR </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF663300"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> B0</t>
-    </r>
-  </si>
-  <si>
-    <t>S3</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> OR </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF663300"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">@ </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>B0</t>
-    </r>
-  </si>
-  <si>
-    <t>fun_par1</t>
-  </si>
-  <si>
-    <t>fun_par2</t>
-  </si>
-  <si>
-    <t>Paramertro debe ser tipo cadena, id o idcadena</t>
-  </si>
-  <si>
-    <t>ERRORES DE SEMANTICA 3</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF663300"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> FUNLIST</t>
-    </r>
-  </si>
-  <si>
-    <t>funList</t>
-  </si>
-  <si>
-    <t>end funlist</t>
-  </si>
-  <si>
-    <t>end fun</t>
-  </si>
-  <si>
-    <r>
-      <t>Sort (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> J5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF824100"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Reverse (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> J5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF824100"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Count ( </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>J5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> )</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF824100"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> @</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">index ( </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>J5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> )</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF824100"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> @</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">append ( </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>J5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF824100"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">extend ( </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>J5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF824100"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>pop (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> J5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF824100"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">remove ( </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>J5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF824100"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">insert ( </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>J5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF824100"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">findall ( </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>J5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF663300"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">replace ( </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>J5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF663300"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">len ( </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>J5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF663300"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">choice ( </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>J5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF663300"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">randrange ( </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>J5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF663300"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">mean ( </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>J5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF663300"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> @</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">sum ( </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>J5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF663300"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">random ( </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>J5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ) </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">sample ( </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>J5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF663300"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-  </si>
-  <si>
-    <t>Paramertro debe ser tipo cadena, id, idlista o  idcadena</t>
-  </si>
-  <si>
-    <t>Numero de parametros incorrecto</t>
-  </si>
-  <si>
-    <t>Parametro debe ser tipo idlista, idcadena, iddicc, idtup, o idrang</t>
-  </si>
-  <si>
-    <t>Parametro debe ser tipo decimal o id</t>
-  </si>
-  <si>
-    <t>Parametro debe ser tipo idlista</t>
-  </si>
-  <si>
-    <t>Parametro debe ser tipo idlista num</t>
-  </si>
-  <si>
-    <t>Parametro debe ser tipo decimal, float, hex, oct, bin, complejo, cadena o char</t>
-  </si>
-  <si>
-    <t>Entradas</t>
-  </si>
-  <si>
-    <t>Salidas</t>
-  </si>
-  <si>
-    <t>Uso</t>
-  </si>
-  <si>
-    <t>Debe ser idlista</t>
-  </si>
-  <si>
-    <t>Debe ser idlista, idcadena o idlistanumerica</t>
-  </si>
-  <si>
-    <t>Debe ser idlista, idcadena, iddiccionario o idlistanumerica</t>
-  </si>
-  <si>
-    <t>Debe ser idlista o idlistanumerica</t>
-  </si>
-  <si>
-    <t>(804, 1804)</t>
-  </si>
-  <si>
-    <t>Parametro debe ser tipo decimal, float, hex, oct, bin, complejo, cadena, char o id</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">print ( </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">OR </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF663300"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> B0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> )</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">variance ( </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>J5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF663300"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">OR </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ASIGN J3 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFA50021"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCCF20C"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CONSTANTE B1 B2</t>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> B2</t>
     </r>
   </si>
 </sst>
@@ -7944,7 +7945,7 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -8175,6 +8176,7 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="20% - Énfasis5" xfId="6" builtinId="46"/>
@@ -8692,8 +8694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE3FA8B9-A47E-429A-BD32-FD36D0235D3B}">
   <dimension ref="B1:DI168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" topLeftCell="C2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8706,7 +8708,7 @@
     <col min="7" max="7" width="15" customWidth="1"/>
     <col min="8" max="8" width="10.28515625" customWidth="1"/>
     <col min="9" max="9" width="8.28515625" customWidth="1"/>
-    <col min="10" max="10" width="19" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
     <col min="11" max="11" width="9.85546875" customWidth="1"/>
     <col min="12" max="12" width="9.28515625" customWidth="1"/>
     <col min="13" max="13" width="15.5703125" customWidth="1"/>
@@ -8855,7 +8857,7 @@
         <v>273</v>
       </c>
       <c r="F3" s="51" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G3" s="43" t="s">
         <v>274</v>
@@ -8878,19 +8880,19 @@
         <v>1</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F4" s="77" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G4" s="78" t="s">
         <v>282</v>
       </c>
       <c r="H4" s="79" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="I4" s="81" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J4" s="82" t="s">
         <v>279</v>
@@ -8910,10 +8912,10 @@
         <v>1</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F5" s="51" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G5" s="45" t="s">
         <v>283</v>
@@ -8922,10 +8924,10 @@
         <v>805</v>
       </c>
       <c r="I5" s="76" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J5" s="83" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="K5" s="84" t="s">
         <v>287</v>
@@ -8945,7 +8947,7 @@
         <v>285</v>
       </c>
       <c r="F6" s="51" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G6" s="42" t="s">
         <v>284</v>
@@ -8954,10 +8956,10 @@
         <v>287</v>
       </c>
       <c r="I6" s="85" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="J6" s="86" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K6" s="87">
         <v>1150</v>
@@ -8988,13 +8990,13 @@
         <v>1</v>
       </c>
       <c r="E8" s="25" t="s">
+        <v>372</v>
+      </c>
+      <c r="F8" s="51" t="s">
+        <v>374</v>
+      </c>
+      <c r="G8" s="70" t="s">
         <v>373</v>
-      </c>
-      <c r="F8" s="51" t="s">
-        <v>375</v>
-      </c>
-      <c r="G8" s="70" t="s">
-        <v>374</v>
       </c>
       <c r="H8" s="44">
         <v>862</v>
@@ -9197,7 +9199,7 @@
         <v>292</v>
       </c>
       <c r="F22" s="51" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G22" s="47" t="s">
         <v>289</v>
@@ -9220,7 +9222,7 @@
         <v>293</v>
       </c>
       <c r="F23" s="51" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G23" s="48" t="s">
         <v>288</v>
@@ -9243,7 +9245,7 @@
         <v>294</v>
       </c>
       <c r="F24" s="51" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G24" s="49" t="s">
         <v>290</v>
@@ -9266,13 +9268,13 @@
         <v>295</v>
       </c>
       <c r="F25" s="51" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G25" s="50" t="s">
         <v>291</v>
       </c>
       <c r="H25" s="44" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
@@ -9286,13 +9288,13 @@
         <v>1</v>
       </c>
       <c r="E26" s="25" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F26" s="51" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G26" s="100" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H26" s="44">
         <v>871</v>
@@ -9310,18 +9312,26 @@
         <v>1</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>300</v>
-      </c>
-      <c r="F27" s="51" t="s">
-        <v>308</v>
-      </c>
-      <c r="G27" s="50" t="s">
+        <v>446</v>
+      </c>
+      <c r="F27" s="77" t="s">
+        <v>307</v>
+      </c>
+      <c r="G27" s="116" t="s">
         <v>291</v>
       </c>
-      <c r="H27" s="44">
+      <c r="H27" s="79">
         <v>818</v>
       </c>
-      <c r="I27" s="4"/>
+      <c r="I27" s="89" t="s">
+        <v>307</v>
+      </c>
+      <c r="J27" s="116" t="s">
+        <v>291</v>
+      </c>
+      <c r="K27" s="91">
+        <v>8181</v>
+      </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="33">
@@ -9334,16 +9344,7 @@
         <v>1</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>446</v>
-      </c>
-      <c r="F28" s="51" t="s">
-        <v>308</v>
-      </c>
-      <c r="G28" s="50" t="s">
-        <v>291</v>
-      </c>
-      <c r="H28" s="44">
-        <v>8181</v>
+        <v>445</v>
       </c>
       <c r="I28" s="4"/>
     </row>
@@ -9361,10 +9362,10 @@
         <v>27</v>
       </c>
       <c r="F29" s="51" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G29" s="60" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H29" s="53">
         <v>850</v>
@@ -9382,7 +9383,7 @@
         <v>1</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="1"/>
@@ -9399,7 +9400,7 @@
         <v>1</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="1"/>
@@ -9415,7 +9416,7 @@
         <v>1</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="L32" s="72"/>
     </row>
@@ -9430,7 +9431,7 @@
         <v>1</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.25">
@@ -9459,7 +9460,7 @@
         <v>1</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.25">
@@ -9487,7 +9488,7 @@
         <v>1</v>
       </c>
       <c r="E37" s="29" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="38" spans="2:18" x14ac:dyDescent="0.25">
@@ -9501,7 +9502,7 @@
         <v>1</v>
       </c>
       <c r="E38" s="29" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="Q38" s="74"/>
       <c r="R38" s="74"/>
@@ -9531,7 +9532,7 @@
         <v>1</v>
       </c>
       <c r="E40" s="30" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.25">
@@ -9559,7 +9560,7 @@
         <v>1</v>
       </c>
       <c r="E42" s="30" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="43" spans="2:18" x14ac:dyDescent="0.25">
@@ -9589,7 +9590,7 @@
         <v>1</v>
       </c>
       <c r="E44" s="25" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.25">
@@ -9603,7 +9604,7 @@
         <v>1</v>
       </c>
       <c r="E45" s="25" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="46" spans="2:18" x14ac:dyDescent="0.25">
@@ -9631,7 +9632,7 @@
         <v>1</v>
       </c>
       <c r="E47" s="25" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="Q47" s="74"/>
       <c r="R47" s="74"/>
@@ -9647,16 +9648,16 @@
         <v>1</v>
       </c>
       <c r="E48" s="25" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F48" s="51" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G48" s="48" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H48" s="44" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="49" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9670,7 +9671,7 @@
         <v>1</v>
       </c>
       <c r="E49" s="25" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.25">
@@ -9684,7 +9685,7 @@
         <v>1</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.25">
@@ -9838,13 +9839,13 @@
         <v>1</v>
       </c>
       <c r="E61" s="25" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F61" s="51" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G61" s="66" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H61" s="44">
         <v>844</v>
@@ -9889,22 +9890,22 @@
         <v>1</v>
       </c>
       <c r="E64" s="31" t="s">
+        <v>352</v>
+      </c>
+      <c r="F64" s="77" t="s">
+        <v>336</v>
+      </c>
+      <c r="G64" s="88" t="s">
+        <v>351</v>
+      </c>
+      <c r="H64" s="79" t="s">
         <v>353</v>
       </c>
-      <c r="F64" s="77" t="s">
-        <v>337</v>
-      </c>
-      <c r="G64" s="88" t="s">
-        <v>352</v>
-      </c>
-      <c r="H64" s="79" t="s">
-        <v>354</v>
-      </c>
       <c r="I64" s="89" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J64" s="90" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K64" s="91">
         <v>851</v>
@@ -9921,16 +9922,16 @@
         <v>1</v>
       </c>
       <c r="E65" s="31" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F65" s="51" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G65" s="52" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H65" s="44" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.25">
@@ -9944,16 +9945,16 @@
         <v>1</v>
       </c>
       <c r="E66" s="31" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F66" s="51" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G66" s="68" t="s">
         <v>282</v>
       </c>
       <c r="H66" s="44" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I66" s="2"/>
     </row>
@@ -9996,13 +9997,13 @@
         <v>1</v>
       </c>
       <c r="E69" s="25" t="s">
+        <v>403</v>
+      </c>
+      <c r="F69" s="80" t="s">
+        <v>397</v>
+      </c>
+      <c r="G69" s="101" t="s">
         <v>404</v>
-      </c>
-      <c r="F69" s="80" t="s">
-        <v>398</v>
-      </c>
-      <c r="G69" s="101" t="s">
-        <v>405</v>
       </c>
       <c r="H69" s="10">
         <v>869</v>
@@ -10019,16 +10020,16 @@
         <v>1</v>
       </c>
       <c r="E70" s="31" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F70" s="51" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G70" s="52" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H70" s="44" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L70" t="s">
         <v>9</v>
@@ -10045,7 +10046,7 @@
         <v>1</v>
       </c>
       <c r="E71" s="28" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="I71" s="51"/>
       <c r="K71" s="44"/>
@@ -10090,13 +10091,13 @@
         <v>1</v>
       </c>
       <c r="E74" s="93" t="s">
+        <v>396</v>
+      </c>
+      <c r="F74" s="76" t="s">
         <v>397</v>
       </c>
-      <c r="F74" s="76" t="s">
-        <v>398</v>
-      </c>
       <c r="G74" s="101" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H74" s="10">
         <v>870</v>
@@ -10113,13 +10114,13 @@
         <v>1</v>
       </c>
       <c r="E75" s="27" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F75" s="76" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G75" s="101" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H75" s="10">
         <v>870</v>
@@ -10151,16 +10152,16 @@
         <v>1</v>
       </c>
       <c r="E77" s="25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F77" s="51" t="s">
+        <v>336</v>
+      </c>
+      <c r="G77" s="45" t="s">
         <v>337</v>
       </c>
-      <c r="G77" s="45" t="s">
-        <v>338</v>
-      </c>
       <c r="H77" s="71" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="78" spans="2:12" x14ac:dyDescent="0.25">
@@ -10174,25 +10175,25 @@
         <v>1</v>
       </c>
       <c r="E78" s="25" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F78" s="77" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G78" s="92" t="s">
         <v>298</v>
       </c>
       <c r="H78" s="79" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I78" s="81" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J78" s="97" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="K78" s="94" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.25">
@@ -10206,19 +10207,19 @@
         <v>1</v>
       </c>
       <c r="E79" s="27" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F79" s="51" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G79" s="61" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H79" s="71" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="I79" s="76" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J79" s="96" t="s">
         <v>274</v>
@@ -10242,7 +10243,7 @@
       </c>
       <c r="H80" s="44"/>
       <c r="I80" s="85" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J80" s="95" t="s">
         <v>279</v>
@@ -10277,13 +10278,13 @@
         <v>1</v>
       </c>
       <c r="E82" s="28" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F82" s="51" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G82" s="69" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H82" s="44">
         <v>1140</v>
@@ -10330,16 +10331,16 @@
         <v>1</v>
       </c>
       <c r="E85" s="25" t="s">
+        <v>389</v>
+      </c>
+      <c r="F85" s="51" t="s">
+        <v>336</v>
+      </c>
+      <c r="G85" s="59" t="s">
+        <v>339</v>
+      </c>
+      <c r="H85" s="71" t="s">
         <v>390</v>
-      </c>
-      <c r="F85" s="51" t="s">
-        <v>337</v>
-      </c>
-      <c r="G85" s="59" t="s">
-        <v>340</v>
-      </c>
-      <c r="H85" s="71" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.25">
@@ -10383,13 +10384,13 @@
         <v>1</v>
       </c>
       <c r="E88" s="25" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F88" s="51" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G88" s="60" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H88" s="53">
         <v>850</v>
@@ -10406,7 +10407,7 @@
         <v>1</v>
       </c>
       <c r="E89" s="25" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.25">
@@ -10420,7 +10421,7 @@
         <v>1</v>
       </c>
       <c r="E90" s="31" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.25">
@@ -10434,7 +10435,7 @@
         <v>1</v>
       </c>
       <c r="E91" s="25" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.25">
@@ -10448,7 +10449,7 @@
         <v>1</v>
       </c>
       <c r="E92" s="25" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="93" spans="2:8" x14ac:dyDescent="0.25">
@@ -10462,7 +10463,7 @@
         <v>1</v>
       </c>
       <c r="E93" s="25" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.25">
@@ -10476,7 +10477,7 @@
         <v>1</v>
       </c>
       <c r="E94" s="25" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.25">
@@ -10490,7 +10491,7 @@
         <v>1</v>
       </c>
       <c r="E95" s="25" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.25">
@@ -10504,7 +10505,7 @@
         <v>1</v>
       </c>
       <c r="E96" s="25" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.25">
@@ -10518,7 +10519,7 @@
         <v>1</v>
       </c>
       <c r="E97" s="25" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.25">
@@ -10546,7 +10547,7 @@
         <v>1</v>
       </c>
       <c r="E99" s="25" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="100" spans="2:8" x14ac:dyDescent="0.25">
@@ -10574,7 +10575,7 @@
         <v>1</v>
       </c>
       <c r="E101" s="25" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="102" spans="2:8" x14ac:dyDescent="0.25">
@@ -10602,7 +10603,7 @@
         <v>1</v>
       </c>
       <c r="E103" s="25" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="104" spans="2:8" x14ac:dyDescent="0.25">
@@ -10630,7 +10631,7 @@
         <v>1</v>
       </c>
       <c r="E105" s="25" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="106" spans="2:8" x14ac:dyDescent="0.25">
@@ -10644,7 +10645,7 @@
         <v>1</v>
       </c>
       <c r="E106" s="25" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="107" spans="2:8" x14ac:dyDescent="0.25">
@@ -10658,13 +10659,13 @@
         <v>1</v>
       </c>
       <c r="E107" s="27" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F107" s="80" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G107" s="102" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H107" s="10">
         <v>873</v>
@@ -10681,13 +10682,13 @@
         <v>1</v>
       </c>
       <c r="E108" s="27" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F108" s="80" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G108" s="102" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H108" s="10">
         <v>873</v>
@@ -10704,13 +10705,13 @@
         <v>1</v>
       </c>
       <c r="E109" s="27" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F109" s="80" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G109" s="102" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H109" s="10">
         <v>873</v>
@@ -10727,13 +10728,13 @@
         <v>1</v>
       </c>
       <c r="E110" s="27" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F110" s="80" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G110" s="102" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H110" s="10">
         <v>873</v>
@@ -10750,13 +10751,13 @@
         <v>1</v>
       </c>
       <c r="E111" s="27" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F111" s="80" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G111" s="102" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H111" s="10">
         <v>873</v>
@@ -10773,13 +10774,13 @@
         <v>1</v>
       </c>
       <c r="E112" s="27" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F112" s="80" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G112" s="102" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H112" s="10">
         <v>873</v>
@@ -10796,13 +10797,13 @@
         <v>1</v>
       </c>
       <c r="E113" s="27" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F113" s="80" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G113" s="102" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H113" s="10">
         <v>873</v>
@@ -10819,13 +10820,13 @@
         <v>1</v>
       </c>
       <c r="E114" s="27" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F114" s="80" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G114" s="102" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H114" s="10">
         <v>873</v>
@@ -10842,13 +10843,13 @@
         <v>1</v>
       </c>
       <c r="E115" s="27" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F115" s="80" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G115" s="102" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H115" s="10">
         <v>873</v>
@@ -10865,13 +10866,13 @@
         <v>1</v>
       </c>
       <c r="E116" s="27" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F116" s="80" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G116" s="101" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H116" s="10">
         <v>872</v>
@@ -10888,13 +10889,13 @@
         <v>1</v>
       </c>
       <c r="E117" s="27" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F117" s="80" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G117" s="101" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H117" s="10">
         <v>872</v>
@@ -10911,13 +10912,13 @@
         <v>1</v>
       </c>
       <c r="E118" s="27" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F118" s="80" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G118" s="101" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H118" s="10">
         <v>872</v>
@@ -10934,13 +10935,13 @@
         <v>1</v>
       </c>
       <c r="E119" s="27" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F119" s="80" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G119" s="101" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H119" s="10">
         <v>872</v>
@@ -10957,13 +10958,13 @@
         <v>1</v>
       </c>
       <c r="E120" s="27" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F120" s="80" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G120" s="101" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H120" s="10">
         <v>872</v>
@@ -10980,7 +10981,7 @@
         <v>1</v>
       </c>
       <c r="E121" s="27" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="122" spans="2:8" x14ac:dyDescent="0.25">
@@ -10994,13 +10995,13 @@
         <v>1</v>
       </c>
       <c r="E122" s="27" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F122" s="80" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G122" s="101" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H122" s="10">
         <v>872</v>
@@ -11017,13 +11018,13 @@
         <v>1</v>
       </c>
       <c r="E123" s="27" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F123" s="80" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G123" s="101" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H123" s="10">
         <v>872</v>
@@ -11054,13 +11055,13 @@
         <v>1</v>
       </c>
       <c r="E125" s="27" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F125" s="80" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G125" s="101" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H125" s="10">
         <v>872</v>
@@ -11077,13 +11078,13 @@
         <v>1</v>
       </c>
       <c r="E126" s="27" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F126" s="80" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G126" s="101" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H126" s="10">
         <v>872</v>
@@ -11100,13 +11101,13 @@
         <v>1</v>
       </c>
       <c r="E127" s="28" t="s">
+        <v>312</v>
+      </c>
+      <c r="F127" s="51" t="s">
+        <v>308</v>
+      </c>
+      <c r="G127" s="54" t="s">
         <v>313</v>
-      </c>
-      <c r="F127" s="51" t="s">
-        <v>309</v>
-      </c>
-      <c r="G127" s="54" t="s">
-        <v>314</v>
       </c>
       <c r="H127" s="44">
         <v>853</v>
@@ -12968,7 +12969,7 @@
     </row>
     <row r="45" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C45" s="115" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D45" s="115"/>
     </row>
@@ -12977,7 +12978,7 @@
         <v>750</v>
       </c>
       <c r="D46" s="16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="47" spans="3:5" x14ac:dyDescent="0.25">
@@ -12986,30 +12987,30 @@
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C49" s="115" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D49" s="115"/>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B50" s="64" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C50" s="58">
         <v>760</v>
       </c>
       <c r="D50" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="51" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B51" s="65" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C51" s="58">
         <v>761</v>
       </c>
       <c r="D51" s="63" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.25">
@@ -13020,7 +13021,7 @@
         <v>762</v>
       </c>
       <c r="D52" s="16" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.25">
@@ -13031,7 +13032,7 @@
         <v>763</v>
       </c>
       <c r="D53" s="16" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
@@ -13042,7 +13043,7 @@
         <v>764</v>
       </c>
       <c r="D54" s="41" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
@@ -13053,7 +13054,7 @@
         <v>765</v>
       </c>
       <c r="D55" s="41" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.25">
@@ -13064,7 +13065,7 @@
         <v>766</v>
       </c>
       <c r="D56" s="41" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.25">
@@ -13075,7 +13076,7 @@
         <v>767</v>
       </c>
       <c r="D57" s="41" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.25">
@@ -13086,7 +13087,7 @@
         <v>768</v>
       </c>
       <c r="D58" s="57" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.25">
@@ -13097,7 +13098,7 @@
         <v>769</v>
       </c>
       <c r="D59" s="41" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.25">
@@ -13108,7 +13109,7 @@
         <v>770</v>
       </c>
       <c r="D60" s="41" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.25">
@@ -13119,7 +13120,7 @@
         <v>771</v>
       </c>
       <c r="D61" s="41" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.25">
@@ -13130,7 +13131,7 @@
         <v>772</v>
       </c>
       <c r="D62" s="41" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.25">
@@ -13141,7 +13142,7 @@
         <v>773</v>
       </c>
       <c r="D63" s="41" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.25">
@@ -13152,7 +13153,7 @@
         <v>774</v>
       </c>
       <c r="D64" s="41" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.25">
@@ -13163,7 +13164,7 @@
         <v>775</v>
       </c>
       <c r="D65" s="41" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.25">
@@ -13174,7 +13175,7 @@
         <v>776</v>
       </c>
       <c r="D66" s="41" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.25">
@@ -13185,7 +13186,7 @@
         <v>777</v>
       </c>
       <c r="D67" s="41" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.25">
@@ -13196,7 +13197,7 @@
         <v>778</v>
       </c>
       <c r="D68" s="41" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.25">
@@ -13207,12 +13208,12 @@
         <v>779</v>
       </c>
       <c r="D69" s="41" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C72" s="115" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D72" s="115"/>
     </row>
@@ -13224,10 +13225,10 @@
         <v>780</v>
       </c>
       <c r="D73" s="16" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E73" s="111" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.25">
@@ -13238,7 +13239,7 @@
         <v>781</v>
       </c>
       <c r="D74" s="16" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E74" s="112"/>
     </row>
@@ -13250,7 +13251,7 @@
         <v>782</v>
       </c>
       <c r="D75" s="16" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E75" s="112"/>
     </row>
@@ -13262,7 +13263,7 @@
         <v>783</v>
       </c>
       <c r="D76" s="16" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E76" s="112"/>
     </row>
@@ -13274,7 +13275,7 @@
         <v>784</v>
       </c>
       <c r="D77" s="16" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E77" s="112"/>
     </row>
@@ -13286,7 +13287,7 @@
         <v>785</v>
       </c>
       <c r="D78" s="16" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E78" s="112"/>
     </row>
@@ -13298,7 +13299,7 @@
         <v>786</v>
       </c>
       <c r="D79" s="16" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E79" s="113"/>
     </row>
@@ -13310,10 +13311,10 @@
         <v>787</v>
       </c>
       <c r="D80" s="16" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E80" s="111" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.25">
@@ -13394,7 +13395,7 @@
         <v>795</v>
       </c>
       <c r="E88" s="111" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.25">
@@ -13405,7 +13406,7 @@
         <v>796</v>
       </c>
       <c r="D89" s="16" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E89" s="112"/>
     </row>
@@ -13417,7 +13418,7 @@
         <v>797</v>
       </c>
       <c r="D90" s="16" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E90" s="112"/>
     </row>
@@ -13429,7 +13430,7 @@
         <v>798</v>
       </c>
       <c r="D91" s="16" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E91" s="113"/>
     </row>
@@ -13441,7 +13442,7 @@
         <v>799</v>
       </c>
       <c r="D92" s="16" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.25">
@@ -13452,7 +13453,7 @@
         <v>800</v>
       </c>
       <c r="D93" s="16" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
   </sheetData>

--- a/Producciones.xlsx
+++ b/Producciones.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Usuario\Documents\NetBeansProjects\Compilador\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F3133B-24DA-41B8-B580-920890700985}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F705FA45-ACDE-4A25-8949-FA994BC25C85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16125" yWindow="705" windowWidth="11475" windowHeight="14850" xr2:uid="{CE99D781-93EC-43B9-9325-D9E8261D5F1E}"/>
+    <workbookView xWindow="4350" yWindow="525" windowWidth="11475" windowHeight="14850" xr2:uid="{CE99D781-93EC-43B9-9325-D9E8261D5F1E}"/>
   </bookViews>
   <sheets>
     <sheet name="Producciones" sheetId="1" r:id="rId1"/>
@@ -5705,6 +5705,1372 @@
     <t>863 , 864</t>
   </si>
   <si>
+    <t>No return?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> OR </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> EST</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A3 K0</t>
+    </r>
+  </si>
+  <si>
+    <t>(820, 821)</t>
+  </si>
+  <si>
+    <t>1009, 1010</t>
+  </si>
+  <si>
+    <r>
+      <t>while</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF7A7E6"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF26AD5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">OR </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF26AD5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EST</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">A3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>wend</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>elif</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> OR </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EST</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A3 K0</t>
+    </r>
+  </si>
+  <si>
+    <t>1009, 1012</t>
+  </si>
+  <si>
+    <t>1009, 1011</t>
+  </si>
+  <si>
+    <t>Start Asignación</t>
+  </si>
+  <si>
+    <t>End Asignación</t>
+  </si>
+  <si>
+    <t>ID en ejec</t>
+  </si>
+  <si>
+    <t>End Parametros</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">OR </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF663300"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> B0</t>
+    </r>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> OR </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF663300"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">@ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B0</t>
+    </r>
+  </si>
+  <si>
+    <t>fun_par1</t>
+  </si>
+  <si>
+    <t>fun_par2</t>
+  </si>
+  <si>
+    <t>Paramertro debe ser tipo cadena, id o idcadena</t>
+  </si>
+  <si>
+    <t>ERRORES DE SEMANTICA 3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF663300"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> FUNLIST</t>
+    </r>
+  </si>
+  <si>
+    <t>funList</t>
+  </si>
+  <si>
+    <t>end funlist</t>
+  </si>
+  <si>
+    <t>end fun</t>
+  </si>
+  <si>
+    <r>
+      <t>Sort (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> J5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF824100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Reverse (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> J5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF824100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Count ( </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>J5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> )</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF824100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> @</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">index ( </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>J5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> )</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF824100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> @</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">append ( </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>J5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF824100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">extend ( </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>J5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF824100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>pop (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> J5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF824100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">remove ( </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>J5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF824100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">insert ( </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>J5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF824100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">findall ( </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>J5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF663300"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">replace ( </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>J5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF663300"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">len ( </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>J5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF663300"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">choice ( </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>J5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF663300"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">randrange ( </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>J5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF663300"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">mean ( </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>J5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF663300"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> @</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">sum ( </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>J5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF663300"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">random ( </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>J5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">sample ( </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>J5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF663300"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+  </si>
+  <si>
+    <t>Paramertro debe ser tipo cadena, id, idlista o  idcadena</t>
+  </si>
+  <si>
+    <t>Numero de parametros incorrecto</t>
+  </si>
+  <si>
+    <t>Parametro debe ser tipo idlista, idcadena, iddicc, idtup, o idrang</t>
+  </si>
+  <si>
+    <t>Parametro debe ser tipo decimal o id</t>
+  </si>
+  <si>
+    <t>Parametro debe ser tipo idlista</t>
+  </si>
+  <si>
+    <t>Parametro debe ser tipo idlista num</t>
+  </si>
+  <si>
+    <t>Parametro debe ser tipo decimal, float, hex, oct, bin, complejo, cadena o char</t>
+  </si>
+  <si>
+    <t>Entradas</t>
+  </si>
+  <si>
+    <t>Salidas</t>
+  </si>
+  <si>
+    <t>Uso</t>
+  </si>
+  <si>
+    <t>Debe ser idlista</t>
+  </si>
+  <si>
+    <t>Debe ser idlista, idcadena o idlistanumerica</t>
+  </si>
+  <si>
+    <t>Debe ser idlista, idcadena, iddiccionario o idlistanumerica</t>
+  </si>
+  <si>
+    <t>Debe ser idlista o idlistanumerica</t>
+  </si>
+  <si>
+    <t>Parametro debe ser tipo decimal, float, hex, oct, bin, complejo, cadena, char o id</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">print ( </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">OR </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF663300"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> B0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> )</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">variance ( </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>J5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF663300"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">OR </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ASIGN J3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA50021"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CONSTANTE B1 B2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCF20C"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">CONSTANTE </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCF20C"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> B2</t>
+    </r>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">def </t>
     </r>
@@ -5726,7 +7092,27 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> id ( </t>
+      <t xml:space="preserve"> id </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ( </t>
     </r>
     <r>
       <rPr>
@@ -5865,1373 +7251,7 @@
     </r>
   </si>
   <si>
-    <t>No return?</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>if</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> OR </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> EST</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A3 K0</t>
-    </r>
-  </si>
-  <si>
-    <t>(820, 821)</t>
-  </si>
-  <si>
-    <t>1009, 1010</t>
-  </si>
-  <si>
-    <r>
-      <t>while</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF7A7E6"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF26AD5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">OR </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF26AD5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>EST</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">A3 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>wend</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>elif</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8" tint="0.39997558519241921"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> OR </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8" tint="0.39997558519241921"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>EST</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A3 K0</t>
-    </r>
-  </si>
-  <si>
-    <t>1009, 1012</t>
-  </si>
-  <si>
-    <t>1009, 1011</t>
-  </si>
-  <si>
-    <t>Start Asignación</t>
-  </si>
-  <si>
-    <t>End Asignación</t>
-  </si>
-  <si>
-    <t>ID en ejec</t>
-  </si>
-  <si>
-    <t>End Parametros</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">OR </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF663300"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> B0</t>
-    </r>
-  </si>
-  <si>
-    <t>S3</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> OR </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF663300"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">@ </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>B0</t>
-    </r>
-  </si>
-  <si>
-    <t>fun_par1</t>
-  </si>
-  <si>
-    <t>fun_par2</t>
-  </si>
-  <si>
-    <t>Paramertro debe ser tipo cadena, id o idcadena</t>
-  </si>
-  <si>
-    <t>ERRORES DE SEMANTICA 3</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF663300"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> FUNLIST</t>
-    </r>
-  </si>
-  <si>
-    <t>funList</t>
-  </si>
-  <si>
-    <t>end funlist</t>
-  </si>
-  <si>
-    <t>end fun</t>
-  </si>
-  <si>
-    <r>
-      <t>Sort (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> J5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF824100"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Reverse (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> J5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF824100"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Count ( </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>J5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> )</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF824100"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> @</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">index ( </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>J5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> )</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF824100"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> @</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">append ( </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>J5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF824100"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">extend ( </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>J5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF824100"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>pop (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> J5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF824100"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">remove ( </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>J5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF824100"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">insert ( </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>J5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF824100"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">findall ( </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>J5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF663300"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">replace ( </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>J5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF663300"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">len ( </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>J5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF663300"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">choice ( </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>J5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF663300"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">randrange ( </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>J5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF663300"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">mean ( </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>J5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF663300"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> @</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">sum ( </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>J5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF663300"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">random ( </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>J5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ) </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">sample ( </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>J5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF663300"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-  </si>
-  <si>
-    <t>Paramertro debe ser tipo cadena, id, idlista o  idcadena</t>
-  </si>
-  <si>
-    <t>Numero de parametros incorrecto</t>
-  </si>
-  <si>
-    <t>Parametro debe ser tipo idlista, idcadena, iddicc, idtup, o idrang</t>
-  </si>
-  <si>
-    <t>Parametro debe ser tipo decimal o id</t>
-  </si>
-  <si>
-    <t>Parametro debe ser tipo idlista</t>
-  </si>
-  <si>
-    <t>Parametro debe ser tipo idlista num</t>
-  </si>
-  <si>
-    <t>Parametro debe ser tipo decimal, float, hex, oct, bin, complejo, cadena o char</t>
-  </si>
-  <si>
-    <t>Entradas</t>
-  </si>
-  <si>
-    <t>Salidas</t>
-  </si>
-  <si>
-    <t>Uso</t>
-  </si>
-  <si>
-    <t>Debe ser idlista</t>
-  </si>
-  <si>
-    <t>Debe ser idlista, idcadena o idlistanumerica</t>
-  </si>
-  <si>
-    <t>Debe ser idlista, idcadena, iddiccionario o idlistanumerica</t>
-  </si>
-  <si>
-    <t>Debe ser idlista o idlistanumerica</t>
-  </si>
-  <si>
-    <t>(804, 1804)</t>
-  </si>
-  <si>
-    <t>Parametro debe ser tipo decimal, float, hex, oct, bin, complejo, cadena, char o id</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">print ( </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">OR </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF663300"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> B0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> )</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">variance ( </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>J5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF663300"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">OR </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ASIGN J3 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFA50021"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CONSTANTE B1 B2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCCF20C"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">CONSTANTE </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCCF20C"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> B2</t>
-    </r>
+    <t>(804, 8041, 1804)</t>
   </si>
 </sst>
 </file>
@@ -8140,6 +8160,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8176,7 +8197,6 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="20% - Énfasis5" xfId="6" builtinId="46"/>
@@ -8694,8 +8714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE3FA8B9-A47E-429A-BD32-FD36D0235D3B}">
   <dimension ref="B1:DI168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8720,12 +8740,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="104" t="s">
+      <c r="B1" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="107"/>
       <c r="J1" s="74"/>
       <c r="K1" s="74"/>
       <c r="L1" s="74"/>
@@ -8736,10 +8756,10 @@
       <c r="V1" s="5"/>
     </row>
     <row r="2" spans="2:113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="107"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="109"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="110"/>
       <c r="J2" s="74"/>
       <c r="K2" s="74"/>
       <c r="L2" s="74"/>
@@ -8880,7 +8900,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>383</v>
+        <v>445</v>
       </c>
       <c r="F4" s="77" t="s">
         <v>307</v>
@@ -8889,7 +8909,7 @@
         <v>282</v>
       </c>
       <c r="H4" s="79" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="I4" s="81" t="s">
         <v>307</v>
@@ -8927,7 +8947,7 @@
         <v>307</v>
       </c>
       <c r="J5" s="83" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="K5" s="84" t="s">
         <v>287</v>
@@ -8959,7 +8979,7 @@
         <v>374</v>
       </c>
       <c r="J6" s="86" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="K6" s="87">
         <v>1150</v>
@@ -9288,13 +9308,13 @@
         <v>1</v>
       </c>
       <c r="E26" s="25" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F26" s="51" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G26" s="100" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H26" s="44">
         <v>871</v>
@@ -9312,12 +9332,12 @@
         <v>1</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F27" s="77" t="s">
         <v>307</v>
       </c>
-      <c r="G27" s="116" t="s">
+      <c r="G27" s="104" t="s">
         <v>291</v>
       </c>
       <c r="H27" s="79">
@@ -9326,7 +9346,7 @@
       <c r="I27" s="89" t="s">
         <v>307</v>
       </c>
-      <c r="J27" s="116" t="s">
+      <c r="J27" s="104" t="s">
         <v>291</v>
       </c>
       <c r="K27" s="91">
@@ -9344,7 +9364,7 @@
         <v>1</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="I28" s="4"/>
     </row>
@@ -9845,7 +9865,7 @@
         <v>308</v>
       </c>
       <c r="G61" s="66" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H61" s="44">
         <v>844</v>
@@ -9905,7 +9925,7 @@
         <v>308</v>
       </c>
       <c r="J64" s="90" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K64" s="91">
         <v>851</v>
@@ -9928,7 +9948,7 @@
         <v>308</v>
       </c>
       <c r="G65" s="52" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H65" s="44" t="s">
         <v>314</v>
@@ -9997,13 +10017,13 @@
         <v>1</v>
       </c>
       <c r="E69" s="25" t="s">
+        <v>402</v>
+      </c>
+      <c r="F69" s="80" t="s">
+        <v>396</v>
+      </c>
+      <c r="G69" s="101" t="s">
         <v>403</v>
-      </c>
-      <c r="F69" s="80" t="s">
-        <v>397</v>
-      </c>
-      <c r="G69" s="101" t="s">
-        <v>404</v>
       </c>
       <c r="H69" s="10">
         <v>869</v>
@@ -10020,13 +10040,13 @@
         <v>1</v>
       </c>
       <c r="E70" s="31" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F70" s="51" t="s">
         <v>308</v>
       </c>
       <c r="G70" s="52" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H70" s="44" t="s">
         <v>314</v>
@@ -10046,7 +10066,7 @@
         <v>1</v>
       </c>
       <c r="E71" s="28" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="I71" s="51"/>
       <c r="K71" s="44"/>
@@ -10091,13 +10111,13 @@
         <v>1</v>
       </c>
       <c r="E74" s="93" t="s">
+        <v>395</v>
+      </c>
+      <c r="F74" s="76" t="s">
         <v>396</v>
       </c>
-      <c r="F74" s="76" t="s">
-        <v>397</v>
-      </c>
       <c r="G74" s="101" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H74" s="10">
         <v>870</v>
@@ -10114,13 +10134,13 @@
         <v>1</v>
       </c>
       <c r="E75" s="27" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F75" s="76" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G75" s="101" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H75" s="10">
         <v>870</v>
@@ -10152,7 +10172,7 @@
         <v>1</v>
       </c>
       <c r="E77" s="25" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F77" s="51" t="s">
         <v>336</v>
@@ -10161,7 +10181,7 @@
         <v>337</v>
       </c>
       <c r="H77" s="71" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="78" spans="2:12" x14ac:dyDescent="0.25">
@@ -10184,7 +10204,7 @@
         <v>298</v>
       </c>
       <c r="H78" s="79" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I78" s="81" t="s">
         <v>336</v>
@@ -10207,7 +10227,7 @@
         <v>1</v>
       </c>
       <c r="E79" s="27" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F79" s="51" t="s">
         <v>336</v>
@@ -10216,7 +10236,7 @@
         <v>340</v>
       </c>
       <c r="H79" s="71" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I79" s="76" t="s">
         <v>307</v>
@@ -10331,7 +10351,7 @@
         <v>1</v>
       </c>
       <c r="E85" s="25" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F85" s="51" t="s">
         <v>336</v>
@@ -10340,7 +10360,7 @@
         <v>339</v>
       </c>
       <c r="H85" s="71" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.25">
@@ -10659,13 +10679,13 @@
         <v>1</v>
       </c>
       <c r="E107" s="27" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F107" s="80" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G107" s="102" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H107" s="10">
         <v>873</v>
@@ -10682,13 +10702,13 @@
         <v>1</v>
       </c>
       <c r="E108" s="27" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F108" s="80" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G108" s="102" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H108" s="10">
         <v>873</v>
@@ -10705,13 +10725,13 @@
         <v>1</v>
       </c>
       <c r="E109" s="27" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F109" s="80" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G109" s="102" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H109" s="10">
         <v>873</v>
@@ -10728,13 +10748,13 @@
         <v>1</v>
       </c>
       <c r="E110" s="27" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F110" s="80" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G110" s="102" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H110" s="10">
         <v>873</v>
@@ -10751,13 +10771,13 @@
         <v>1</v>
       </c>
       <c r="E111" s="27" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F111" s="80" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G111" s="102" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H111" s="10">
         <v>873</v>
@@ -10774,13 +10794,13 @@
         <v>1</v>
       </c>
       <c r="E112" s="27" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F112" s="80" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G112" s="102" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H112" s="10">
         <v>873</v>
@@ -10797,13 +10817,13 @@
         <v>1</v>
       </c>
       <c r="E113" s="27" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F113" s="80" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G113" s="102" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H113" s="10">
         <v>873</v>
@@ -10820,13 +10840,13 @@
         <v>1</v>
       </c>
       <c r="E114" s="27" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F114" s="80" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G114" s="102" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H114" s="10">
         <v>873</v>
@@ -10843,13 +10863,13 @@
         <v>1</v>
       </c>
       <c r="E115" s="27" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F115" s="80" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G115" s="102" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H115" s="10">
         <v>873</v>
@@ -10866,13 +10886,13 @@
         <v>1</v>
       </c>
       <c r="E116" s="27" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F116" s="80" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G116" s="101" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H116" s="10">
         <v>872</v>
@@ -10889,13 +10909,13 @@
         <v>1</v>
       </c>
       <c r="E117" s="27" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F117" s="80" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G117" s="101" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H117" s="10">
         <v>872</v>
@@ -10912,13 +10932,13 @@
         <v>1</v>
       </c>
       <c r="E118" s="27" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F118" s="80" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G118" s="101" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H118" s="10">
         <v>872</v>
@@ -10935,13 +10955,13 @@
         <v>1</v>
       </c>
       <c r="E119" s="27" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F119" s="80" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G119" s="101" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H119" s="10">
         <v>872</v>
@@ -10958,13 +10978,13 @@
         <v>1</v>
       </c>
       <c r="E120" s="27" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F120" s="80" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G120" s="101" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H120" s="10">
         <v>872</v>
@@ -10981,7 +11001,7 @@
         <v>1</v>
       </c>
       <c r="E121" s="27" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="122" spans="2:8" x14ac:dyDescent="0.25">
@@ -10995,13 +11015,13 @@
         <v>1</v>
       </c>
       <c r="E122" s="27" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F122" s="80" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G122" s="101" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H122" s="10">
         <v>872</v>
@@ -11018,13 +11038,13 @@
         <v>1</v>
       </c>
       <c r="E123" s="27" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F123" s="80" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G123" s="101" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H123" s="10">
         <v>872</v>
@@ -11055,13 +11075,13 @@
         <v>1</v>
       </c>
       <c r="E125" s="27" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F125" s="80" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G125" s="101" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H125" s="10">
         <v>872</v>
@@ -11078,13 +11098,13 @@
         <v>1</v>
       </c>
       <c r="E126" s="27" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F126" s="80" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G126" s="101" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H126" s="10">
         <v>872</v>
@@ -11513,16 +11533,16 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="110" t="s">
+      <c r="B3" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="110"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
+      <c r="B4" s="111"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="111"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
@@ -12064,16 +12084,16 @@
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B57" s="110" t="s">
+      <c r="B57" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="C57" s="110"/>
-      <c r="D57" s="110"/>
+      <c r="C57" s="111"/>
+      <c r="D57" s="111"/>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B58" s="110"/>
-      <c r="C58" s="110"/>
-      <c r="D58" s="110"/>
+      <c r="B58" s="111"/>
+      <c r="C58" s="111"/>
+      <c r="D58" s="111"/>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B59" s="7" t="s">
@@ -12637,10 +12657,10 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C4" s="114" t="s">
+      <c r="C4" s="115" t="s">
         <v>276</v>
       </c>
-      <c r="D4" s="114"/>
+      <c r="D4" s="115"/>
       <c r="E4" s="18"/>
     </row>
     <row r="5" spans="3:5" x14ac:dyDescent="0.25">
@@ -12944,10 +12964,10 @@
       <c r="E39" s="36"/>
     </row>
     <row r="40" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C40" s="114" t="s">
+      <c r="C40" s="115" t="s">
         <v>275</v>
       </c>
-      <c r="D40" s="114"/>
+      <c r="D40" s="115"/>
       <c r="E40" s="36"/>
     </row>
     <row r="41" spans="3:5" x14ac:dyDescent="0.25">
@@ -12968,10 +12988,10 @@
       </c>
     </row>
     <row r="45" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C45" s="115" t="s">
+      <c r="C45" s="116" t="s">
         <v>338</v>
       </c>
-      <c r="D45" s="115"/>
+      <c r="D45" s="116"/>
     </row>
     <row r="46" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C46" s="58">
@@ -12986,10 +13006,10 @@
       <c r="D47" s="62"/>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C49" s="115" t="s">
+      <c r="C49" s="116" t="s">
         <v>362</v>
       </c>
-      <c r="D49" s="115"/>
+      <c r="D49" s="116"/>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B50" s="64" t="s">
@@ -13212,10 +13232,10 @@
       </c>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C72" s="115" t="s">
-        <v>402</v>
-      </c>
-      <c r="D72" s="115"/>
+      <c r="C72" s="116" t="s">
+        <v>401</v>
+      </c>
+      <c r="D72" s="116"/>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B73" s="103">
@@ -13225,10 +13245,10 @@
         <v>780</v>
       </c>
       <c r="D73" s="16" t="s">
-        <v>401</v>
-      </c>
-      <c r="E73" s="111" t="s">
-        <v>432</v>
+        <v>400</v>
+      </c>
+      <c r="E73" s="112" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.25">
@@ -13239,9 +13259,9 @@
         <v>781</v>
       </c>
       <c r="D74" s="16" t="s">
-        <v>425</v>
-      </c>
-      <c r="E74" s="112"/>
+        <v>424</v>
+      </c>
+      <c r="E74" s="113"/>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B75" s="103">
@@ -13251,9 +13271,9 @@
         <v>782</v>
       </c>
       <c r="D75" s="16" t="s">
-        <v>427</v>
-      </c>
-      <c r="E75" s="112"/>
+        <v>426</v>
+      </c>
+      <c r="E75" s="113"/>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B76" s="103">
@@ -13263,9 +13283,9 @@
         <v>783</v>
       </c>
       <c r="D76" s="16" t="s">
-        <v>428</v>
-      </c>
-      <c r="E76" s="112"/>
+        <v>427</v>
+      </c>
+      <c r="E76" s="113"/>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B77" s="103">
@@ -13275,9 +13295,9 @@
         <v>784</v>
       </c>
       <c r="D77" s="16" t="s">
-        <v>429</v>
-      </c>
-      <c r="E77" s="112"/>
+        <v>428</v>
+      </c>
+      <c r="E77" s="113"/>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B78" s="103">
@@ -13287,9 +13307,9 @@
         <v>785</v>
       </c>
       <c r="D78" s="16" t="s">
-        <v>430</v>
-      </c>
-      <c r="E78" s="112"/>
+        <v>429</v>
+      </c>
+      <c r="E78" s="113"/>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B79" s="103">
@@ -13299,9 +13319,9 @@
         <v>786</v>
       </c>
       <c r="D79" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="E79" s="113"/>
+        <v>438</v>
+      </c>
+      <c r="E79" s="114"/>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B80" s="103">
@@ -13311,10 +13331,10 @@
         <v>787</v>
       </c>
       <c r="D80" s="16" t="s">
-        <v>431</v>
-      </c>
-      <c r="E80" s="111" t="s">
-        <v>433</v>
+        <v>430</v>
+      </c>
+      <c r="E80" s="112" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.25">
@@ -13325,7 +13345,7 @@
         <v>788</v>
       </c>
       <c r="D81" s="16"/>
-      <c r="E81" s="112"/>
+      <c r="E81" s="113"/>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B82" s="103">
@@ -13335,7 +13355,7 @@
         <v>789</v>
       </c>
       <c r="D82" s="16"/>
-      <c r="E82" s="112"/>
+      <c r="E82" s="113"/>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B83" s="103">
@@ -13345,7 +13365,7 @@
         <v>790</v>
       </c>
       <c r="D83" s="16"/>
-      <c r="E83" s="112"/>
+      <c r="E83" s="113"/>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B84" s="103">
@@ -13355,7 +13375,7 @@
         <v>791</v>
       </c>
       <c r="D84" s="16"/>
-      <c r="E84" s="112"/>
+      <c r="E84" s="113"/>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B85" s="103">
@@ -13365,7 +13385,7 @@
         <v>792</v>
       </c>
       <c r="D85" s="16"/>
-      <c r="E85" s="112"/>
+      <c r="E85" s="113"/>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B86" s="103">
@@ -13375,7 +13395,7 @@
         <v>793</v>
       </c>
       <c r="D86" s="16"/>
-      <c r="E86" s="112"/>
+      <c r="E86" s="113"/>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B87" s="103">
@@ -13385,7 +13405,7 @@
         <v>794</v>
       </c>
       <c r="D87" s="16"/>
-      <c r="E87" s="113"/>
+      <c r="E87" s="114"/>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B88" s="103">
@@ -13394,8 +13414,8 @@
       <c r="C88" s="58">
         <v>795</v>
       </c>
-      <c r="E88" s="111" t="s">
-        <v>434</v>
+      <c r="E88" s="112" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.25">
@@ -13406,9 +13426,9 @@
         <v>796</v>
       </c>
       <c r="D89" s="16" t="s">
-        <v>435</v>
-      </c>
-      <c r="E89" s="112"/>
+        <v>434</v>
+      </c>
+      <c r="E89" s="113"/>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B90" s="103">
@@ -13418,9 +13438,9 @@
         <v>797</v>
       </c>
       <c r="D90" s="16" t="s">
-        <v>436</v>
-      </c>
-      <c r="E90" s="112"/>
+        <v>435</v>
+      </c>
+      <c r="E90" s="113"/>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B91" s="103">
@@ -13430,9 +13450,9 @@
         <v>798</v>
       </c>
       <c r="D91" s="16" t="s">
-        <v>437</v>
-      </c>
-      <c r="E91" s="113"/>
+        <v>436</v>
+      </c>
+      <c r="E91" s="114"/>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B92" s="103">
@@ -13442,7 +13462,7 @@
         <v>799</v>
       </c>
       <c r="D92" s="16" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.25">
@@ -13453,7 +13473,7 @@
         <v>800</v>
       </c>
       <c r="D93" s="16" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
   </sheetData>

--- a/Producciones.xlsx
+++ b/Producciones.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Usuario\Documents\NetBeansProjects\Compilador\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B202BEBC-C056-401E-A241-F3D3393984C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{578FAE63-97FE-4745-A63A-2F1D1A5B0605}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="330" windowWidth="15525" windowHeight="14850" xr2:uid="{CE99D781-93EC-43B9-9325-D9E8261D5F1E}"/>
+    <workbookView xWindow="12030" yWindow="630" windowWidth="10635" windowHeight="14850" xr2:uid="{CE99D781-93EC-43B9-9325-D9E8261D5F1E}"/>
   </bookViews>
   <sheets>
     <sheet name="Producciones" sheetId="1" r:id="rId1"/>
@@ -5490,6 +5490,1773 @@
     <t>1009, 1010</t>
   </si>
   <si>
+    <t>1009, 1012</t>
+  </si>
+  <si>
+    <t>1009, 1011</t>
+  </si>
+  <si>
+    <t>Start Asignación</t>
+  </si>
+  <si>
+    <t>ID en ejec</t>
+  </si>
+  <si>
+    <t>End Parametros</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">OR </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF663300"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> B0</t>
+    </r>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> OR </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF663300"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">@ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B0</t>
+    </r>
+  </si>
+  <si>
+    <t>fun_par1</t>
+  </si>
+  <si>
+    <t>fun_par2</t>
+  </si>
+  <si>
+    <t>Paramertro debe ser tipo cadena, id o idcadena</t>
+  </si>
+  <si>
+    <t>ERRORES DE SEMANTICA 3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF663300"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> FUNLIST</t>
+    </r>
+  </si>
+  <si>
+    <t>funList</t>
+  </si>
+  <si>
+    <t>end funlist</t>
+  </si>
+  <si>
+    <t>end fun</t>
+  </si>
+  <si>
+    <r>
+      <t>Sort (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> J5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF824100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Reverse (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> J5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF824100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Count ( </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>J5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> )</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF824100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> @</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">index ( </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>J5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> )</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF824100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> @</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">append ( </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>J5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF824100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">extend ( </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>J5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF824100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>pop (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> J5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF824100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">remove ( </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>J5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF824100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">insert ( </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>J5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF824100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">findall ( </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>J5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF663300"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">replace ( </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>J5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF663300"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">len ( </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>J5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF663300"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">choice ( </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>J5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF663300"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">randrange ( </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>J5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF663300"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">mean ( </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>J5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF663300"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> @</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">sum ( </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>J5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF663300"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">random ( </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>J5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">sample ( </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>J5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF663300"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+  </si>
+  <si>
+    <t>Paramertro debe ser tipo cadena, id, idlista o  idcadena</t>
+  </si>
+  <si>
+    <t>Numero de parametros incorrecto</t>
+  </si>
+  <si>
+    <t>Parametro debe ser tipo idlista, idcadena, iddicc, idtup, o idrang</t>
+  </si>
+  <si>
+    <t>Parametro debe ser tipo decimal o id</t>
+  </si>
+  <si>
+    <t>Parametro debe ser tipo idlista</t>
+  </si>
+  <si>
+    <t>Parametro debe ser tipo idlista num</t>
+  </si>
+  <si>
+    <t>Parametro debe ser tipo decimal, float, hex, oct, bin, complejo, cadena o char</t>
+  </si>
+  <si>
+    <t>Entradas</t>
+  </si>
+  <si>
+    <t>Salidas</t>
+  </si>
+  <si>
+    <t>Uso</t>
+  </si>
+  <si>
+    <t>Debe ser idlista</t>
+  </si>
+  <si>
+    <t>Debe ser idlista, idcadena o idlistanumerica</t>
+  </si>
+  <si>
+    <t>Debe ser idlista, idcadena, iddiccionario o idlistanumerica</t>
+  </si>
+  <si>
+    <t>Debe ser idlista o idlistanumerica</t>
+  </si>
+  <si>
+    <t>Parametro debe ser tipo decimal, float, hex, oct, bin, complejo, cadena, char o id</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">print ( </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">OR </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF663300"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> B0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> )</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">variance ( </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>J5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF663300"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">OR </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CONSTANTE B1 B2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCF20C"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">CONSTANTE </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCF20C"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> B2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">def </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> id </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ( </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">A1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">PROGRAM </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">@ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD3034D"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A0</t>
+    </r>
+  </si>
+  <si>
+    <t>(804, 8041, 1804)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFA50021"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ASIGN J3 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFA50021"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ARR </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> J2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>END (etiqueta)</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">End </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">@ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFA401"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> OR </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFA401"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>to</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> OR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> :</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> EST A3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">End </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+  </si>
+  <si>
+    <t>ELSE</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>else</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> @</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EST A3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> End</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA50021"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ASIGN J3 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFA50021"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>while</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF7A7E6"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> @ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF26AD5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">OR </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF26AD5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@ @</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EST</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">A3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>wend</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> @</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -5509,42 +7276,73 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t xml:space="preserve"> @ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> OR </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="8" tint="0.39997558519241921"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> OR </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8" tint="0.39997558519241921"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EST</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -5555,37 +7353,6 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>EST</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
         <b/>
         <sz val="11"/>
         <color theme="1"/>
@@ -5594,1773 +7361,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>A3 K0</t>
-    </r>
-  </si>
-  <si>
-    <t>1009, 1012</t>
-  </si>
-  <si>
-    <t>1009, 1011</t>
-  </si>
-  <si>
-    <t>Start Asignación</t>
-  </si>
-  <si>
-    <t>ID en ejec</t>
-  </si>
-  <si>
-    <t>End Parametros</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">OR </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF663300"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> B0</t>
-    </r>
-  </si>
-  <si>
-    <t>S3</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> OR </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF663300"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">@ </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>B0</t>
-    </r>
-  </si>
-  <si>
-    <t>fun_par1</t>
-  </si>
-  <si>
-    <t>fun_par2</t>
-  </si>
-  <si>
-    <t>Paramertro debe ser tipo cadena, id o idcadena</t>
-  </si>
-  <si>
-    <t>ERRORES DE SEMANTICA 3</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF663300"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> FUNLIST</t>
-    </r>
-  </si>
-  <si>
-    <t>funList</t>
-  </si>
-  <si>
-    <t>end funlist</t>
-  </si>
-  <si>
-    <t>end fun</t>
-  </si>
-  <si>
-    <r>
-      <t>Sort (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> J5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF824100"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Reverse (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> J5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF824100"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Count ( </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>J5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> )</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF824100"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> @</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">index ( </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>J5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> )</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF824100"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> @</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">append ( </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>J5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF824100"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">extend ( </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>J5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF824100"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>pop (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> J5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF824100"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">remove ( </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>J5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF824100"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">insert ( </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>J5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF824100"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">findall ( </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>J5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF663300"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">replace ( </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>J5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF663300"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">len ( </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>J5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF663300"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">choice ( </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>J5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF663300"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">randrange ( </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>J5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF663300"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">mean ( </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>J5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF663300"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> @</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">sum ( </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>J5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF663300"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">random ( </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>J5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ) </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">sample ( </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>J5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF663300"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-  </si>
-  <si>
-    <t>Paramertro debe ser tipo cadena, id, idlista o  idcadena</t>
-  </si>
-  <si>
-    <t>Numero de parametros incorrecto</t>
-  </si>
-  <si>
-    <t>Parametro debe ser tipo idlista, idcadena, iddicc, idtup, o idrang</t>
-  </si>
-  <si>
-    <t>Parametro debe ser tipo decimal o id</t>
-  </si>
-  <si>
-    <t>Parametro debe ser tipo idlista</t>
-  </si>
-  <si>
-    <t>Parametro debe ser tipo idlista num</t>
-  </si>
-  <si>
-    <t>Parametro debe ser tipo decimal, float, hex, oct, bin, complejo, cadena o char</t>
-  </si>
-  <si>
-    <t>Entradas</t>
-  </si>
-  <si>
-    <t>Salidas</t>
-  </si>
-  <si>
-    <t>Uso</t>
-  </si>
-  <si>
-    <t>Debe ser idlista</t>
-  </si>
-  <si>
-    <t>Debe ser idlista, idcadena o idlistanumerica</t>
-  </si>
-  <si>
-    <t>Debe ser idlista, idcadena, iddiccionario o idlistanumerica</t>
-  </si>
-  <si>
-    <t>Debe ser idlista o idlistanumerica</t>
-  </si>
-  <si>
-    <t>Parametro debe ser tipo decimal, float, hex, oct, bin, complejo, cadena, char o id</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">print ( </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">OR </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF663300"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> B0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> )</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">variance ( </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>J5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF663300"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">OR </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CONSTANTE B1 B2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCCF20C"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">CONSTANTE </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCCF20C"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> B2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">def </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> id </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ( </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">A1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="7"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">PROGRAM </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">@ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD3034D"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A0</t>
-    </r>
-  </si>
-  <si>
-    <t>(804, 8041, 1804)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFA50021"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ASIGN J3 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFA50021"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ARR </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> J2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <t>END (etiqueta)</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">End </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF002060"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>while</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF7A7E6"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF26AD5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">OR </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF26AD5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>EST</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">A3 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>wend</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF002060"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> @</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">for </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">@ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFA401"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> OR </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFA401"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>to</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> OR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> :</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> EST A3 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">End </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF002060"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-  </si>
-  <si>
-    <t>ELSE</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>else</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="7"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> @</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>EST A3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> End</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF002060"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF002060"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFA50021"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ASIGN J3 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFA50021"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
     </r>
   </si>
 </sst>
@@ -8298,6 +8298,23 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="47" fillId="27" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="19" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="27" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8334,23 +8351,6 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="27" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="19" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="27" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="20% - Énfasis5" xfId="6" builtinId="46"/>
@@ -8868,8 +8868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE3FA8B9-A47E-429A-BD32-FD36D0235D3B}">
   <dimension ref="B1:DI168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C57" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K81" sqref="K81"/>
+    <sheetView tabSelected="1" topLeftCell="C62" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8894,12 +8894,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="103" t="s">
+      <c r="B1" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="105"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="114"/>
       <c r="J1" s="73"/>
       <c r="K1" s="73"/>
       <c r="L1" s="73"/>
@@ -8910,10 +8910,10 @@
       <c r="V1" s="5"/>
     </row>
     <row r="2" spans="2:113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="106"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="108"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="117"/>
       <c r="J2" s="73"/>
       <c r="K2" s="73"/>
       <c r="L2" s="73"/>
@@ -9054,7 +9054,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F4" s="76" t="s">
         <v>305</v>
@@ -9063,7 +9063,7 @@
         <v>280</v>
       </c>
       <c r="H4" s="78" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I4" s="80" t="s">
         <v>305</v>
@@ -9101,7 +9101,7 @@
         <v>305</v>
       </c>
       <c r="J5" s="82" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K5" s="83" t="s">
         <v>285</v>
@@ -9462,13 +9462,13 @@
         <v>1</v>
       </c>
       <c r="E26" s="25" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F26" s="51" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G26" s="98" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H26" s="44">
         <v>871</v>
@@ -9486,7 +9486,7 @@
         <v>1</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F27" s="76" t="s">
         <v>305</v>
@@ -9518,7 +9518,7 @@
         <v>1</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="I28" s="4"/>
     </row>
@@ -10019,7 +10019,7 @@
         <v>306</v>
       </c>
       <c r="G61" s="65" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H61" s="44">
         <v>844</v>
@@ -10064,7 +10064,7 @@
         <v>1</v>
       </c>
       <c r="E64" s="31" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F64" s="76" t="s">
         <v>333</v>
@@ -10087,13 +10087,13 @@
         <v>1</v>
       </c>
       <c r="E65" s="31" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F65" s="51" t="s">
         <v>306</v>
       </c>
       <c r="G65" s="52" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H65" s="44" t="s">
         <v>312</v>
@@ -10162,13 +10162,13 @@
         <v>1</v>
       </c>
       <c r="E69" s="25" t="s">
+        <v>394</v>
+      </c>
+      <c r="F69" s="79" t="s">
+        <v>388</v>
+      </c>
+      <c r="G69" s="99" t="s">
         <v>395</v>
-      </c>
-      <c r="F69" s="79" t="s">
-        <v>389</v>
-      </c>
-      <c r="G69" s="99" t="s">
-        <v>396</v>
       </c>
       <c r="H69" s="10">
         <v>869</v>
@@ -10185,13 +10185,13 @@
         <v>1</v>
       </c>
       <c r="E70" s="31" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F70" s="88" t="s">
         <v>306</v>
       </c>
       <c r="G70" s="89" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H70" s="44" t="s">
         <v>312</v>
@@ -10211,7 +10211,7 @@
         <v>1</v>
       </c>
       <c r="E71" s="28" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I71" s="51"/>
       <c r="K71" s="44"/>
@@ -10256,13 +10256,13 @@
         <v>1</v>
       </c>
       <c r="E74" s="92" t="s">
+        <v>387</v>
+      </c>
+      <c r="F74" s="75" t="s">
         <v>388</v>
       </c>
-      <c r="F74" s="75" t="s">
-        <v>389</v>
-      </c>
       <c r="G74" s="99" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H74" s="10">
         <v>870</v>
@@ -10279,13 +10279,13 @@
         <v>1</v>
       </c>
       <c r="E75" s="27" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F75" s="75" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G75" s="99" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H75" s="10">
         <v>870</v>
@@ -10340,7 +10340,7 @@
         <v>1</v>
       </c>
       <c r="E78" s="25" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F78" s="76" t="s">
         <v>305</v>
@@ -10372,16 +10372,16 @@
         <v>1</v>
       </c>
       <c r="E79" s="27" t="s">
-        <v>444</v>
-      </c>
-      <c r="F79" s="116" t="s">
+        <v>447</v>
+      </c>
+      <c r="F79" s="104" t="s">
         <v>333</v>
       </c>
-      <c r="G79" s="117" t="s">
+      <c r="G79" s="105" t="s">
         <v>337</v>
       </c>
-      <c r="H79" s="118" t="s">
-        <v>384</v>
+      <c r="H79" s="106" t="s">
+        <v>383</v>
       </c>
       <c r="I79" s="75" t="s">
         <v>305</v>
@@ -10407,18 +10407,18 @@
         <v>70</v>
       </c>
       <c r="F80" s="84" t="s">
-        <v>442</v>
-      </c>
-      <c r="G80" s="119" t="s">
         <v>441</v>
       </c>
-      <c r="H80" s="121">
-        <v>10101</v>
+      <c r="G80" s="107" t="s">
+        <v>440</v>
+      </c>
+      <c r="H80" s="109">
+        <v>10104</v>
       </c>
       <c r="I80" s="75" t="s">
         <v>305</v>
       </c>
-      <c r="J80" s="122" t="s">
+      <c r="J80" s="110" t="s">
         <v>277</v>
       </c>
       <c r="K80" s="83" t="s">
@@ -10440,12 +10440,12 @@
       </c>
       <c r="H81" s="44"/>
       <c r="I81" s="84" t="s">
-        <v>442</v>
-      </c>
-      <c r="J81" s="119" t="s">
         <v>441</v>
       </c>
-      <c r="K81" s="120">
+      <c r="J81" s="107" t="s">
+        <v>440</v>
+      </c>
+      <c r="K81" s="108">
         <v>10103</v>
       </c>
     </row>
@@ -10498,22 +10498,22 @@
         <v>1</v>
       </c>
       <c r="E84" s="25" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F84" s="51" t="s">
-        <v>442</v>
-      </c>
-      <c r="G84" s="123" t="s">
-        <v>446</v>
+        <v>441</v>
+      </c>
+      <c r="G84" s="111" t="s">
+        <v>444</v>
       </c>
       <c r="H84" s="44">
         <v>10102</v>
       </c>
       <c r="I84" s="51" t="s">
-        <v>442</v>
-      </c>
-      <c r="J84" s="115" t="s">
         <v>441</v>
+      </c>
+      <c r="J84" s="103" t="s">
+        <v>440</v>
       </c>
       <c r="K84" s="70">
         <v>10101</v>
@@ -10530,7 +10530,7 @@
         <v>1</v>
       </c>
       <c r="E85" s="25" t="s">
-        <v>382</v>
+        <v>448</v>
       </c>
       <c r="F85" s="51" t="s">
         <v>333</v>
@@ -10539,7 +10539,10 @@
         <v>336</v>
       </c>
       <c r="H85" s="70" t="s">
-        <v>383</v>
+        <v>382</v>
+      </c>
+      <c r="I85">
+        <v>10092</v>
       </c>
     </row>
     <row r="86" spans="2:11" x14ac:dyDescent="0.25">
@@ -10553,13 +10556,13 @@
         <v>1</v>
       </c>
       <c r="E86" s="27" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F86" s="51" t="s">
-        <v>442</v>
-      </c>
-      <c r="G86" s="115" t="s">
         <v>441</v>
+      </c>
+      <c r="G86" s="103" t="s">
+        <v>440</v>
       </c>
       <c r="H86" s="70">
         <v>10101</v>
@@ -10866,13 +10869,13 @@
         <v>1</v>
       </c>
       <c r="E107" s="27" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F107" s="79" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G107" s="100" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H107" s="10">
         <v>873</v>
@@ -10889,13 +10892,13 @@
         <v>1</v>
       </c>
       <c r="E108" s="27" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F108" s="79" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G108" s="100" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H108" s="10">
         <v>873</v>
@@ -10912,13 +10915,13 @@
         <v>1</v>
       </c>
       <c r="E109" s="27" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F109" s="79" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G109" s="100" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H109" s="10">
         <v>873</v>
@@ -10935,13 +10938,13 @@
         <v>1</v>
       </c>
       <c r="E110" s="27" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F110" s="79" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G110" s="100" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H110" s="10">
         <v>873</v>
@@ -10958,13 +10961,13 @@
         <v>1</v>
       </c>
       <c r="E111" s="27" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F111" s="79" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G111" s="100" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H111" s="10">
         <v>873</v>
@@ -10981,13 +10984,13 @@
         <v>1</v>
       </c>
       <c r="E112" s="27" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F112" s="79" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G112" s="100" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H112" s="10">
         <v>873</v>
@@ -11004,13 +11007,13 @@
         <v>1</v>
       </c>
       <c r="E113" s="27" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F113" s="79" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G113" s="100" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H113" s="10">
         <v>873</v>
@@ -11027,13 +11030,13 @@
         <v>1</v>
       </c>
       <c r="E114" s="27" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F114" s="79" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G114" s="100" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H114" s="10">
         <v>873</v>
@@ -11050,13 +11053,13 @@
         <v>1</v>
       </c>
       <c r="E115" s="27" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F115" s="79" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G115" s="100" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H115" s="10">
         <v>873</v>
@@ -11073,13 +11076,13 @@
         <v>1</v>
       </c>
       <c r="E116" s="27" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F116" s="79" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G116" s="99" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H116" s="10">
         <v>872</v>
@@ -11096,13 +11099,13 @@
         <v>1</v>
       </c>
       <c r="E117" s="27" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F117" s="79" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G117" s="99" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H117" s="10">
         <v>872</v>
@@ -11119,13 +11122,13 @@
         <v>1</v>
       </c>
       <c r="E118" s="27" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F118" s="79" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G118" s="99" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H118" s="10">
         <v>872</v>
@@ -11142,13 +11145,13 @@
         <v>1</v>
       </c>
       <c r="E119" s="27" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F119" s="79" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G119" s="99" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H119" s="10">
         <v>872</v>
@@ -11165,13 +11168,13 @@
         <v>1</v>
       </c>
       <c r="E120" s="27" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F120" s="79" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G120" s="99" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H120" s="10">
         <v>872</v>
@@ -11188,7 +11191,7 @@
         <v>1</v>
       </c>
       <c r="E121" s="27" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="122" spans="2:8" x14ac:dyDescent="0.25">
@@ -11202,13 +11205,13 @@
         <v>1</v>
       </c>
       <c r="E122" s="27" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F122" s="79" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G122" s="99" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H122" s="10">
         <v>872</v>
@@ -11225,13 +11228,13 @@
         <v>1</v>
       </c>
       <c r="E123" s="27" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F123" s="79" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G123" s="99" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H123" s="10">
         <v>872</v>
@@ -11262,13 +11265,13 @@
         <v>1</v>
       </c>
       <c r="E125" s="27" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F125" s="79" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G125" s="99" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H125" s="10">
         <v>872</v>
@@ -11285,13 +11288,13 @@
         <v>1</v>
       </c>
       <c r="E126" s="27" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F126" s="79" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G126" s="99" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H126" s="10">
         <v>872</v>
@@ -11720,16 +11723,16 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="109" t="s">
+      <c r="B3" s="118" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="109"/>
-      <c r="C4" s="109"/>
-      <c r="D4" s="109"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
@@ -12271,16 +12274,16 @@
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B57" s="109" t="s">
+      <c r="B57" s="118" t="s">
         <v>8</v>
       </c>
-      <c r="C57" s="109"/>
-      <c r="D57" s="109"/>
+      <c r="C57" s="118"/>
+      <c r="D57" s="118"/>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B58" s="109"/>
-      <c r="C58" s="109"/>
-      <c r="D58" s="109"/>
+      <c r="B58" s="118"/>
+      <c r="C58" s="118"/>
+      <c r="D58" s="118"/>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B59" s="7" t="s">
@@ -12844,10 +12847,10 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C4" s="113" t="s">
+      <c r="C4" s="122" t="s">
         <v>274</v>
       </c>
-      <c r="D4" s="113"/>
+      <c r="D4" s="122"/>
       <c r="E4" s="18"/>
     </row>
     <row r="5" spans="3:5" x14ac:dyDescent="0.25">
@@ -13151,10 +13154,10 @@
       <c r="E39" s="36"/>
     </row>
     <row r="40" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C40" s="113" t="s">
+      <c r="C40" s="122" t="s">
         <v>273</v>
       </c>
-      <c r="D40" s="113"/>
+      <c r="D40" s="122"/>
       <c r="E40" s="36"/>
     </row>
     <row r="41" spans="3:5" x14ac:dyDescent="0.25">
@@ -13175,10 +13178,10 @@
       </c>
     </row>
     <row r="45" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C45" s="114" t="s">
+      <c r="C45" s="123" t="s">
         <v>335</v>
       </c>
-      <c r="D45" s="114"/>
+      <c r="D45" s="123"/>
     </row>
     <row r="46" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C46" s="58">
@@ -13193,10 +13196,10 @@
       <c r="D47" s="61"/>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C49" s="114" t="s">
+      <c r="C49" s="123" t="s">
         <v>358</v>
       </c>
-      <c r="D49" s="114"/>
+      <c r="D49" s="123"/>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B50" s="63" t="s">
@@ -13419,10 +13422,10 @@
       </c>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C72" s="114" t="s">
-        <v>394</v>
-      </c>
-      <c r="D72" s="114"/>
+      <c r="C72" s="123" t="s">
+        <v>393</v>
+      </c>
+      <c r="D72" s="123"/>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B73" s="101">
@@ -13432,10 +13435,10 @@
         <v>780</v>
       </c>
       <c r="D73" s="16" t="s">
-        <v>393</v>
-      </c>
-      <c r="E73" s="110" t="s">
-        <v>424</v>
+        <v>392</v>
+      </c>
+      <c r="E73" s="119" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.25">
@@ -13446,9 +13449,9 @@
         <v>781</v>
       </c>
       <c r="D74" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="E74" s="111"/>
+        <v>416</v>
+      </c>
+      <c r="E74" s="120"/>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B75" s="101">
@@ -13458,9 +13461,9 @@
         <v>782</v>
       </c>
       <c r="D75" s="16" t="s">
-        <v>419</v>
-      </c>
-      <c r="E75" s="111"/>
+        <v>418</v>
+      </c>
+      <c r="E75" s="120"/>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B76" s="101">
@@ -13470,9 +13473,9 @@
         <v>783</v>
       </c>
       <c r="D76" s="16" t="s">
-        <v>420</v>
-      </c>
-      <c r="E76" s="111"/>
+        <v>419</v>
+      </c>
+      <c r="E76" s="120"/>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B77" s="101">
@@ -13482,9 +13485,9 @@
         <v>784</v>
       </c>
       <c r="D77" s="16" t="s">
-        <v>421</v>
-      </c>
-      <c r="E77" s="111"/>
+        <v>420</v>
+      </c>
+      <c r="E77" s="120"/>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B78" s="101">
@@ -13494,9 +13497,9 @@
         <v>785</v>
       </c>
       <c r="D78" s="16" t="s">
-        <v>422</v>
-      </c>
-      <c r="E78" s="111"/>
+        <v>421</v>
+      </c>
+      <c r="E78" s="120"/>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B79" s="101">
@@ -13506,9 +13509,9 @@
         <v>786</v>
       </c>
       <c r="D79" s="16" t="s">
-        <v>431</v>
-      </c>
-      <c r="E79" s="112"/>
+        <v>430</v>
+      </c>
+      <c r="E79" s="121"/>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B80" s="101">
@@ -13518,10 +13521,10 @@
         <v>787</v>
       </c>
       <c r="D80" s="16" t="s">
-        <v>423</v>
-      </c>
-      <c r="E80" s="110" t="s">
-        <v>425</v>
+        <v>422</v>
+      </c>
+      <c r="E80" s="119" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.25">
@@ -13532,7 +13535,7 @@
         <v>788</v>
       </c>
       <c r="D81" s="16"/>
-      <c r="E81" s="111"/>
+      <c r="E81" s="120"/>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B82" s="101">
@@ -13542,7 +13545,7 @@
         <v>789</v>
       </c>
       <c r="D82" s="16"/>
-      <c r="E82" s="111"/>
+      <c r="E82" s="120"/>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B83" s="101">
@@ -13552,7 +13555,7 @@
         <v>790</v>
       </c>
       <c r="D83" s="16"/>
-      <c r="E83" s="111"/>
+      <c r="E83" s="120"/>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B84" s="101">
@@ -13562,7 +13565,7 @@
         <v>791</v>
       </c>
       <c r="D84" s="16"/>
-      <c r="E84" s="111"/>
+      <c r="E84" s="120"/>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B85" s="101">
@@ -13572,7 +13575,7 @@
         <v>792</v>
       </c>
       <c r="D85" s="16"/>
-      <c r="E85" s="111"/>
+      <c r="E85" s="120"/>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B86" s="101">
@@ -13582,7 +13585,7 @@
         <v>793</v>
       </c>
       <c r="D86" s="16"/>
-      <c r="E86" s="111"/>
+      <c r="E86" s="120"/>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B87" s="101">
@@ -13592,7 +13595,7 @@
         <v>794</v>
       </c>
       <c r="D87" s="16"/>
-      <c r="E87" s="112"/>
+      <c r="E87" s="121"/>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B88" s="101">
@@ -13601,8 +13604,8 @@
       <c r="C88" s="58">
         <v>795</v>
       </c>
-      <c r="E88" s="110" t="s">
-        <v>426</v>
+      <c r="E88" s="119" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.25">
@@ -13613,9 +13616,9 @@
         <v>796</v>
       </c>
       <c r="D89" s="16" t="s">
-        <v>427</v>
-      </c>
-      <c r="E89" s="111"/>
+        <v>426</v>
+      </c>
+      <c r="E89" s="120"/>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B90" s="101">
@@ -13625,9 +13628,9 @@
         <v>797</v>
       </c>
       <c r="D90" s="16" t="s">
-        <v>428</v>
-      </c>
-      <c r="E90" s="111"/>
+        <v>427</v>
+      </c>
+      <c r="E90" s="120"/>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B91" s="101">
@@ -13637,9 +13640,9 @@
         <v>798</v>
       </c>
       <c r="D91" s="16" t="s">
-        <v>429</v>
-      </c>
-      <c r="E91" s="112"/>
+        <v>428</v>
+      </c>
+      <c r="E91" s="121"/>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B92" s="101">
@@ -13649,7 +13652,7 @@
         <v>799</v>
       </c>
       <c r="D92" s="16" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.25">
@@ -13660,7 +13663,7 @@
         <v>800</v>
       </c>
       <c r="D93" s="16" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
   </sheetData>
